--- a/ЕГЭ Егор Исаев.xlsx
+++ b/ЕГЭ Егор Исаев.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C01A0A-5274-498E-A7EE-5616D6241736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271137F0-A480-44E9-BF6C-231E5C093306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="2220" windowWidth="25860" windowHeight="13545" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -565,7 +567,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
@@ -644,10 +646,22 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="6" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="8" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="8" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -683,6 +697,8312 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>388937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>606763</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>37500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B8646D-9ADC-41A5-86DB-F2B8A713798E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3444875" y="0"/>
+          <a:ext cx="9990476" cy="4800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>375444</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>343694</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B965C8-AA94-44BD-8AC0-F774DA08C066}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4042569" y="444500"/>
+          <a:ext cx="1190625" cy="2264551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>591582</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>169200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523035</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114420</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98FD0DA-9526-4ED8-96F6-9398F76E3D09}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3647520" y="2455200"/>
+            <a:ext cx="1765015" cy="135720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98FD0DA-9526-4ED8-96F6-9398F76E3D09}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3638506" y="2446583"/>
+              <a:ext cx="1782683" cy="153313"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>70240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>186160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>145260</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A4BEC5-E62A-40B7-8367-570E0E7834A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9849240" y="1715040"/>
+            <a:ext cx="115920" cy="144720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A4BEC5-E62A-40B7-8367-570E0E7834A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9840600" y="1706040"/>
+              <a:ext cx="133560" cy="162360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>362920</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>566615</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>124855</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="Ink 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC9E795-427D-412C-B424-599CF1997C27}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10141920" y="1117735"/>
+            <a:ext cx="203695" cy="150120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Ink 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC9E795-427D-412C-B424-599CF1997C27}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10132777" y="1109095"/>
+              <a:ext cx="221614" cy="167760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>477555</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>120000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>557835</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CCB41C-F1BE-41D9-B7CF-549AE6A8CDB7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4144680" y="882000"/>
+            <a:ext cx="80280" cy="123840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CCB41C-F1BE-41D9-B7CF-549AE6A8CDB7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4136040" y="873000"/>
+              <a:ext cx="97920" cy="141480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>254910</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>178260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>452190</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3DA11F0-3142-4906-96D6-92EF68C16A85}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7589160" y="1130760"/>
+            <a:ext cx="197280" cy="135720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3DA11F0-3142-4906-96D6-92EF68C16A85}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7580520" y="1122120"/>
+              <a:ext cx="214920" cy="153360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>544977</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>604017</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30120</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1735792-1036-415F-9697-C7D88E054F43}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7268040" y="1381320"/>
+            <a:ext cx="59040" cy="172800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1735792-1036-415F-9697-C7D88E054F43}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7259040" y="1372680"/>
+              <a:ext cx="76680" cy="190440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571617</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9030</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>122100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91905654-25B3-481D-8844-54609A026A2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7294680" y="2005920"/>
+            <a:ext cx="48600" cy="211680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91905654-25B3-481D-8844-54609A026A2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7285680" y="1996920"/>
+              <a:ext cx="66240" cy="229320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>469302</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>113780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>49435</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="Ink 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B2704F-6A11-4398-A31D-E5DBB23E8828}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4747615" y="466855"/>
+            <a:ext cx="255665" cy="154080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="Ink 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B2704F-6A11-4398-A31D-E5DBB23E8828}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4738738" y="458215"/>
+              <a:ext cx="273064" cy="171720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237260</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>356060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>55500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E138FD66-5775-4CBD-B725-89248B49DEE0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5126760" y="987480"/>
+            <a:ext cx="118800" cy="20520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E138FD66-5775-4CBD-B725-89248B49DEE0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5117760" y="978480"/>
+              <a:ext cx="136440" cy="38160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>244635</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>77400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>337155</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30540</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="21" name="Ink 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FA8DB3-DEA5-4F22-8D0D-DB9D94C96EBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3911760" y="1220400"/>
+            <a:ext cx="92520" cy="143640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="21" name="Ink 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FA8DB3-DEA5-4F22-8D0D-DB9D94C96EBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3903120" y="1211400"/>
+              <a:ext cx="110160" cy="161280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233115</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>166260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347595</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121560</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="22" name="Ink 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68838CBC-A373-445C-BE2E-EFBA381C6756}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3900240" y="1499760"/>
+            <a:ext cx="114480" cy="145800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="Ink 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68838CBC-A373-445C-BE2E-EFBA381C6756}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3891240" y="1491120"/>
+              <a:ext cx="132120" cy="163440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209715</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>124380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250395</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>98760</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="23" name="Ink 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F571BF7-21ED-4364-88BE-0381E060B49E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3876840" y="1838880"/>
+            <a:ext cx="40680" cy="164880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="Ink 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F571BF7-21ED-4364-88BE-0381E060B49E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3868200" y="1830240"/>
+              <a:ext cx="58320" cy="182520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>275955</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>65220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>282075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167460</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69342F8-FD90-4F53-8C5D-BFB59C8C1F08}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3943080" y="2160720"/>
+            <a:ext cx="6120" cy="102240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69342F8-FD90-4F53-8C5D-BFB59C8C1F08}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3934440" y="2152080"/>
+              <a:ext cx="23760" cy="119880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>603482</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>78060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>46655</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>68280</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="25" name="Ink 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121A8417-BE62-4FEE-AB8F-AF440A2B0908}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8548920" y="1411560"/>
+            <a:ext cx="54360" cy="180720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="25" name="Ink 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121A8417-BE62-4FEE-AB8F-AF440A2B0908}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8539920" y="1402920"/>
+              <a:ext cx="72000" cy="198360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>204795</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>283635</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4555</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29D3F18-4A8A-4DAB-BB01-5C20A8E4ACB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5094295" y="1217520"/>
+            <a:ext cx="78840" cy="120535"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29D3F18-4A8A-4DAB-BB01-5C20A8E4ACB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5085295" y="1208525"/>
+              <a:ext cx="96480" cy="138165"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>243215</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>456335</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>595</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="31" name="Ink 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B67F0C0-EF29-415C-933B-B86CD6FE171F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8799840" y="1114135"/>
+            <a:ext cx="213120" cy="219960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="31" name="Ink 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B67F0C0-EF29-415C-933B-B86CD6FE171F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8790840" y="1105135"/>
+              <a:ext cx="230760" cy="237600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>149420</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>502580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>79080</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="32" name="Ink 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBC5473-933A-46B5-BA3F-DA1DC9DD08B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5038920" y="1404720"/>
+            <a:ext cx="353160" cy="198360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="32" name="Ink 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBC5473-933A-46B5-BA3F-DA1DC9DD08B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5030280" y="1396080"/>
+              <a:ext cx="370800" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>225140</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>141475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>401900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5275</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="35" name="Ink 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB5BE0A-95F4-479F-BD93-CC67D21C7797}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6337015" y="1093975"/>
+            <a:ext cx="176760" cy="244800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="35" name="Ink 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB5BE0A-95F4-479F-BD93-CC67D21C7797}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6328375" y="1085335"/>
+              <a:ext cx="194400" cy="262440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205940</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>73375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>325460</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4195</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F81FE0F8-3DC7-41B3-8040-2B2FDB524864}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5095440" y="1216375"/>
+            <a:ext cx="119520" cy="121320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F81FE0F8-3DC7-41B3-8040-2B2FDB524864}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5086440" y="1207735"/>
+              <a:ext cx="137160" cy="138960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>356745</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E0AE5B7-C182-41F2-ADB4-8249F47A9A2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1073150" y="2438400"/>
+          <a:ext cx="20009995" cy="3219450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>231360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>72655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>540895</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>74700</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7816C118-B87E-47C5-96EF-3B42997A32D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="19128960" y="3501655"/>
+            <a:ext cx="309535" cy="573545"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7816C118-B87E-47C5-96EF-3B42997A32D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19119962" y="3493057"/>
+              <a:ext cx="327171" cy="591099"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>570960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>87655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>339000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>74215</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="Ink 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B447CD74-2737-4167-862D-CAE7B263F7B5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4228560" y="5040655"/>
+            <a:ext cx="377640" cy="367560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Ink 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B447CD74-2737-4167-862D-CAE7B263F7B5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4219920" y="5031938"/>
+              <a:ext cx="395280" cy="385357"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>429535</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>13675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>58975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>72955</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054042F6-952D-4865-9226-E2EF2456FBE6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12621535" y="4395175"/>
+            <a:ext cx="239040" cy="440280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054042F6-952D-4865-9226-E2EF2456FBE6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12612895" y="4386175"/>
+              <a:ext cx="256680" cy="457920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>79920</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>345175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>115320</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44553EDF-808C-42A4-9E43-6E1D348EBC2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5566320" y="4976280"/>
+            <a:ext cx="265255" cy="473040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44553EDF-808C-42A4-9E43-6E1D348EBC2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5557682" y="4967280"/>
+              <a:ext cx="282891" cy="490680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>261480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>72660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>587280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>151740</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="21" name="Ink 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4622A360-8787-4276-9D82-371105816D57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8795880" y="3692160"/>
+            <a:ext cx="325800" cy="460080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="21" name="Ink 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4622A360-8787-4276-9D82-371105816D57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8786880" y="3683520"/>
+              <a:ext cx="343440" cy="477720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16080</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>73020</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E39529E-7174-4AFC-9C42-28FA745A3936}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2189880" y="4367160"/>
+            <a:ext cx="264600" cy="468360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E39529E-7174-4AFC-9C42-28FA745A3936}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2181240" y="4358520"/>
+              <a:ext cx="282240" cy="486000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>117480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>90900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>244255</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>115020</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="27" name="Ink 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34FD2016-A509-4B10-8104-89322FC98D31}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1336680" y="4091400"/>
+            <a:ext cx="1345975" cy="1167120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="27" name="Ink 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34FD2016-A509-4B10-8104-89322FC98D31}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1282913" y="3983760"/>
+              <a:ext cx="1453870" cy="1382760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233280</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266040</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>79680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958ED08F-38F3-471D-9B50-8870FA62D9A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3890880" y="5022720"/>
+            <a:ext cx="32760" cy="390960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958ED08F-38F3-471D-9B50-8870FA62D9A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3836880" y="4914720"/>
+              <a:ext cx="140400" cy="606600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>294960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>162660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>340680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>111000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="29" name="Ink 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95707995-0ECC-437E-AD18-B6576CFD9A32}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5171760" y="4925160"/>
+            <a:ext cx="45720" cy="519840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="Ink 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95707995-0ECC-437E-AD18-B6576CFD9A32}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5118120" y="4817520"/>
+              <a:ext cx="153360" cy="735480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>300535</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>187375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB72D9A-203F-4C15-B963-F91592F61B7C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="16759735" y="3699720"/>
+            <a:ext cx="4154040" cy="1783080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB72D9A-203F-4C15-B963-F91592F61B7C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16705735" y="3591742"/>
+              <a:ext cx="4261680" cy="1998676"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1320</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>77520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333295</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="41" name="Ink 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A46EFCB3-087D-4B58-9433-8CF5C7CD5F7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11583720" y="4268520"/>
+            <a:ext cx="1551175" cy="1199160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="41" name="Ink 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A46EFCB3-087D-4B58-9433-8CF5C7CD5F7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11529970" y="4160880"/>
+              <a:ext cx="1659036" cy="1414800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>282055</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>39900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>252415</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>138000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="42" name="Ink 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B9EB77-4C94-4323-8F09-6937C337115A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6378055" y="3659400"/>
+            <a:ext cx="4237560" cy="1812600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="42" name="Ink 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B9EB77-4C94-4323-8F09-6937C337115A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6324415" y="3551760"/>
+              <a:ext cx="4345200" cy="2028240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>256920</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>69840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>202080</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>173160</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="43" name="Ink 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6196E595-409E-467D-9146-C1C22E23461E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13668120" y="5784840"/>
+            <a:ext cx="2383560" cy="103320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Ink 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6196E595-409E-467D-9146-C1C22E23461E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13659093" y="5775952"/>
+              <a:ext cx="2401253" cy="121466"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>544800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>107640</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>56280</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="44" name="Ink 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2CE2CA-8088-446D-AF28-66E8E1627C2F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="14565600" y="5060520"/>
+            <a:ext cx="172440" cy="329760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="44" name="Ink 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2CE2CA-8088-446D-AF28-66E8E1627C2F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14556600" y="5051520"/>
+              <a:ext cx="190080" cy="347400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>430015</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>159895</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>33175</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="47" name="Ink 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C44362-9E0B-4FF1-80A3-E1237DE7EC64}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="15670015" y="5086080"/>
+            <a:ext cx="339480" cy="281095"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="47" name="Ink 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C44362-9E0B-4FF1-80A3-E1237DE7EC64}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15661375" y="5076977"/>
+              <a:ext cx="357120" cy="298937"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>129840</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>125935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>287520</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>166015</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="53" name="Ink 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065F1C31-4782-4CF9-86E8-85D224C08D94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13541040" y="6983935"/>
+            <a:ext cx="1986480" cy="802080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="53" name="Ink 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065F1C31-4782-4CF9-86E8-85D224C08D94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13532436" y="6974935"/>
+              <a:ext cx="2004047" cy="819720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>29267</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>8165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F3D4F7-7BDB-478B-B0B5-5A2CB41B53EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2585357" y="11838215"/>
+          <a:ext cx="20099803" cy="3219450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>282121</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>135618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>380592</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25AD663F-FBFD-46D6-9A8F-4CA2F721579D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1501321" y="8327118"/>
+          <a:ext cx="12290471" cy="1172482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>586855</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>97020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>369655</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>34495</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="59" name="Ink 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801F8AB3-F223-44DB-BAD9-7D72E3D9C206}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10340455" y="13051020"/>
+            <a:ext cx="392400" cy="508975"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="59" name="Ink 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801F8AB3-F223-44DB-BAD9-7D72E3D9C206}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10331455" y="13042326"/>
+              <a:ext cx="410040" cy="526726"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>277255</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>89515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>37015</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>95220</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="62" name="Ink 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960D6BBA-5B64-4964-877D-6E6541B3A912}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6373255" y="13805515"/>
+            <a:ext cx="369360" cy="386705"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="62" name="Ink 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960D6BBA-5B64-4964-877D-6E6541B3A912}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6364615" y="13796874"/>
+              <a:ext cx="387000" cy="404348"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>130440</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>149880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502680</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>17515</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="66" name="Ink 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BFC4F1-EF75-4059-A0B8-65E40FDA3D2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4397640" y="14437380"/>
+            <a:ext cx="372240" cy="439135"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="66" name="Ink 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BFC4F1-EF75-4059-A0B8-65E40FDA3D2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4389000" y="14428741"/>
+              <a:ext cx="389880" cy="456772"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>31560</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>97500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>105240</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>90540</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="67" name="Ink 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1679F4-09BD-4B95-ADF7-04252F71D563}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="21977160" y="13813500"/>
+            <a:ext cx="683280" cy="374040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="67" name="Ink 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1679F4-09BD-4B95-ADF7-04252F71D563}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21968520" y="13804500"/>
+              <a:ext cx="700920" cy="391680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>432230</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>137340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>247855</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>75360</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="73" name="Ink 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6831E2AB-4167-4A69-B0EC-F02BBE9530FE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="19939430" y="9662340"/>
+            <a:ext cx="425225" cy="1271520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="73" name="Ink 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6831E2AB-4167-4A69-B0EC-F02BBE9530FE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19930854" y="9653698"/>
+              <a:ext cx="442734" cy="1289165"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>418920</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>96960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>41160</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="77" name="Ink 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46583603-F9D6-44B5-8C11-1C076B00CB08}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="18706920" y="9812460"/>
+            <a:ext cx="231840" cy="365040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="77" name="Ink 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46583603-F9D6-44B5-8C11-1C076B00CB08}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18698280" y="9803820"/>
+              <a:ext cx="249480" cy="382680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>484495</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>167460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>223735</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>186000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="78" name="Ink 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D41E3EC-5C8B-44FF-8394-0C15517AAB53}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="19991695" y="11216460"/>
+            <a:ext cx="348840" cy="590040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="78" name="Ink 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D41E3EC-5C8B-44FF-8394-0C15517AAB53}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19982695" y="11207815"/>
+              <a:ext cx="366480" cy="607691"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>496680</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>65040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>142320</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>33240</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="79" name="Ink 78">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E491CCAA-55EA-457D-B70D-D617B5D86A93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="18784680" y="10542540"/>
+            <a:ext cx="255240" cy="349200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="79" name="Ink 78">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E491CCAA-55EA-457D-B70D-D617B5D86A93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18775680" y="10533540"/>
+              <a:ext cx="272880" cy="366840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>575160</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>291720</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="80" name="Ink 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A1DBA8-3F53-48C6-B9BF-67A3D0FD6D3D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="18863160" y="11353980"/>
+            <a:ext cx="326160" cy="457920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="80" name="Ink 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A1DBA8-3F53-48C6-B9BF-67A3D0FD6D3D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18854160" y="11344980"/>
+              <a:ext cx="343800" cy="475560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>450600</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>155280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>597840</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>26220</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="81" name="Ink 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C011BC23-35A1-4D2D-9325-D28B524B7E14}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4108200" y="14442780"/>
+            <a:ext cx="147240" cy="442440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="81" name="Ink 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C011BC23-35A1-4D2D-9325-D28B524B7E14}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4054560" y="14335140"/>
+              <a:ext cx="254880" cy="658080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>53515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279295</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>131695</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="84" name="Ink 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897E0D67-F4F6-41E7-9506-143D07F690FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5488800" y="13769515"/>
+            <a:ext cx="1496095" cy="1030680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="84" name="Ink 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897E0D67-F4F6-41E7-9506-143D07F690FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5434802" y="13661515"/>
+              <a:ext cx="1603730" cy="1246320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>80760</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>99000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>256495</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>186480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="91" name="Ink 90">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892803D0-392D-485C-A94D-8C68F6FFF4DA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="20807160" y="13624500"/>
+            <a:ext cx="1394935" cy="1230480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="91" name="Ink 90">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892803D0-392D-485C-A94D-8C68F6FFF4DA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="20753163" y="13516500"/>
+              <a:ext cx="1502570" cy="1446120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>135480</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>30295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>469855</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>112555</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="92" name="Ink 91">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48076BCC-440D-42A2-B6AD-F29CC341D5DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8060280" y="13174795"/>
+            <a:ext cx="3991975" cy="1796760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="92" name="Ink 91">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48076BCC-440D-42A2-B6AD-F29CC341D5DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8006636" y="13066961"/>
+              <a:ext cx="4099623" cy="2012790"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>546960</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>81300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>583320</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>87060</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="93" name="Ink 92">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D49D3C-A8FA-426D-BC4A-079847D58922}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="19444560" y="13797300"/>
+            <a:ext cx="36360" cy="5760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="93" name="Ink 92">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D49D3C-A8FA-426D-BC4A-079847D58922}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19435560" y="13788300"/>
+              <a:ext cx="54000" cy="23400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>299935</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>74215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>529320</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>53935</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="96" name="Ink 95">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AED0727-98FD-44F2-B120-EAC4E1B10582}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="15539935" y="13218715"/>
+            <a:ext cx="229385" cy="360720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="96" name="Ink 95">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AED0727-98FD-44F2-B120-EAC4E1B10582}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15531293" y="13209997"/>
+              <a:ext cx="247030" cy="378520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>108000</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167040</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>50220</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="106" name="Ink 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B68468F-C085-453A-BF31-9B1CAAA9F4FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3156000" y="15244500"/>
+            <a:ext cx="59040" cy="45720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="106" name="Ink 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B68468F-C085-453A-BF31-9B1CAAA9F4FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3147360" y="15235860"/>
+              <a:ext cx="76680" cy="63360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>149940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>586080</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>147300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="107" name="Ink 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DAF95E3-5C12-4846-91EE-019D9A669844}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="21483960" y="9674940"/>
+            <a:ext cx="438120" cy="378360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="107" name="Ink 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DAF95E3-5C12-4846-91EE-019D9A669844}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21475320" y="9666300"/>
+              <a:ext cx="455760" cy="396000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>523135</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>80940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>131695</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9055</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="110" name="Ink 109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D29381-6FAE-4E9F-A3A5-8FE42D5FE844}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="19420735" y="13796940"/>
+            <a:ext cx="218160" cy="499615"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="110" name="Ink 109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D29381-6FAE-4E9F-A3A5-8FE42D5FE844}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19411735" y="13788245"/>
+              <a:ext cx="235800" cy="517368"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>166855</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>16435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>475735</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>54410</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="131" name="Ink 130">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A78AAAD-9F07-47CE-9CA2-6392301E5481}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1995655" y="14875435"/>
+            <a:ext cx="2137680" cy="1561975"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="131" name="Ink 130">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A78AAAD-9F07-47CE-9CA2-6392301E5481}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1987014" y="14866795"/>
+              <a:ext cx="2155323" cy="1579614"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>133200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>392760</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>69240</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="132" name="Ink 131">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2FEA5C-67BB-4CAE-BFF8-299D88A5C385}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="21469200" y="10477740"/>
+            <a:ext cx="259560" cy="450000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="132" name="Ink 131">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2FEA5C-67BB-4CAE-BFF8-299D88A5C385}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21460560" y="10469100"/>
+              <a:ext cx="277200" cy="467640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>73800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>39960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>9175</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>70735</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="135" name="Ink 134">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E737CA5B-E00F-4312-80E8-C0BCBE55FC4A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="21409800" y="11279460"/>
+            <a:ext cx="544975" cy="411775"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="135" name="Ink 134">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E737CA5B-E00F-4312-80E8-C0BCBE55FC4A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21401109" y="11270461"/>
+              <a:ext cx="562718" cy="429412"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114840</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>184255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571680</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>148500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="138" name="Ink 137">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7942C53C-CA01-4A6B-B063-95FA06FCE556}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12306840" y="15995755"/>
+            <a:ext cx="456840" cy="535745"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="138" name="Ink 137">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7942C53C-CA01-4A6B-B063-95FA06FCE556}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12298193" y="15986754"/>
+              <a:ext cx="474494" cy="553387"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>79320</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>365880</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>174420</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="139" name="Ink 138">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D22375-EEC1-44F8-96C3-5890F6CA7650}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13490520" y="15892500"/>
+            <a:ext cx="286560" cy="664920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="139" name="Ink 138">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D22375-EEC1-44F8-96C3-5890F6CA7650}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13481520" y="15883860"/>
+              <a:ext cx="304200" cy="682560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>164640</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>55800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>16560</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>111060</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="142" name="Ink 141">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6BC38D-2D21-46C2-AE7B-A9C4EBCD2047}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="15404640" y="15867300"/>
+            <a:ext cx="461520" cy="626760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="142" name="Ink 141">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6BC38D-2D21-46C2-AE7B-A9C4EBCD2047}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15396000" y="15858660"/>
+              <a:ext cx="479160" cy="644400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>574560</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>95760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>350095</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>106015</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="143" name="Ink 142">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818ED6DA-E2E1-4F21-BBAC-E2AD3557E486}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="14595360" y="15907260"/>
+            <a:ext cx="385135" cy="391255"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="143" name="Ink 142">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818ED6DA-E2E1-4F21-BBAC-E2AD3557E486}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14586721" y="15898186"/>
+              <a:ext cx="402772" cy="409039"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>249360</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>119160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>79920</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>100680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="144" name="Ink 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D9C80F-8B09-45CC-8622-8D41979A2ABB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="16708560" y="15930660"/>
+            <a:ext cx="1049760" cy="362520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="144" name="Ink 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D9C80F-8B09-45CC-8622-8D41979A2ABB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16699920" y="15922020"/>
+              <a:ext cx="1067400" cy="380160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>22560</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>166920</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>180175</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="149" name="Ink 148">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0392DAC-68DB-4595-9ECE-CFA442DC6C07}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="18310560" y="15833100"/>
+            <a:ext cx="1973160" cy="539575"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="149" name="Ink 148">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0392DAC-68DB-4595-9ECE-CFA442DC6C07}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18301560" y="15824409"/>
+              <a:ext cx="1990800" cy="557319"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>546000</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>166380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>248160</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>138540</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="150" name="Ink 149">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B71399-3D04-47D3-B640-027DE9C28C8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="17005200" y="16930380"/>
+            <a:ext cx="311760" cy="353160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="150" name="Ink 149">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B71399-3D04-47D3-B640-027DE9C28C8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16996560" y="16921740"/>
+              <a:ext cx="329400" cy="370800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>216000</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>111960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>521280</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>11400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="151" name="Ink 150">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F931F308-170A-4F65-8323-CC191F443988}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12408000" y="17066460"/>
+            <a:ext cx="305280" cy="280440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="151" name="Ink 150">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F931F308-170A-4F65-8323-CC191F443988}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12399000" y="17057820"/>
+              <a:ext cx="322920" cy="298080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>267000</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>145140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>154920</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>126300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="152" name="Ink 151">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C904F28-BCB8-4966-9ADC-AB156E48D2B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="14897400" y="16909140"/>
+            <a:ext cx="497520" cy="362160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="152" name="Ink 151">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C904F28-BCB8-4966-9ADC-AB156E48D2B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14888760" y="16900500"/>
+              <a:ext cx="515160" cy="379800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>400560</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>126060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>260400</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>22620</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="153" name="Ink 152">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93944ED-1BFE-4B70-8562-10A8D327D736}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="18688560" y="16890060"/>
+            <a:ext cx="469440" cy="277560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="153" name="Ink 152">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93944ED-1BFE-4B70-8562-10A8D327D736}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18679920" y="16881420"/>
+              <a:ext cx="487080" cy="295200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>343920</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>48600</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>161520</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="154" name="Ink 153">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B1CF53D-6345-412F-88DE-81FA908B77C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13755120" y="17111460"/>
+            <a:ext cx="314280" cy="385560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="154" name="Ink 153">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B1CF53D-6345-412F-88DE-81FA908B77C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13746120" y="17102820"/>
+              <a:ext cx="331920" cy="403200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>599880</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>146580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>303840</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>24720</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="155" name="Ink 154">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B65F48-D116-4890-9227-608FEDCA7CC2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="15839880" y="16910580"/>
+            <a:ext cx="313560" cy="449640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="155" name="Ink 154">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B65F48-D116-4890-9227-608FEDCA7CC2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15830880" y="16901580"/>
+              <a:ext cx="331200" cy="467280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>437040</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>150240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>415615</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>128095</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="158" name="Ink 157">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EE9467-0E10-4254-BA96-D5E65E0BE49E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="19944240" y="16723740"/>
+            <a:ext cx="588175" cy="358855"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="158" name="Ink 157">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EE9467-0E10-4254-BA96-D5E65E0BE49E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19935241" y="16715023"/>
+              <a:ext cx="605813" cy="376652"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>51660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>8520</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>8700</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId103">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="159" name="Ink 158">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2A2379-7EA7-4ACA-8D2D-D480D5445D24}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12496560" y="18149160"/>
+            <a:ext cx="313560" cy="338040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="159" name="Ink 158">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2A2379-7EA7-4ACA-8D2D-D480D5445D24}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12487560" y="18140160"/>
+              <a:ext cx="331200" cy="355680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>372720</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>136680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4680</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>157080</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="160" name="Ink 159">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDBAD97-325B-453E-8B8B-1C8F482E987A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13783920" y="18043680"/>
+            <a:ext cx="241560" cy="401400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="160" name="Ink 159">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDBAD97-325B-453E-8B8B-1C8F482E987A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13774920" y="18035040"/>
+              <a:ext cx="259200" cy="419040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>155760</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>108240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>580920</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>47640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId107">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="162" name="Ink 161">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732A4B08-0210-4559-B0B4-F3AE45051D20}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="14786160" y="18015240"/>
+            <a:ext cx="425160" cy="320400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="162" name="Ink 161">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732A4B08-0210-4559-B0B4-F3AE45051D20}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14777520" y="18006600"/>
+              <a:ext cx="442800" cy="338040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>167760</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>139200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>430920</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>112440</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId109">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="163" name="Ink 162">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE6958D-0919-4690-9C6A-D6FE810091EE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="16017360" y="18046200"/>
+            <a:ext cx="263160" cy="354240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="163" name="Ink 162">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE6958D-0919-4690-9C6A-D6FE810091EE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16008720" y="18037560"/>
+              <a:ext cx="280800" cy="371880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>155400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>350400</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>85800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId111">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="164" name="Ink 163">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78A412F-292D-4905-890A-7FCBB3F4A186}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="17129760" y="18062400"/>
+            <a:ext cx="289440" cy="311400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="164" name="Ink 163">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78A412F-292D-4905-890A-7FCBB3F4A186}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17121120" y="18053760"/>
+              <a:ext cx="307080" cy="329040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>553920</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>76560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>402960</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>174780</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId113">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="165" name="Ink 164">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEFCDE4F-0253-49E4-AD89-A980FFFB4784}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="18841920" y="17983560"/>
+            <a:ext cx="458640" cy="288720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="165" name="Ink 164">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEFCDE4F-0253-49E4-AD89-A980FFFB4784}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18833280" y="17974920"/>
+              <a:ext cx="476280" cy="306360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9600</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>116580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>285360</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57360</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId115">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="166" name="Ink 165">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF09B164-0798-43F7-AD92-603B286DA422}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="20126400" y="17833080"/>
+            <a:ext cx="275760" cy="512280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="166" name="Ink 165">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF09B164-0798-43F7-AD92-603B286DA422}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="20117400" y="17824440"/>
+              <a:ext cx="293400" cy="529920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>23760</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>155340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>288720</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>97680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId117">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="171" name="Ink 170">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F95540B-96AE-4E28-9127-23AECAFCB7E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="21359760" y="18252840"/>
+            <a:ext cx="264960" cy="132840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="171" name="Ink 170">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F95540B-96AE-4E28-9127-23AECAFCB7E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId118"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21350760" y="18243840"/>
+              <a:ext cx="282600" cy="150480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>568495</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>164335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>250135</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>136980</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId119">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="172" name="Ink 171">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CB2A30-D97F-4BE4-A0E4-536A7F53293D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="21294895" y="16928335"/>
+            <a:ext cx="291240" cy="163145"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="172" name="Ink 171">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CB2A30-D97F-4BE4-A0E4-536A7F53293D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId120"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21286255" y="16919331"/>
+              <a:ext cx="308880" cy="180792"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>344400</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>90960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>607440</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>113095</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId121">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="175" name="Ink 174">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F49517-07AC-4417-974F-B6F24D2B1C2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="22290000" y="16854960"/>
+            <a:ext cx="872640" cy="403135"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="175" name="Ink 174">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F49517-07AC-4417-974F-B6F24D2B1C2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId122"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22281356" y="16846321"/>
+              <a:ext cx="890287" cy="420772"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>416400</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>21780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>420240</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>91500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId123">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="178" name="Ink 177">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F966AF-85BB-4D98-8066-3E98152F8EC6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="22362000" y="18119280"/>
+            <a:ext cx="613440" cy="450720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="178" name="Ink 177">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F966AF-85BB-4D98-8066-3E98152F8EC6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId124"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22353360" y="18110640"/>
+              <a:ext cx="631080" cy="468360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>363960</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>100560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>32520</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>25620</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId125">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="179" name="Ink 178">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{716447F9-9BE1-496D-A5E4-7AAFA42AB962}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="18042360" y="14959560"/>
+            <a:ext cx="887760" cy="115560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="179" name="Ink 178">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{716447F9-9BE1-496D-A5E4-7AAFA42AB962}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId126"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18033360" y="14950560"/>
+              <a:ext cx="905400" cy="133200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>471000</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>141240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>561960</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>183000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId127">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="180" name="Ink 179">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE6B8F2-3DD6-43A8-BF0E-5B8390CC691C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="19368600" y="15000240"/>
+            <a:ext cx="700560" cy="41760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="180" name="Ink 179">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE6B8F2-3DD6-43A8-BF0E-5B8390CC691C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId128"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19359600" y="14991240"/>
+              <a:ext cx="718200" cy="59400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:46:07.294"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">57 370 364 0 0,'-16'4'2148'0'0,"7"-3"108"0"0,2 1-247 0 0,1-2-1085 0 0,0-2-1860 0 0,3 2-897 0 0,0-1-279 0 0,-4-1 168 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2032.31">113 299 804 0 0,'5'5'5364'0'0,"6"-2"-3861"0"0,13-2-1488 0 0,-22-1 258 0 0,283-18 4089 0 0,-1-22-3073 0 0,-8 1-698 0 0,-124 21-419 0 0,631-51 1414 0 0,-416 53-1235 0 0,-28 2-116 0 0,2-2 167 0 0,9 0 395 0 0,-183 11-345 0 0,682-3 1158 0 0,-772 10-1342 0 0,344 6 1413 0 0,-374-7 786 0 0,-46-1-2138 0 0,-7 0 635 0 0,-268-10-385 0 0,144 3-529 0 0,-1109-35-118 0 0,1 69 104 0 0,-79 107 108 0 0,1311-132-121 0 0,22-1 4 0 0,28-1 21 0 0,517-34 2 0 0,203-9-108 0 0,1466 6-93 0 0,-2155 35 144 0 0,-277-5-279 0 0,-1198 12 195 0 0,2 77 199 0 0,843-23-177 0 0,524-55 61 0 0,30-4 13 0 0,7 0 3 0 0,52-6 23 0 0,1223-91-151 0 0,4 63 22 0 0,5 34 40 0 0,-1253 2 77 0 0,16 0 68 0 0,-268 5-185 0 0,123-7 44 0 0,-247 5-68 0 0,-540 11 256 0 0,3 25 150 0 0,-501 88 310 0 0,1308-118-563 0 0,67-9 25 0 0,12-1-24 0 0,17-2 9 0 0,548-29 175 0 0,172-8-168 0 0,1122 7 60 0 0,-1825 30-260 0 0,-39 1-28 0 0,-6-1-67 0 0,-24-1-462 0 0,-262-1-7140 0 0,127 3 3561 0 0,-246 0-4271 0 0,182 3 5229 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:52:14.669"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">51 118 232 0 0,'-20'2'3129'0'0,"19"-2"-3020"0"0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0 308 0 0,1 1-249 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 0-29 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,3-3 1 0 0,1-4 41 0 0,-3 7-163 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,1-1 0 0 0,5-4 41 0 0,1 0-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,0 1-1 0 0,15-3 1 0 0,-21 5-51 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,5 5-1 0 0,-7-6 4 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 1 0 0,-4 5 58 0 0,0 0-1 0 0,0-1 1 0 0,-13 14 0 0 0,-48 43 68 0 0,-30 33-66 0 0,97-98-64 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 3 0 0 0,0-4 20 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1-1 1 0 0,25 2 443 0 0,36-4 0 0 0,-36 2-1119 0 0,37 1 0 0 0,-40 8-2953 0 0,-24-7 3295 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 1 0 0 0,-5 5-1770 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:52:15.297"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">17 62 1152 0 0,'-7'-10'4367'0'0,"-3"-1"-1683"0"0,10 10-2637 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 2 1 0 0,15-6 705 0 0,10-3 336 0 0,38-7 1 0 0,-57 14-1005 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,7 4 0 0 0,-14-5-65 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-2 4 0 0 0,-4 6 171 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,-12 13 0 0 0,10-12 42 0 0,-15 17 287 0 0,15-20-379 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,-6 21-1 0 0,11-31-123 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,0 0 12 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3 1 1 0 0,7 2-18 0 0,0-1 1 0 0,0-1 0 0 0,18 2 0 0 0,-20-3-146 0 0,-2 0-593 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,16 6 0 0 0,-20-5-740 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,7 7-1 0 0,-12-9 1198 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1 10-1697 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:52:15.708"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 12 500 0 0,'0'-1'349'0'0,"1"1"0"0"0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 158 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 2-1 0 0,4 12-532 0 0,8 18 1829 0 0,25 73 1692 0 0,-31-83-3524 0 0,-1-1 1 0 0,5 44-1 0 0,-7 11-5884 0 0,-3 2-7430 0 0,-1-61 11109 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:52:16.083"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 50 800 0 0,'5'-32'3538'0'0,"-6"15"5513"0"0,0 23-8442 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,0 12-1 0 0,0-8-192 0 0,0 32 406 0 0,0 41-620 0 0,4-29-5387 0 0,5-13-4299 0 0,-6-27 6797 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:52:34.768"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7 247 712 0 0,'-7'9'14300'0'0,"9"-15"-14156"0"0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1-1 0 0,4-4 1 0 0,9-13 193 0 0,39-65 717 0 0,-50 77-918 0 0,-2 4-15 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2-10 0 0 0,-1 2 473 0 0,0 8 1307 0 0,-3 7-1734 0 0,1-3 730 0 0,-7 15-703 0 0,1-2-179 0 0,1-1 0 0 0,-6 22 0 0 0,4 3 18 0 0,4-27-26 0 0,0 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,1 8-1 0 0,-1-7 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,-2 10 1 0 0,-3 34 1 0 0,4-39 15 0 0,1 1 0 0 0,0-1-1 0 0,3 28 1 0 0,0-3 6 0 0,-2 48 30 0 0,0-88-55 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:53:03.739"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">13 15 488 0 0,'-10'-15'8662'0'0,"25"53"-6078"0"0,-12-30-2442 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,7 9-1 0 0,27 28 326 0 0,47 45 0 0 0,-82-86-498 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 6 1 0 0,0-5-1904 0 0,-8-19-9199 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="418.82">206 52 824 0 0,'9'-20'5000'0'0,"-6"17"-2691"0"0,-9 15-831 0 0,-28 42 309 0 0,-65 80 0 0 0,48-69-1493 0 0,23-24-959 0 0,33-54-9731 0 0,-7 9 8454 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:53:18.768"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">253 41 660 0 0,'3'-19'4550'0'0,"0"4"6800"0"0,-3 33-6477 0 0,1-7-3935 0 0,-1 1 1 0 0,2 0-1 0 0,3 14 1 0 0,0-6-318 0 0,1-1 0 0 0,16 34 0 0 0,59 87 4 0 0,74 98 114 0 0,-142-215-317 0 0,-11-15-2771 0 0,-16-27-14380 0 0,14 16 15808 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-5 1 0 0,0 3-4 0 0,-1-12-2079 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="416.47">591 22 280 0 0,'-7'-12'5118'0'0,"0"2"1753"0"0,6 11-6638 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,-9 14 1753 0 0,0 0 0 0 0,-15 17 0 0 0,-30 28 684 0 0,15-16-1789 0 0,-218 218 547 0 0,133-141-1291 0 0,113-108-293 0 0,-5 5-2264 0 0,4-11-7297 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:53:25.192"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">29 492 1152 0 0,'-28'-3'12206'0'0,"31"16"-7488"0"0,2-8-4521 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 1 0 0,11 1-1 0 0,2-1 72 0 0,0-1 1 0 0,0 0 0 0 0,0-2 0 0 0,24-4 0 0 0,-24 2-159 0 0,0-1 0 0 0,0-1 0 0 0,-1-1 1 0 0,0 0-1 0 0,34-20 0 0 0,-45 23-21 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-2 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,2-10 0 0 0,-2-5-12 0 0,0 0-1 0 0,-1-29 0 0 0,-2 27-125 0 0,7-39 0 0 0,-8 61 46 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 0 0 0 0,7-3-7 0 0,1 1 1 0 0,24-2-1 0 0,-26 4 2 0 0,19-2-11 0 0,-1 2-1 0 0,0 2 1 0 0,34 4-1 0 0,30 0-23 0 0,-76-7 117 0 0,-18-11 71 0 0,-2 5-129 0 0,0-2 46 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,-6-10 1 0 0,-9-16 7 0 0,19 34-62 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-3 0 0 0 0,-3-3 2 0 0,57 50-61 0 0,-7-16 55 0 0,-34-26-1 0 0,-1 1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,10 12 1 0 0,-15-17 15 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-3 2 0 0 0,0 0 49 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-6 2-1 0 0,-2 0 38 0 0,0-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,-21-1 3464 0 0,35-2-3575 0 0,5 0 46 0 0,-7 0-32 0 0,2 0-4 0 0,2 0-12 0 0,1 0 3 0 0,-2 0 20 0 0,-37 4-26426 0 0,28-4 22965 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:53:26.244"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">219 30 1280 0 0,'-2'-8'13794'0'0,"5"14"-12798"0"0,9 38 4305 0 0,-4 27-1925 0 0,-2-8-2051 0 0,-1-28-994 0 0,-2-17-239 0 0,-1 0 0 0 0,11 31-1 0 0,-10-35-240 0 0,5 15-492 0 0,-7-28 364 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 1 0 0 0,-1-1-159 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,2-2-2609 0 0,-3 2 2609 0 0,0 1 0 0 0,1-2 0 0 0,7-16-5667 0 0,-5 7 3340 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="437.25">476 3 44 0 0,'14'-2'13019'0'0,"-15"12"-9560"0"0,-18 42 2438 0 0,11-33-4707 0 0,-1-1-1 0 0,-12 19 1 0 0,-127 186 1103 0 0,-1 1-1332 0 0,102-143-3135 0 0,44-79 827 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,-4 0 0 0 0,-11 0-2815 0 0,-2 2 839 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:53:36.684"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">16 31 916 0 0,'0'0'1034'0'0,"7"-13"6321"0"0,-6 14-6939 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,2 4-1 0 0,4 10 441 0 0,25 29 318 0 0,22 36 41 0 0,-18-35-518 0 0,-2-8 2204 0 0,-27-30-2472 0 0,3 3 710 0 0,-14-13-3482 0 0,-7-6-4082 0 0,11 9 5719 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,-4-5-2389 0 0,0-1 553 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1688.58">238 1 676 0 0,'12'8'9105'0'0,"-13"-6"-8795"0"0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,-2 2 1 0 0,-21 22 536 0 0,-115 125 814 0 0,132-144-1525 0 0,6-7-59 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 3 0 0 0,1-4 190 0 0,15-22 1654 0 0,-2 8-1884 0 0,6-3-24 0 0,5 1 8 0 0,0-1 0 0 0,-2-1 0 0 0,29-27 0 0 0,-32 21 266 0 0,-25 27 1325 0 0,-29 20-884 0 0,9 1-646 0 0,-72 76 440 0 0,90-91-448 0 0,0 2 1 0 0,1-1-1 0 0,-6 14 0 0 0,1-3-1 0 0,3-8 913 0 0,9-15-736 0 0,19-27 1021 0 0,15-17-1230 0 0,2 2-1 0 0,44-42 1 0 0,-42 46-18 0 0,-30 30-15 0 0,0-1 0 0 0,0 0 0 0 0,8-13-1 0 0,-13 14 295 0 0,-10 16 193 0 0,-44 45-402 0 0,33-34-105 0 0,-24 28-1 0 0,3 2-11 0 0,-35 50-21 0 0,62-84 121 0 0,10-12 23 0 0,6-8-244 0 0,-3 4-563 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-2-2-1 0 0,-1-11-7107 0 0,3 5 4435 0 0,0 1 464 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2715">31 18 752 0 0,'-12'-7'13907'0'0,"18"16"-10664"0"0,29 30 1334 0 0,19 17-1580 0 0,3 3-2191 0 0,-26-16-494 0 0,-15-19-123 0 0,9 15 211 0 0,-39-57 91 0 0,-22-22 0 0 0,-32-16-481 0 0,36 32-14 0 0,-36-38 0 0 0,67 61 3 0 0,-1-2 2 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-2-4 0 0 0,3 6-9 0 0,18 18-4 0 0,71 65 231 0 0,-18-16-114 0 0,1 7 115 0 0,-62-63 346 0 0,3 0-4041 0 0,8-3-7238 0 0,4-1 1391 0 0,-13 3 5523 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:46:23.633"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">41 217 788 0 0,'3'0'15261'0'0,"10"-19"-12168"0"0,3-2-2878 0 0,-5 6-69 0 0,1-1-1 0 0,-2 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,7-20 1 0 0,-10 16 312 0 0,8-18 999 0 0,-24 160 2103 0 0,9-64-3223 0 0,-1-28-231 0 0,2 1 0 0 0,1 0 0 0 0,6 36 0 0 0,-5-54-77 0 0,-1 0-1 0 0,0 18 0 0 0,-1-30-28 0 0,0 1 51 0 0,-3 0-43 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-4 0 1 0 0,-8 0-5 0 0,-94 9-71 0 0,109-9 52 0 0,25 0-8 0 0,71-3 5 0 0,-51 0 200 0 0,85 7 0 0 0,-125-4-897 0 0,11 2 2211 0 0,-12-4-4101 0 0,-22-28-22144 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:14:59.951"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">545 82 1488 0 0,'-32'-21'7379'0'0,"16"10"-2575"0"0,5 5 1961 0 0,10 12-2338 0 0,-7 8-3466 0 0,6-11-511 0 0,-21 42 1249 0 0,-19 51 1 0 0,17-27-730 0 0,-19 84-1 0 0,20-13-323 0 0,12-58-322 0 0,-23 188-168 0 0,11-76-127 0 0,-5 31-29 0 0,26-199 0 0 0,0 1 0 0 0,-7 25 0 0 0,3-19 0 0 0,4-19 0 0 0,-1 0 0 0 0,-7 22 0 0 0,-4 12 0 0 0,8-38 0 0 0,7-10 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,2-16-1317 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,2 1-1 0 0,0-1 0 0 0,12-26 1 0 0,1-5-1889 0 0,11-32-4510 0 0,18-55-1730 0 0,-28 75 6747 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="503.35">469 4 248 0 0,'0'0'269'0'0,"-1"-1"-1"0"0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1 0 135 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,1 2 0 0 0,-1 2 621 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,4 11 0 0 0,24 51 4629 0 0,7 40-3268 0 0,-2 38-573 0 0,-12-39-973 0 0,8 37-324 0 0,9 34-11 0 0,8 12-505 0 0,17 52 0 0 0,-16-82 0 0 0,-26-100 0 0 0,-22-58-13 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,10-18-1699 0 0,-8 12 647 0 0,-1 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-3-10-1 0 0,1 5-1602 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-11-18 0 0 0,1 6-654 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="844.69">40 985 676 0 0,'-2'-2'1004'0'0,"0"1"-1"0"0,0-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-4-1 0 0 0,5 1-463 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-8-9 7477 0 0,20 12-3160 0 0,1 1-4221 0 0,1-1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0-1-1 0 0,24 0 1 0 0,4 1-8 0 0,230 14 528 0 0,-91-12-5611 0 0,-141-5 216 0 0,13 0-4189 0 0,-45 1 6079 0 0,1 1 1 0 0,-1 0 0 0 0,1 1 0 0 0,12 3 0 0 0,-9 1-535 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:15:07.846"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">142 121 312 0 0,'-1'-3'891'0'0,"0"1"0"0"0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-3-3 1 0 0,-6-2 8614 0 0,12 12-5630 0 0,4 9-3344 0 0,-2 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,0-1 0 0 0,0 26 0 0 0,0-4-40 0 0,3 188 1028 0 0,-2-20-1001 0 0,-1-132-429 0 0,-1-37-58 0 0,6 53 0 0 0,-6-88-98 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 1 0 0 0,-5-5-2438 0 0,-2-11-890 0 0,4 3-266 0 0,0 1 0 0 0,0-1 0 0 0,-2-12 1 0 0,0-13-3368 0 0,5 17 4637 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="495.92">137 544 860 0 0,'-14'-15'4241'0'0,"12"14"-3954"0"0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-3 0 0 0,-1-1 2140 0 0,3 0-53 0 0,4 0-1749 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,13-3 0 0 0,48-17 1513 0 0,-57 21-1759 0 0,24-7 296 0 0,-1 1 0 0 0,1 2 0 0 0,1 2 0 0 0,40-2 0 0 0,-52 6-519 0 0,0 1 1 0 0,1 1 0 0 0,-1 1 0 0 0,0 1-1 0 0,0 1 1 0 0,-1 1 0 0 0,28 10 0 0 0,-38-11-70 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 2 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 1 0 0 0,-1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,-1 2 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,-1 0-1 0 0,-3 11 1 0 0,1-11-9 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,-1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,-21 13 0 0 0,5-6 50 0 0,-1-1 1 0 0,-1-1-1 0 0,0-1 0 0 0,0-1 1 0 0,-47 9-1 0 0,29-12-237 0 0,0-1 1 0 0,-1-3-1 0 0,0-1 0 0 0,0-3 1 0 0,0-2-1 0 0,1-1 0 0 0,-51-13 0 0 0,95 17-114 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,-1-2-1 0 0,2 2-312 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,2-2 1 0 0,6-11-2541 0 0,1 1-1 0 0,1 0 1 0 0,17-17 0 0 0,-3 4 542 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1061.92">107 118 392 0 0,'15'-15'5563'0'0,"-8"11"-3869"0"0,-1-1 0 0 0,19-17 17941 0 0,-18 20-20744 0 0,0 1 2507 0 0,298-39 1451 0 0,157 12-2437 0 0,-378 34-975 0 0,-60-3-7273 0 0,-55 4-10535 0 0,15-3 15317 0 0,-4 0 422 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink22.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:15:12.528"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">36 201 160 0 0,'1'-10'1132'0'0,"0"0"0"0"0,0 0-1 0 0,1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,11-14 0 0 0,-16 21-1025 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,8 12 3371 0 0,-2 20-207 0 0,-30 298 1618 0 0,8-177-3767 0 0,-24 182 228 0 0,24-201-1322 0 0,9-70-46 0 0,0 29-157 0 0,21-130-3644 0 0,-8-3 553 0 0,30-188-19637 0 0,-27 191 20673 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="824.15">26 195 524 0 0,'0'-2'416'0'0,"1"-1"0"0"0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,2-3 0 0 0,-1 3-91 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-3-1 0 0,-1 5-43 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-4-10 4019 0 0,6 11-4058 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-2 0-1 0 0,-13-13 2762 0 0,15 14-2967 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,12-9 441 0 0,21-1-396 0 0,57-6 100 0 0,1 4-1 0 0,0 4 0 0 0,111 5 0 0 0,-183 4-172 0 0,-10-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0 1-1 0 0,0 0 1 0 0,13 5 0 0 0,-23-7-5 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-10 10 173 0 0,-1 2-44 0 0,0 0 1 0 0,0 1-1 0 0,2 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-7 19 0 0 0,8-17 24 0 0,-2 5 162 0 0,-8 28 0 0 0,1-3 12 0 0,14-35-309 0 0,8-9-485 0 0,-3-3 183 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,1-2 1 0 0,4-19-11467 0 0,-6 21 11244 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-15-5-2448 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink23.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:15:19.012"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">126 258 1088 0 0,'-33'-29'19289'0'0,"31"44"-16681"0"0,10 153 1098 0 0,24 86-2085 0 0,-2-15-888 0 0,-11 42-325 0 0,-18-202-622 0 0,-11-88-1138 0 0,7 2 507 0 0,0 0 0 0 0,0 0 0 0 0,-2-13-1 0 0,-6-14-2609 0 0,4 12 620 0 0,1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1-34 0 0 0,3 53 2578 0 0,-1-37-2403 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="356.05">41 144 1468 0 0,'-18'-15'5733'0'0,"16"14"-5022"0"0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1-2 0 0 0,7 1-183 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,9-3 1 0 0,-11 4-261 0 0,41-15 1733 0 0,92-21 1 0 0,53 6-1146 0 0,-133 26-903 0 0,-50 5-157 0 0,0-1 0 0 0,0 2 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,10 4-1 0 0,-15-5 103 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 1 0 0 0,-5 19-2555 0 0,1-13 1371 0 0,0-1 0 0 0,0 0 0 0 0,-9 10 0 0 0,2-5-1226 0 0,-1-1 1 0 0,-19 16-1 0 0,11-11 664 0 0,-10 11-527 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="724.85">50 597 740 0 0,'-34'23'8410'0'0,"33"-22"-7745"0"0,17-2 2080 0 0,83-22 206 0 0,48-9-1829 0 0,-124 29-1528 0 0,-1 0-1 0 0,0 2 1 0 0,1 0-1 0 0,34 5 1 0 0,-51-4-42 0 0,-1 1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,6 4 1 0 0,-10-5 191 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-2 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,-1 2-1 0 0,-7 16-1515 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1091.19">185 1314 44 0 0,'0'0'9789'0'0,"-9"0"-3018"0"0,21-2-5979 0 0,0 1-1 0 0,-1-2 1 0 0,17-4-1 0 0,-7 2-186 0 0,26-7 325 0 0,65-15-208 0 0,134-15 0 0 0,-241 41-910 0 0,2 0-350 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,9 2 1 0 0,-16-2 302 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-2 3 0 0 0,-17 22-6122 0 0,5-8 4107 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:15:26.888"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">175 231 1376 0 0,'-3'-3'529'0'0,"1"0"-1"0"0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1 0 1 0 0,-6-1 0 0 0,7 1-393 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 3 0 0 0,-7 12 343 0 0,1 0 1 0 0,0 0-1 0 0,2 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-2 25-1 0 0,-7 130 1162 0 0,13-160-1578 0 0,1 327 476 0 0,15-186-577 0 0,-15-152 32 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 2 1 0 0,0-2-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,15-41-188 0 0,-14 37 182 0 0,7-32-105 0 0,10-61 0 0 0,-12 56 59 0 0,25-289-471 0 0,-29-3 607 0 0,-3 225 321 0 0,-4 83-275 0 0,3 22-81 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-4 0 0 0,2 20 872 0 0,-1 12-394 0 0,0 18 16 0 0,10 59 0 0 0,-1-26-289 0 0,-5-28-28 0 0,2 0-1 0 0,3-1 1 0 0,1 0-1 0 0,2-1 1 0 0,30 62-1 0 0,-43-104-214 0 0,4 8 33 0 0,1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,10 12-1 0 0,-16-21-17 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,2-2-1 0 0,3-2 25 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0-1-1 0 0,-1 0 1 0 0,10-9-1 0 0,37-51 174 0 0,-53 66-215 0 0,97-145 674 0 0,-20 27 313 0 0,-69 105-812 0 0,-5 8-86 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,7-7 0 0 0,-11 11-68 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 9 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 3 1 0 0,4 14 156 0 0,4 11-35 0 0,-2 0 1 0 0,-1 1-1 0 0,2 30 1 0 0,1 12-73 0 0,10 60-73 0 0,19 117-1607 0 0,-22-168-708 0 0,9 48-6235 0 0,-18-103 4040 0 0,2 0 1 0 0,19 43-1 0 0,-17-45 2014 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:15:29.913"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">165 129 72 0 0,'-5'-21'2882'0'0,"-2"0"0"0"0,-16-38-1 0 0,15 42-2059 0 0,3 7 2371 0 0,3 25-510 0 0,5 27 350 0 0,13 79 1 0 0,-4-41-1835 0 0,42 200 795 0 0,-19-121-1653 0 0,9 164-183 0 0,-29-196-376 0 0,1 7-3017 0 0,-16-133 3085 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 2-1 0 0,1-3 22 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,-1-1-239 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-2-4-1 0 0,-28-66-6820 0 0,16 39 5172 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="354.54">25 555 1460 0 0,'-7'-25'2097'0'0,"-5"-33"1"0"0,10 37-1641 0 0,0 0-1 0 0,1 0 1 0 0,1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,2 0 0 0 0,7-29 0 0 0,-7 41-217 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 2 0 0 0,1-1 1 0 0,14-6-1 0 0,-5 5-76 0 0,-1 1 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,0 0 0 0 0,1 0 0 0 0,0 2 0 0 0,-1 0 1 0 0,1 1-1 0 0,0 1 0 0 0,26 5 0 0 0,-25-3-7 0 0,-1 0-1 0 0,0 2 1 0 0,0 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1 2-1 0 0,1 0 1 0 0,-1 0 0 0 0,-1 2 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 2 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,-1 1 0 0 0,7 19 0 0 0,-10-21 134 0 0,0-1 1 0 0,-2 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 25 1 0 0,-5-33-144 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-9 10 1 0 0,4-5 22 0 0,-1-1 0 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,-23 10 0 0 0,-3-1 16 0 0,0-2 0 0 0,-60 14 0 0 0,-83 7-1109 0 0,177-34 859 0 0,-3 0-576 0 0,5-1 306 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-1 3-1 0 0,4-2-121 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,5 5-5013 0 0,-5-5 5012 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,20 4-4309 0 0,-2-3 2303 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:15:32.495"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF2500"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2075 769 672 0 0,'-35'-135'8226'0'0,"20"87"-5972"0"0,15 46-1974 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,-5-6 838 0 0,5 6-838 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-4-3 0 0 0,6 4-222 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 116 0 0,1 0-116 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-7 21 499 0 0,6-19-385 0 0,-42 179 3060 0 0,-18 94-1052 0 0,50-221-2006 0 0,-56 204 221 0 0,49-207-338 0 0,-2 0 0 0 0,-49 89 0 0 0,46-103-42 0 0,-1-1 0 0 0,-2-2 0 0 0,-2 0 0 0 0,-1-2 0 0 0,-2-1 1 0 0,-1-1-1 0 0,-1-2 0 0 0,-2-1 0 0 0,0-2 0 0 0,-2-1 0 0 0,-1-2 0 0 0,-1-2 0 0 0,-52 21 0 0 0,-11-5-20 0 0,-186 40 0 0 0,203-57 178 0 0,-129 50 0 0 0,184-59-80 0 0,2 2 0 0 0,-1 2 0 0 0,2 0 0 0 0,0 2 0 0 0,1 0 0 0 0,1 2 1 0 0,-43 42-1 0 0,41-31 8 0 0,1 1 1 0 0,2 1 0 0 0,2 1-1 0 0,1 1 1 0 0,-29 63 0 0 0,37-67-99 0 0,2 1 1 0 0,1 0-1 0 0,1 1 0 0 0,2 0 1 0 0,1 0-1 0 0,1 1 1 0 0,1 46-1 0 0,4-66-401 0 0,1 1 0 0 0,0 0 0 0 0,1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,2 0 0 0 0,0 0 0 0 0,0-1 0 0 0,8 14 1 0 0,-9-20-299 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,35 27-4867 0 0,-34-29 4867 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,11-1 1 0 0,14-3-2313 0 0,4-5 642 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="714.86">1950 1 1788 0 0,'-2'24'6692'0'0,"-3"1"-4343"0"0,3-15-2101 0 0,0 0 0 0 0,-2 20 0 0 0,-9 222 2068 0 0,1-69-1088 0 0,5-81-949 0 0,0 69-53 0 0,8-165-218 0 0,12 256 305 0 0,22-3-104 0 0,-33-247-202 0 0,35 145 63 0 0,-29-131-60 0 0,1 0 0 0 0,1 0 0 0 0,24 42 0 0 0,-28-59-7 0 0,5 11 4 0 0,2 0 0 0 0,0 0 1 0 0,24 25-1 0 0,-20-27 5 0 0,1-1 1 0 0,0-1-1 0 0,2-1 1 0 0,0 0 0 0 0,0-2-1 0 0,1 0 1 0 0,1-1-1 0 0,0-1 1 0 0,1-1-1 0 0,26 7 1 0 0,182 33 295 0 0,-17-5 136 0 0,-104-16-87 0 0,-30-8-130 0 0,94 36 0 0 0,-151-48-112 0 0,0 2 0 0 0,0 0 0 0 0,-1 2 0 0 0,-1 0 0 0 0,0 2 0 0 0,-1 0 0 0 0,0 1 0 0 0,23 25 0 0 0,-28-23 148 0 0,0 1-1 0 0,-2 1 0 0 0,17 31 1 0 0,27 68 702 0 0,-14-14-350 0 0,59 219 1 0 0,-77-196-950 0 0,-15-71-383 0 0,0 12-1324 0 0,0-4-2894 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:15:34.287"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF2500"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">90 27 1532 0 0,'0'-27'9578'0'0,"0"28"-9529"0"0,-2 44 3199 0 0,-14 76 0 0 0,3-38-2135 0 0,-3 41-248 0 0,-17 155-839 0 0,31-244-294 0 0,-6 153-3018 0 0,9-166 1536 0 0,1 1 0 0 0,0-1 0 0 0,2 1 0 0 0,1-1-1 0 0,1-1 1 0 0,10 28 0 0 0,-2-21-844 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink28.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:15:34.863"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF2500"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">62 1 460 0 0,'14'19'12632'0'0,"-15"-16"-12357"0"0,-38 172 5705 0 0,7 96-2264 0 0,29-191-3177 0 0,10 124 1 0 0,27 80-3771 0 0,-29-249 2295 0 0,45 204-11117 0 0,-31-158 7339 0 0,-8-29 2106 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink29.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:15:42.528"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF2500"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5365 330 428 0 0,'-14'-62'9207'0'0,"8"53"-8550"0"0,6 9-597 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-5 4 598 0 0,5-4-598 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-10 19 829 0 0,-1 7-82 0 0,1 1 1 0 0,1-1-1 0 0,2 2 1 0 0,1-1-1 0 0,1 1 1 0 0,1 0-1 0 0,0 37 1 0 0,24 273 1129 0 0,-1 31-1137 0 0,-20-319-720 0 0,-2 0 0 0 0,-3 0-1 0 0,-2 0 1 0 0,-2-1 0 0 0,-20 61 0 0 0,22-88-34 0 0,-1 0-1 0 0,0-1 1 0 0,-2 0 0 0 0,-1 0-1 0 0,-24 33 1 0 0,28-45-34 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0-2 1 0 0,0 1-1 0 0,0-1 1 0 0,-1-1-1 0 0,-15 5 0 0 0,7-5-3 0 0,-1 0-1 0 0,1-2 0 0 0,-1 0 0 0 0,0-2 1 0 0,0 0-1 0 0,-33-5 0 0 0,-123-31 49 0 0,96 17-22 0 0,-182-30 660 0 0,-273-16 0 0 0,-64 32 578 0 0,505 33-1051 0 0,0 4 0 0 0,-109 19 0 0 0,179-19-183 0 0,0 1-1 0 0,1 1 1 0 0,-1 1 0 0 0,2 1 0 0 0,-1 1-1 0 0,1 1 1 0 0,0 2 0 0 0,1 0 0 0 0,0 1 0 0 0,1 1-1 0 0,1 1 1 0 0,0 1 0 0 0,1 0 0 0 0,1 2 0 0 0,0 0-1 0 0,2 1 1 0 0,-27 38 0 0 0,15-8 67 0 0,1 1 1 0 0,2 1 0 0 0,-27 86-1 0 0,-35 172 515 0 0,61-210-446 0 0,-10 31 8 0 0,-78 186-1 0 0,107-299-183 0 0,0-1 0 0 0,-2-1-1 0 0,0 1 1 0 0,-18 22 0 0 0,22-32-6 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-10 1 1 0 0,-7 1-8 0 0,1-2 0 0 0,0 0-1 0 0,-1-2 1 0 0,1 0 0 0 0,-32-3 0 0 0,-114-20 43 0 0,85 9 27 0 0,44 8 12 0 0,-1 2 0 0 0,0 2 0 0 0,1 1-1 0 0,-1 3 1 0 0,0 1 0 0 0,1 2-1 0 0,0 1 1 0 0,-52 19 0 0 0,36-6 83 0 0,1 2 0 0 0,1 2 1 0 0,1 2-1 0 0,1 3 0 0 0,-52 40 0 0 0,61-35-85 0 0,2 1 0 0 0,1 2 0 0 0,2 1 1 0 0,2 3-1 0 0,2 1 0 0 0,-37 58 0 0 0,6 8-129 0 0,-81 183 0 0 0,119-224-1054 0 0,-21 81-1 0 0,45-133-302 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 27 0 0 0,1-41 1207 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1484.22">5470 39 784 0 0,'-15'-39'11774'0'0,"14"40"-11715"0"0,-12 14 1006 0 0,0 2 1 0 0,1-1-1 0 0,0 1 0 0 0,2 1 0 0 0,-15 31 0 0 0,1 20-136 0 0,2 1 0 0 0,3 1 0 0 0,4 0 0 0 0,-10 100 0 0 0,19-113-696 0 0,-7 121 398 0 0,25 94-25 0 0,-4-206-534 0 0,3 0-1 0 0,20 68 1 0 0,-21-102-71 0 0,1-1 1 0 0,1 0-1 0 0,2-1 0 0 0,1 0 1 0 0,2-1-1 0 0,1-1 1 0 0,1-1-1 0 0,1-1 1 0 0,2 0-1 0 0,0-1 0 0 0,2-2 1 0 0,1 0-1 0 0,35 25 1 0 0,-30-30-30 0 0,2-1 1 0 0,0-2 0 0 0,0-1 0 0 0,1-1 0 0 0,1-2-1 0 0,44 10 1 0 0,218 30-160 0 0,-223-42 174 0 0,297 17-176 0 0,1-31-176 0 0,-364 4 356 0 0,1004-56-48 0 0,-717 37 227 0 0,-217 17 173 0 0,141 18 0 0 0,-196-13-234 0 0,0 1 1 0 0,0 2-1 0 0,-1 0 0 0 0,0 1 1 0 0,0 1-1 0 0,31 17 0 0 0,-40-18-56 0 0,0 0 1 0 0,-1 1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,11 22 0 0 0,-8-8 43 0 0,-1 0 0 0 0,-2 1 0 0 0,0 0 0 0 0,-2 0 0 0 0,5 36 0 0 0,-5 3 95 0 0,-1 69 0 0 0,-21 101-32 0 0,-1 5-136 0 0,17-208-53 0 0,2 0-1 0 0,0-1 0 0 0,3 1 1 0 0,1 0-1 0 0,13 42 1 0 0,-15-62-21 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,12 17 0 0 0,-15-24 33 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,7 1-1 0 0,4 0 4 0 0,-1-2 0 0 0,1 0-1 0 0,0 0 1 0 0,0-2 0 0 0,0 0 0 0 0,29-8 0 0 0,92-37-23 0 0,-95 31 21 0 0,39-15 4 0 0,193-62-64 0 0,-244 85 81 0 0,0 2 1 0 0,0 1-1 0 0,1 2 0 0 0,0 1 1 0 0,-1 1-1 0 0,1 1 1 0 0,41 7-1 0 0,-30 1 67 0 0,-1 2 0 0 0,0 2 0 0 0,-1 2 0 0 0,64 31 0 0 0,143 96 282 0 0,-65-18-96 0 0,255 225 1 0 0,-374-293-221 0 0,-2 4 1 0 0,100 126-1 0 0,-149-168-68 0 0,-1-1 0 0 0,-1 2-1 0 0,12 26 1 0 0,-17-33-93 0 0,-1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1-1 0 0 0,1 14 0 0 0,-2-20-200 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,-6 3 0 0 0,1-1-973 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,-16-1-1 0 0,-28-4-2204 0 0,-7-5 871 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2143.78">8815 3150 852 0 0,'-22'-51'4841'0'0,"-7"3"-3420"0"0,19 32-1388 0 0,0-1 1 0 0,1 0-1 0 0,1 0 0 0 0,-21-45 3788 0 0,-33 172 2286 0 0,-18 66-1888 0 0,45-93-2272 0 0,5-14-1046 0 0,-3-2-1 0 0,-3-1 0 0 0,-49 68 0 0 0,67-110-792 0 0,-1-2 0 0 0,-1 0 0 0 0,0-1 0 0 0,-35 26 0 0 0,39-35-68 0 0,-1-1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,-1-1 0 0 0,1-1 1 0 0,-30 8-1 0 0,25-11-36 0 0,-1 0-1 0 0,0-2 1 0 0,0 0 0 0 0,0-2 0 0 0,-44-4-1 0 0,-121-30 15 0 0,54 8-3 0 0,51 14 46 0 0,0 3 0 0 0,0 4 1 0 0,-103 8-1 0 0,136 1 46 0 0,1 3 0 0 0,0 1-1 0 0,1 3 1 0 0,0 2 0 0 0,1 2 0 0 0,-79 36-1 0 0,109-42-90 0 0,1 1-1 0 0,1 0 0 0 0,0 2 1 0 0,0 0-1 0 0,1 0 0 0 0,0 1 0 0 0,1 1 1 0 0,1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,1 1-1 0 0,0 1 0 0 0,1 0 1 0 0,1 0-1 0 0,1 1 0 0 0,0 0 0 0 0,1 1 1 0 0,1-1-1 0 0,-5 29 0 0 0,5-8-423 0 0,2 0-1 0 0,1 77 0 0 0,15 13-3217 0 0,-5-77 921 0 0,4 22-3680 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2838.23">2125 2874 372 0 0,'-1'-4'471'0'0,"0"0"1"0"0,0 0-1 0 0,-27-35 5185 0 0,20 33-5185 0 0,4 4-238 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,-7-1 0 0 0,8 2-28 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,2 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,-2 5-1 0 0,-3 7 317 0 0,0 2 0 0 0,2-1-1 0 0,0 0 1 0 0,-6 35 0 0 0,7-24-72 0 0,1 0 1 0 0,0 1 0 0 0,3-1 0 0 0,2 32 0 0 0,0-41-345 0 0,1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,2 0-1 0 0,0 0 0 0 0,11 19 0 0 0,-10-22-93 0 0,1 0-1 0 0,1-1 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0-1 0 0,16 9 1 0 0,-9-8-18 0 0,1 0 1 0 0,1-2-1 0 0,0-1 1 0 0,0 0-1 0 0,1-2 1 0 0,30 6-1 0 0,-4-5-23 0 0,0-2 0 0 0,62-1 0 0 0,94-11 8 0 0,-66-4 15 0 0,198-4 214 0 0,-291 16-20 0 0,-1 1 0 0 0,0 2 0 0 0,0 3 0 0 0,0 1 0 0 0,52 18 0 0 0,-81-21-52 0 0,0 1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 2-1 0 0,-1-1 1 0 0,0 2-1 0 0,23 20 1 0 0,-22-15 8 0 0,-1 1 1 0 0,-1 0 0 0 0,0 1-1 0 0,-1 1 1 0 0,18 36 0 0 0,126 301-405 0 0,-126-278-330 0 0,82 229-5447 0 0,-93-237 1395 0 0,-2 1 0 0 0,11 107-1 0 0,-23-105 1842 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:46:25.165"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">122 1 196 0 0,'-32'0'22623'0'0,"38"5"-21515"0"0,-2-3-563 0 0,4 1-339 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,10-1 1 0 0,54-4-174 0 0,-49 3 39 0 0,61-5 216 0 0,-84 7-274 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,-9 24 139 0 0,10-25-151 0 0,-13 29 137 0 0,-14 31 170 0 0,-40 64 0 0 0,39-76-231 0 0,15-24-49 0 0,-1-1 1 0 0,-19 23 0 0 0,33-46-51 0 0,-8 11 272 0 0,17-13 374 0 0,9-3-617 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,1 1 1 0 0,31 0-1 0 0,2 0-16 0 0,142-4-550 0 0,-225-14-25327 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="598.15">0 237 192 0 0,'22'17'22583'0'0,"11"-16"-18563"0"0,38-2-3386 0 0,73-9-245 0 0,3-1-1705 0 0,-49 2-7830 0 0,-96 9 8529 0 0,0 0-191 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,3-3-1 0 0,-2-2-2390 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink30.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:15:40.447"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF2500"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2535 1 864 0 0,'-7'0'758'0'0,"0"0"0"0"0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-12 6-1 0 0,9-3-288 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-10 13 0 0 0,2 1 103 0 0,1 2-1 0 0,1 0 1 0 0,1 0 0 0 0,-15 45-1 0 0,-64 254 3269 0 0,24-71-2961 0 0,46-190-710 0 0,-54 116 1 0 0,47-122-73 0 0,-2-2 1 0 0,-2-1-1 0 0,-57 69 0 0 0,76-107-58 0 0,-1 1 0 0 0,0-2 1 0 0,-1 0-1 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1-1 1 0 0,0-1-1 0 0,0 0 0 0 0,0-2 0 0 0,-1 0 0 0 0,-1-1 1 0 0,1-1-1 0 0,-27 5 0 0 0,-22-3 86 0 0,-92 0 0 0 0,-53 5 674 0 0,136-1-239 0 0,1 3 1 0 0,0 3 0 0 0,1 4-1 0 0,-95 42 1 0 0,130-46-466 0 0,2 1 1 0 0,-1 2-1 0 0,2 2 0 0 0,1 2 1 0 0,1 1-1 0 0,2 2 0 0 0,0 1 0 0 0,2 1 1 0 0,-36 45-1 0 0,41-39-66 0 0,2 1 1 0 0,2 1-1 0 0,1 1 0 0 0,-29 77 0 0 0,19-23 17 0 0,-21 105 0 0 0,4 57-494 0 0,42-205-964 0 0,2 0-1 0 0,3 0 1 0 0,5 58-1 0 0,-3-96 272 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2 1 0 0 0,6 18 0 0 0,-9-27 727 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,61 34-8690 0 0,-33-39 6622 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="568.73">2385 409 864 0 0,'-23'47'7467'0'0,"14"-38"-6788"0"0,-9 14 1242 0 0,-40 80 1291 0 0,-69 166 1 0 0,100-206-2299 0 0,3 1 1 0 0,3 1-1 0 0,-24 125 1 0 0,40-153-878 0 0,1-1 1 0 0,2 1-1 0 0,1-1 1 0 0,2 1-1 0 0,1 0 0 0 0,3-1 1 0 0,0 0-1 0 0,21 69 1 0 0,-13-70-66 0 0,1 0 1 0 0,1 0 0 0 0,2-1 0 0 0,2-1 0 0 0,1-1 0 0 0,1-1 0 0 0,43 48 0 0 0,-41-55-16 0 0,0-2 1 0 0,2 0 0 0 0,0-2 0 0 0,1-1-1 0 0,2 0 1 0 0,-1-3 0 0 0,2 0 0 0 0,0-1-1 0 0,39 12 1 0 0,-24-13-91 0 0,1-2 0 0 0,0-2-1 0 0,1-3 1 0 0,0-1 0 0 0,0-2 0 0 0,67-3-1 0 0,277-43-401 0 0,-42 3 1303 0 0,-320 37-496 0 0,0 2 0 0 0,0 2 1 0 0,-1 0-1 0 0,1 2 0 0 0,-1 0 1 0 0,40 13-1 0 0,-52-11-66 0 0,1 0 0 0 0,-1 1 0 0 0,0 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 2 0 0 0,-1-1 0 0 0,0 2 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,11 16 0 0 0,-5-1 98 0 0,-1 1 0 0 0,-1 0-1 0 0,-2 1 1 0 0,21 60 0 0 0,24 131-112 0 0,-28-26-2128 0 0,-21 4-5867 0 0,-4-24-3431 0 0,-2-117 8074 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink31.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:15:36.851"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF2500"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5680 118 1568 0 0,'-1'-7'908'0'0,"0"0"1"0"0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,-6-9 1 0 0,8 15-636 0 0,1 0-251 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 136 0 0,0-1-114 0 0,1 1-22 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,-7 18 661 0 0,7-15-479 0 0,-13 49 1583 0 0,4 0 1 0 0,1 1-1 0 0,-1 77 1 0 0,3-27-728 0 0,0-33-608 0 0,-2 37 257 0 0,-33 160 1 0 0,19-181-496 0 0,-2-1 0 0 0,-5-2 0 0 0,-3 0 0 0 0,-4-2 0 0 0,-86 142 0 0 0,105-197-194 0 0,-1-1-1 0 0,-1-1 1 0 0,-1-1-1 0 0,-1 0 1 0 0,-45 36-1 0 0,51-47-12 0 0,-1-2-1 0 0,0 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 1 0 0,0-2-1 0 0,-1 0 0 0 0,-29 3 0 0 0,-24-3 127 0 0,-133-10 0 0 0,87-1 34 0 0,-258-10 430 0 0,-142-3-19 0 0,271 22-308 0 0,-242-6 410 0 0,445 0-610 0 0,-25-2 162 0 0,0 3 0 0 0,-1 3 1 0 0,-83 12-1 0 0,141-11-186 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-13 13 1 0 0,12-9 14 0 0,0 1 0 0 0,1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,-10 24 0 0 0,5 1 18 0 0,1 1 0 0 0,2 0-1 0 0,2 0 1 0 0,1 1-1 0 0,-1 72 1 0 0,3 115 51 0 0,0 27 61 0 0,1-210-156 0 0,-2 0-1 0 0,-2-1 0 0 0,-20 67 1 0 0,20-91-28 0 0,-1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,-1 0 0 0 0,-17 21-1 0 0,23-34-7 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,-14 5 0 0 0,11-6-3 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-17-2 0 0 0,-31 0 14 0 0,1 3-1 0 0,0 2 0 0 0,1 3 1 0 0,-101 24-1 0 0,-219 87 423 0 0,297-90-364 0 0,3-1 97 0 0,1 4 1 0 0,2 3-1 0 0,1 4 1 0 0,2 2-1 0 0,-114 87 0 0 0,142-93-68 0 0,2 3-1 0 0,1 1 0 0 0,2 2 0 0 0,2 1 0 0 0,1 2 0 0 0,3 1 1 0 0,1 2-1 0 0,3 1 0 0 0,-34 75 0 0 0,48-85-250 0 0,1 0-1 0 0,1 1 1 0 0,3 1 0 0 0,0-1 0 0 0,3 1-1 0 0,1 1 1 0 0,2 72 0 0 0,4-88-684 0 0,2-1 0 0 0,0 1 0 0 0,2 0 0 0 0,1-1 1 0 0,16 42-1 0 0,-14-46-1178 0 0,1 0 0 0 0,18 28 0 0 0,34 23-7986 0 0,-7-43 2303 0 0,-29-25 5074 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="760.03">2516 1963 872 0 0,'-17'2'2072'0'0,"0"1"-1"0"0,0 1 1 0 0,-20 7-1 0 0,31-8-1834 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 2 0 0 0,-7 7-1 0 0,2 2 149 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-10 30-1 0 0,-18 73 2119 0 0,31-95-2020 0 0,2 1-1 0 0,1 0 1 0 0,1 1 0 0 0,1-1-1 0 0,2 25 1 0 0,19 128 1165 0 0,-20-178-1645 0 0,13 67 383 0 0,2 0 1 0 0,3-2-1 0 0,36 86 0 0 0,-37-108-293 0 0,2-2-1 0 0,3 0 1 0 0,1-2-1 0 0,1 0 1 0 0,45 53 0 0 0,-50-71-92 0 0,0-1-1 0 0,1-1 1 0 0,1-1 0 0 0,1-1 0 0 0,0 0 0 0 0,1-2 0 0 0,1-1 0 0 0,1 0 0 0 0,0-2 0 0 0,34 12-1 0 0,-22-13 4 0 0,0-2-1 0 0,1-1 0 0 0,0-2 0 0 0,1-1 0 0 0,55-2 1 0 0,190-23 252 0 0,-193 10 114 0 0,177 2 1 0 0,-242 10-235 0 0,0 1 0 0 0,1 1 1 0 0,-1 1-1 0 0,-1 2 1 0 0,1 0-1 0 0,-1 2 0 0 0,0 1 1 0 0,28 15-1 0 0,-36-15-32 0 0,0 1 0 0 0,-1 0 0 0 0,-1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 2 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,16 31 0 0 0,-15-21-52 0 0,-1 1-1 0 0,-1 0 0 0 0,8 39 0 0 0,11 88 37 0 0,-24-125-80 0 0,-5-27-12 0 0,46 246-971 0 0,-31-186-3006 0 0,45 117 1 0 0,-51-158 1947 0 0,1 0 1 0 0,1-1-1 0 0,1 0 1 0 0,1-1-1 0 0,22 26 1 0 0,0-10-1320 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2052.74">5605 1 168 0 0,'-60'10'9797'0'0,"57"-9"-9660"0"0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1 1-1 0 0,-3 4 28 0 0,1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 11 0 0 0,-13 56 774 0 0,13-50-569 0 0,-3 17 329 0 0,3 1 1 0 0,1-1 0 0 0,2 0 0 0 0,8 83 0 0 0,4-47 286 0 0,34 135-1 0 0,51 74 441 0 0,-91-274-1357 0 0,39 89 407 0 0,3-2-1 0 0,90 141 1 0 0,-84-160-489 0 0,4-3-1 0 0,2-2 1 0 0,4-2 0 0 0,105 95 0 0 0,-125-132-33 0 0,1-2 0 0 0,2-2 0 0 0,1-2 0 0 0,1-2 0 0 0,59 27 0 0 0,-67-39 21 0 0,1-1-1 0 0,0-3 0 0 0,1-1 1 0 0,0-2-1 0 0,1-2 0 0 0,0-1 0 0 0,59 0 1 0 0,49-10-136 0 0,186-29 1 0 0,-88 5 120 0 0,-22 7-4 0 0,392-26 72 0 0,-599 45-25 0 0,217-5 247 0 0,-195 7-86 0 0,1 3-1 0 0,-1 1 1 0 0,66 16 0 0 0,-97-18-112 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,6 10 0 0 0,-4-4 136 0 0,-1 0 1 0 0,-1 1-1 0 0,0 1 1 0 0,-1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,-2 0-1 0 0,4 30 1 0 0,6 101 878 0 0,12 98-473 0 0,-17-196-578 0 0,2-1 1 0 0,31 92-1 0 0,-36-129-18 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,15 22 0 0 0,-16-28-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,7 1 0 0 0,7 2-11 0 0,-1-2 1 0 0,1 0-1 0 0,0-2 1 0 0,0 0-1 0 0,1-1 1 0 0,-1-1-1 0 0,0-1 0 0 0,1 0 1 0 0,39-8-1 0 0,67-15-70 0 0,157-25 39 0 0,-226 42 87 0 0,1 2 0 0 0,112 8 0 0 0,-123 1-2 0 0,1 3-1 0 0,-1 1 0 0 0,0 3 1 0 0,-1 2-1 0 0,0 2 0 0 0,-1 2 1 0 0,-1 2-1 0 0,77 46 0 0 0,48 50 322 0 0,195 173 0 0 0,-319-248-318 0 0,-2 1-1 0 0,-2 2 1 0 0,44 59-1 0 0,-58-64-200 0 0,-2 0 0 0 0,-2 2 0 0 0,-2 0 0 0 0,29 75 0 0 0,-48-109-148 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 14 1 0 0,-156 14-22131 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2642.27">8774 2206 304 0 0,'-48'22'10032'0'0,"47"-19"-9790"0"0,-3 13-11 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 1 0 0,1 1-1 0 0,1 21 0 0 0,0 2 183 0 0,-36 693 3135 0 0,30-685-3550 0 0,-2-1 0 0 0,-3 0-1 0 0,-1-1 1 0 0,-2 0-1 0 0,-3-1 1 0 0,-1 0 0 0 0,-2-1-1 0 0,-27 43 1 0 0,41-79 6 0 0,-1 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,-16 10 1 0 0,12-10 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,0-1-1 0 0,-16 2 1 0 0,-8-3 69 0 0,0-2-1 0 0,0-2 1 0 0,0-1-1 0 0,1-1 1 0 0,-39-12 0 0 0,60 13-57 0 0,-28-7 456 0 0,-1 3 0 0 0,-57-5 0 0 0,87 12-244 0 0,0 1 0 0 0,0 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-13 9 0 0 0,-2 3 203 0 0,0 3 1 0 0,2 0-1 0 0,1 1 1 0 0,0 2 0 0 0,2 0-1 0 0,-32 41 1 0 0,11-6 423 0 0,-72 125 0 0 0,93-138-913 0 0,2 2 0 0 0,1 0 0 0 0,3 1 0 0 0,-19 80 0 0 0,28-85-982 0 0,1 0-1 0 0,3 0 1 0 0,0 51 0 0 0,7-65-720 0 0,0 0 0 0 0,2 0 0 0 0,1 0 1 0 0,2 0-1 0 0,1-1 0 0 0,0 0 1 0 0,3 0-1 0 0,16 33 0 0 0,7 4-1719 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink32.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:15:49.524"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">159 170 968 0 0,'-153'-30'9562'0'0,"147"28"-8453"0"0,7 1-202 0 0,12 0 413 0 0,24 0 113 0 0,699 7 2231 0 0,973 43-3549 0 0,-661-16-369 0 0,100 4-122 0 0,-539-20 389 0 0,-604-17-14 0 0,22 1-17 0 0,-1-1 0 0 0,32-4 0 0 0,-47 0-34 0 0,-15 0-33 0 0,-19-2-53 0 0,-231-33-475 0 0,-5 20 331 0 0,228 17 255 0 0,-499-13-414 0 0,-3 22 10 0 0,457-6 379 0 0,-1106 38-361 0 0,-459 4 443 0 0,1508-43-28 0 0,-263-6-77 0 0,390 5 68 0 0,3 2 0 0 0,-1-2-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,-4-2 0 0 0,8 4 7 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,14-7-20 0 0,3 2 21 0 0,0 0 1 0 0,0 1-1 0 0,0 1 0 0 0,0 1 0 0 0,32-2 0 0 0,-18 1 4 0 0,457-32-2 0 0,6 28-58 0 0,-314 6 58 0 0,286-4 4 0 0,863-8 105 0 0,-487 15 114 0 0,81 0-92 0 0,-3-24-88 0 0,-887 22-60 0 0,357-33-191 0 0,-357 25-186 0 0,-32 9 366 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-15-6-1453 0 0,-63-9-3953 0 0,-158-14-1 0 0,91 19 3298 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink33.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:16:09.728"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">87 6 960 0 0,'-3'-1'726'0'0,"1"0"0"0"0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-5 1-1 0 0,7 0-613 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 4 0 0 0,-4 11 616 0 0,1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 30 0 0 0,7 69 1104 0 0,0-23-778 0 0,-17 102 157 0 0,7-128-1048 0 0,3 6-75 0 0,3-67-85 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,5 8 1 0 0,-7-13-19 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,2 0 0 0 0,5-2-298 0 0,-1-1-1 0 0,1 0 0 0 0,10-8 0 0 0,-4 3-293 0 0,21-16-826 0 0,0-2 0 0 0,-2-1-1 0 0,0-1 1 0 0,37-46 0 0 0,-32 35 312 0 0,-23 22 790 0 0,-1-1 0 0 0,14-23 1 0 0,-26 39 328 0 0,33-65 521 0 0,-31 59-190 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,3-16 1 0 0,3-9 1326 0 0,-7 20 315 0 0,-10 20-373 0 0,-9 20-167 0 0,3 8-485 0 0,2 0 0 0 0,1 0-1 0 0,2 1 1 0 0,-10 68-1 0 0,15-53-341 0 0,1 1 0 0 0,8 96 0 0 0,5-53-477 0 0,-9-69-124 0 0,-2-20-70 0 0,1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,2 7-1 0 0,-3-12-114 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,29-3-18483 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink34.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:16:10.383"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">68 115 184 0 0,'7'-11'989'0'0,"0"1"0"0"0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 2 1 0 0,1-1-1 0 0,0 1 0 0 0,15-9 0 0 0,-22 15-777 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,3 6 0 0 0,0 0 262 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,3 12-1 0 0,5 71 1666 0 0,-8-59-1461 0 0,-1 3 232 0 0,-4 38-1 0 0,1-2-176 0 0,1-17-399 0 0,6 117-14 0 0,-4-145-378 0 0,3 15-637 0 0,-2-33 557 0 0,2 1-4576 0 0,8-21-1233 0 0,-10 8 5510 0 0,1-2-937 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,4-11 0 0 0,3-7-1599 0 0,1 2 837 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="347.69">133 121 840 0 0,'-120'-75'10027'0'0,"120"75"-9825"0"0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-102 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,2-1-1 0 0,34-8 1752 0 0,-33 8-1813 0 0,37-5 1062 0 0,1 2-1 0 0,49 1 0 0 0,82 11 977 0 0,-86-3-1247 0 0,159 16 271 0 0,-86 9-4205 0 0,-151-28 1842 0 0,0 1 1 0 0,0 0 0 0 0,10 5 0 0 0,-1 6-4208 0 0,-17-14 5177 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 2 1 0 0,-11 10-3029 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink35.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:16:26.076"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">33 731 1028 0 0,'-32'4'12726'0'0,"40"-8"-9276"0"0,1 0-2696 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,13-12-1 0 0,35-38 155 0 0,-36 34-569 0 0,7-9-116 0 0,-1-2-1 0 0,-2 0 1 0 0,23-43 0 0 0,-2-16-75 0 0,-24 47-55 0 0,-7 10 135 0 0,17-59 0 0 0,-19 54-38 0 0,-8 26-69 0 0,0 0 0 0 0,-2 0-1 0 0,0-1 1 0 0,1-24 0 0 0,-1 25 12 0 0,-2 13-122 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-2-1-1 0 0,-23 54 222 0 0,16-23-153 0 0,0-1-1 0 0,2 2 1 0 0,1-1 0 0 0,2 1-1 0 0,1 0 1 0 0,0 31 0 0 0,18 180 443 0 0,15-74-336 0 0,-9-57-69 0 0,34 207 557 0 0,-19-112-366 0 0,-36-201-378 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,4 6 0 0 0,-4-11-550 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-4 0 0 0,-1 7 585 0 0,14-65-13083 0 0,-2 22 7514 0 0,-2 13 2980 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="679.14">1183 340 844 0 0,'-1'-1'123'0'0,"1"0"0"0"0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-2 1 1 0 0,-1 0 119 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 3 1 0 0,-2 5 711 0 0,0 1 0 0 0,1 0 0 0 0,-6 18 1 0 0,3 4 119 0 0,2 1 1 0 0,0 0-1 0 0,3 1 1 0 0,0-1-1 0 0,4 40 1 0 0,0-43-680 0 0,3-1 1 0 0,0 0-1 0 0,2 0 0 0 0,1 0 1 0 0,2-1-1 0 0,0 0 1 0 0,2-1-1 0 0,1 0 0 0 0,30 49 1 0 0,-26-51-247 0 0,0-2 0 0 0,2 0 0 0 0,1-1 0 0 0,1 0 0 0 0,1-2 0 0 0,46 37 0 0 0,-57-50-50 0 0,1 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1-1 0 0 0,24-4 0 0 0,-23 0-9 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,20-18 0 0 0,-19 15-63 0 0,7-6 8 0 0,-1 0-1 0 0,-1-1 0 0 0,-1-1 0 0 0,28-39 1 0 0,-18 17 142 0 0,36-71 0 0 0,-57 98-157 0 0,-1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,-1-1-1 0 0,-1-19 1 0 0,-3-13 76 0 0,-15-81 0 0 0,17 118-72 0 0,-2 1 0 0 0,1-1-1 0 0,-2 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-12-16 0 0 0,11 18-10 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 2-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,-10-1-1 0 0,-14-3-46 0 0,-1 2 1 0 0,1 2-1 0 0,-1 1 0 0 0,0 1 0 0 0,0 2 0 0 0,1 1 1 0 0,-1 1-1 0 0,1 2 0 0 0,0 2 0 0 0,0 0 0 0 0,-56 23 1 0 0,73-24-517 0 0,1 1 0 0 0,1 0 1 0 0,0 1-1 0 0,0 1 0 0 0,0 0 0 0 0,-14 14 1 0 0,23-19-97 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 6-1 0 0,7 24-3431 0 0,2 3 713 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1393.98">2860 599 640 0 0,'-26'-2'3144'0'0,"16"-5"4242"0"0,10 7-7304 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,27-18 2754 0 0,-1 0 1 0 0,39-36-1 0 0,-41 31-2074 0 0,0-1 1 0 0,-2-1-1 0 0,-1-1 0 0 0,30-49 0 0 0,-26 26-387 0 0,-3 0 1 0 0,32-101 0 0 0,-48 131-216 0 0,-3 10-35 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,2-16 1 0 0,-14 39 117 0 0,-2 11-83 0 0,8-18-117 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 13-1 0 0,2 1 34 0 0,-7 31 204 0 0,3 1 0 0 0,-4 80 0 0 0,14-26 190 0 0,5-1 1 0 0,34 181-1 0 0,-31-237-343 0 0,20 78 143 0 0,-17-84-212 0 0,21 59 29 0 0,-23-76-111 0 0,28 60-889 0 0,-38-86 801 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,3 2 0 0 0,-2-2-220 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2-1 0 0 0,4-5-2320 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,9-16-1 0 0,-9 14 1108 0 0,14-19-2152 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1907.97">3955 388 1256 0 0,'-10'-24'6045'0'0,"9"28"-4283"0"0,-5 15 193 0 0,2-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 33 1 0 0,9 77 1347 0 0,-2-82-2149 0 0,1-7-802 0 0,2 0 0 0 0,1 0 1 0 0,3-1-1 0 0,1 0 0 0 0,2-1 0 0 0,31 66 1 0 0,-35-86-306 0 0,1 0 0 0 0,1-1 1 0 0,0-1-1 0 0,1 0 0 0 0,1 0 0 0 0,1-1 1 0 0,0-1-1 0 0,1 0 0 0 0,28 20 1 0 0,-33-27-33 0 0,0-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1-1 0 0 0,0 0 0 0 0,15-3 1 0 0,-6-2-12 0 0,1-1-1 0 0,-1 0 1 0 0,0-2 0 0 0,-1-1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1-1 0 0 0,-1-1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0-1 0 0 0,-1-1-1 0 0,-1-1 1 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,-1-1 1 0 0,-1 0 0 0 0,0-1 0 0 0,-2-1-1 0 0,0 1 1 0 0,-1-2 0 0 0,-2 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,2-25 0 0 0,-4-1 69 0 0,-3 0-1 0 0,-1-1 1 0 0,-3 1 0 0 0,-2 0 0 0 0,-2 1 0 0 0,-21-70-1 0 0,24 99 28 0 0,-1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,-2 0 0 0 0,1 1 0 0 0,-21-29 0 0 0,22 36-63 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,-22-8 1 0 0,11 7-118 0 0,-1 1 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 2 1 0 0,-1 1-1 0 0,1 1 0 0 0,-34 5 0 0 0,21 0-1296 0 0,-47 14-1 0 0,-25 20-4854 0 0,76-26 2796 0 0,0 2 1 0 0,0 2 0 0 0,-32 25-1 0 0,13-2 76 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2728.03">98 2210 100 0 0,'-27'-10'14694'0'0,"41"20"-11268"0"0,3-5-1387 0 0,0-2 0 0 0,21 3 0 0 0,39-2 56 0 0,79-14-1963 0 0,-125 8 345 0 0,1229-81 2725 0 0,-698 51-2544 0 0,-415 23-456 0 0,1372-75 966 0 0,-883 76-900 0 0,0 24-40 0 0,-611-15-228 0 0,57 0 11 0 0,-23-1-44 0 0,0 3 0 0 0,71 12-1 0 0,-125-13-988 0 0,-8 1-950 0 0,-10 0-1643 0 0,-5-2-2414 0 0,-34-4 0 0 0,-21-7-1099 0 0,29 4 4289 0 0,-39-6-549 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink36.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:33:16.153"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">79 151 312 0 0,'-2'2'1326'0'0,"-1"1"0"0"0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 6 0 0 0,0-3-233 0 0,1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 9 0 0 0,1 6 117 0 0,1 1 0 0 0,2 22-1 0 0,-1-26 4 0 0,15 162 2787 0 0,-6-102-3168 0 0,29 110 0 0 0,61 155-205 0 0,-56-203-657 0 0,-14-47-2039 0 0,-28-89 1332 0 0,3 14-210 0 0,-3-16-1454 0 0,-2-1 2251 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-2 0-1351 0 0,-4-11-5172 0 0,-1-14 1456 0 0,4 17 3136 0 0,-2-8-565 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="343.63">159 979 360 0 0,'-5'-10'918'0'0,"-35"-58"4428"0"0,37 62-4435 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-15 0 0 0,4 20-700 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,3 0 0 0 0,8-2 383 0 0,1 1 0 0 0,-1 1 0 0 0,16 1-1 0 0,-22-1-389 0 0,49 4 168 0 0,-1 2-1 0 0,1 3 1 0 0,-2 2 0 0 0,0 2-1 0 0,95 37 1 0 0,-128-41-304 0 0,-1 1 0 0 0,1 0 1 0 0,-2 2-1 0 0,1 0 0 0 0,17 17 0 0 0,-26-21-7 0 0,0 2 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,9 21 0 0 0,-13-27-11 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-7 7 0 0 0,1-2 45 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-2 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,-17 7 0 0 0,-4 0 52 0 0,0-2 1 0 0,-1-1-1 0 0,-68 12 0 0 0,83-20-412 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1-1-1 0 0,-31-9 0 0 0,48 11 8 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-5-4 0 0 0,5 4-328 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1-5 0 0 0,1 3-429 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,2-7-1 0 0,6-12-2214 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="709.95">89 187 312 0 0,'-45'-60'7752'0'0,"19"32"-1590"0"0,8 14 3618 0 0,25 13-5505 0 0,6 2-3879 0 0,18 3 197 0 0,1 0 0 0 0,-1-2 0 0 0,56-3-1 0 0,-63 0-442 0 0,528-41-1170 0 0,-471 34-360 0 0,31-9-6328 0 0,-3-7-10558 0 0,-99 23 15566 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink37.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:33:21.938"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">106 70 904 0 0,'-10'-9'20295'0'0,"9"9"-19620"0"0,-3 0 1456 0 0,-6 9 2192 0 0,11 0-4032 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,5 13 0 0 0,4 17 317 0 0,28 111 401 0 0,6 25 66 0 0,-33-117-1075 0 0,-5-29 0 0 0,4 46 0 0 0,-1 9 0 0 0,-5-49 0 0 0,1 43 0 0 0,-1 119 0 0 0,-5-166 0 0 0,0-30-12 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-3-7-1398 0 0,-4-12-3646 0 0,5 14 3315 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0-10 0 0 0,3-41-6773 0 0,6 26 5626 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="837.23">45 205 748 0 0,'-3'0'473'0'0,"1"-1"0"0"0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-4 0 0 0,3 2 55 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,1-4 0 0 0,8-4 486 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0 1 0 0 0,1 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,27-10 0 0 0,-17 9-378 0 0,1 1 0 0 0,0 1 0 0 0,0 1 1 0 0,46-6-1 0 0,-58 11-528 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,20 7-1 0 0,-28-9-85 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 9-1 0 0,-1-1 30 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-10 14 0 0 0,-8 9 270 0 0,-56 58 1 0 0,24-30 114 0 0,-19 14 417 0 0,101-84-736 0 0,1 1 0 0 0,52-8 0 0 0,-40 11-86 0 0,0 2-1 0 0,1 2 1 0 0,-1 1 0 0 0,0 2-1 0 0,0 2 1 0 0,0 2 0 0 0,0 1 0 0 0,66 22-1 0 0,-80-20-11 0 0,-1 1 0 0 0,0 1 0 0 0,30 18 0 0 0,-46-23 4 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,6 14 1 0 0,-11-20-18 0 0,1-1 1 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,-1 3 0 0 0,-1-2 19 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,-7 4-1 0 0,-6 3 50 0 0,0 0-1 0 0,-2-2 0 0 0,1 0 1 0 0,-23 8-1 0 0,-53 16-76 0 0,-2-4 0 0 0,-172 29 0 0 0,137-37-6314 0 0,127-21 4127 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink38.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:33:30.858"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">144 184 780 0 0,'-15'-31'3776'0'0,"13"25"-2650"0"0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,-6-9 0 0 0,6 5 2110 0 0,1 4-989 0 0,1 14-253 0 0,9 80 3807 0 0,-1 2-4096 0 0,9 138-118 0 0,-7-138-1253 0 0,4 0-178 0 0,3-2 0 0 0,36 110 0 0 0,-48-183-153 0 0,36 89-935 0 0,-32-89 187 0 0,-7-15 579 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,-3-14-5746 0 0,-11-19 1581 0 0,0 2 1101 0 0,5 3-301 0 0,-10-42 0 0 0,12 39 2133 0 0,-7-22-496 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="353.3">19 319 596 0 0,'-13'-59'3768'0'0,"12"55"-3515"0"0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,3-3 0 0 0,5-3 503 0 0,0 1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,17-6-1 0 0,0-1-126 0 0,108-43 2148 0 0,-99 43-2392 0 0,-13 5-183 0 0,42-10 1 0 0,-58 17-255 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,10 2 0 0 0,-17-3-33 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1 2 1 0 0,-1-1-161 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,-1 3-1 0 0,-3 8-1265 0 0,0-1-1 0 0,-2 1 0 0 0,1-1 0 0 0,-11 14 1 0 0,15-24 1106 0 0,-27 35-2479 0 0,-5-2 404 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="691.83">54 655 960 0 0,'0'1'129'0'0,"0"-1"0"0"0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 54 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,2-1-1 0 0,33 2 2108 0 0,8-8 320 0 0,51-13-1 0 0,-62 11-2690 0 0,0 1 0 0 0,1 2 0 0 0,38-1 0 0 0,-65 6-296 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,8 4 0 0 0,-12-5 4 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 6 0 0 0,-5 12-1528 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="692.83">334 1195 940 0 0,'0'1'232'0'0,"0"0"0"0"0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0-36 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,19-4 1328 0 0,-1-2-1 0 0,0 0 1 0 0,0-1 0 0 0,37-21 0 0 0,10-4 223 0 0,-3 4-1400 0 0,103-41 635 0 0,-82 45-3967 0 0,-62 20-907 0 0,41-3 0 0 0,-62 8 3513 0 0,0-1-209 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,4 1 1 0 0,4 6-1740 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink39.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:33:34.165"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">75 0 492 0 0,'-70'81'2679'0'0,"66"-70"1500"0"0,5-11-4016 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,28-66 9357 0 0,-29 68-9391 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,4 11 2191 0 0,-1 29-1785 0 0,-2-29 141 0 0,5 57 191 0 0,2 0 1 0 0,33 123-1 0 0,-16-106-585 0 0,36 105 184 0 0,-43-141-374 0 0,-6-19-4 0 0,27 55 1 0 0,0-16 65 0 0,-38-67-152 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,2 0-1 0 0,0-1 6 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,2-2-1 0 0,7-5 23 0 0,-1-2 0 0 0,0 0 0 0 0,12-15-1 0 0,-21 23-28 0 0,24-30-1 0 0,-1-2 0 0 0,35-68 0 0 0,28-83 0 0 0,-68 140 0 0 0,30-65 0 0 0,-45 98 0 0 0,5-14 0 0 0,-10 27 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,3 3 0 0 0,12 19 0 0 0,5 20 0 0 0,30 86 0 0 0,4 9 0 0 0,-46-121 0 0 0,1 0 0 0 0,0-1 0 0 0,2 0 0 0 0,0 0 0 0 0,21 22 0 0 0,-29-34 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,5 1 0 0 0,-2-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,8-4 0 0 0,5-4 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,26-21 0 0 0,-5 0 0 0 0,-1-1 0 0 0,-2-2 0 0 0,-1-2 0 0 0,-2-2 0 0 0,31-45 0 0 0,128-223 0 0 0,-183 289 0 0 0,-9 14 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,7-5 0 0 0,-25 67 0 0 0,14-52 0 0 0,-30 121 0 0 0,29-109 0 0 0,1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,4 28 0 0 0,0-22 0 0 0,1-1 0 0 0,2-1 0 0 0,0 1 0 0 0,1-1 0 0 0,1 0 0 0 0,1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,17 20 0 0 0,-9-12-439 0 0,9 12-4664 0 0,35 60 0 0 0,-56-86 4025 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 17 0 0 0,-5 15-4233 0 0,-2 1 1020 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:46:32.454"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 242 80 0 0,'14'3'3906'0'0,"-13"-3"-3241"0"0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 2-1 0 0,6 12 1226 0 0,0 8-830 0 0,-5-16-767 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0 8-1 0 0,-2-15-238 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,10-6 1332 0 0,5-8-414 0 0,0-6-716 0 0,-1 1-1 0 0,16-31 1 0 0,-15 22-703 0 0,-2-1 0 0 0,0 0 0 0 0,7-32 0 0 0,-12 22-3474 0 0,-5 1-6457 0 0,-5 32 6985 0 0,-3 2 524 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink40.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:33:38.542"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">48 210 700 0 0,'-2'-23'2932'0'0,"1"20"-2672"0"0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,2-6 0 0 0,4-39 20691 0 0,-6 48-20923 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-7 7 2943 0 0,5-5-2268 0 0,-1 5-703 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 14 0 0 0,-4 16 0 0 0,1-9 0 0 0,0 1 0 0 0,2-1 0 0 0,-1 51 0 0 0,10 92 0 0 0,-4-144 0 0 0,20 227 0 0 0,3 50 0 0 0,-22-276 0 0 0,-2-20 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,4 13 0 0 0,-5-18 18 0 0,0-3-22 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-184 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,10-19-4412 0 0,-9 18 3798 0 0,19-38-8277 0 0,-8 15 4117 0 0,12-34-1 0 0,-9 12 1863 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="601.35">813 39 848 0 0,'39'-38'10108'0'0,"-48"45"-4810"0"0,-7 9-2656 0 0,-14 12-1157 0 0,-94 69 2927 0 0,-70 39-2463 0 0,69-43-1349 0 0,107-78-487 0 0,10-9-37 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-8 11 0 0 0,12-16-21 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 2 0 0 0,23 38 848 0 0,-16-29-589 0 0,38 59 40 0 0,2-3 0 0 0,78 85-1 0 0,132 114 912 0 0,-160-170-1116 0 0,-17-21-149 0 0,-43-43 0 0 0,-2 2 0 0 0,58 73 0 0 0,-91-103 0 0 0,2 2 0 0 0,0-1 0 0 0,1 0 0 0 0,10 12 0 0 0,-16-19-241 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 2-1 0 0,-19 24-11062 0 0,16-23 9724 0 0,-17 29-7752 0 0,8-15 6380 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1710.97">144 2085 1284 0 0,'-4'-5'1431'0'0,"0"0"0"0"0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-12-7 0 0 0,16 10-1233 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 3-1 0 0,-2 5 551 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,4 13 0 0 0,2 5-288 0 0,2-1 1 0 0,0-1 0 0 0,2 1-1 0 0,18 32 1 0 0,-9-16-233 0 0,11 16-401 0 0,3 0 0 0 0,3-3 0 0 0,63 79 0 0 0,32 16-6247 0 0,-124-142 5024 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,13 9 0 0 0,-17-15 812 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-1 0 0 0,9-7-2110 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2048.6">825 2253 1840 0 0,'2'-7'1477'0'0,"-1"1"0"0"0,0-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-4-11 0 0 0,3 8 5232 0 0,0 13-4367 0 0,-1 1-2298 0 0,-12 24 2045 0 0,-21 51-1 0 0,13-27-1333 0 0,-171 439-2 0 0,152-353-1059 0 0,-41 236 1 0 0,78-333-982 0 0,3-21-672 0 0,-1 0-1 0 0,-7 26 1 0 0,8-40 641 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,-4 7 0 0 0,5-9-164 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,-6 4 1 0 0,-2-1-2491 0 0,-2-4 831 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink41.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:33:47.134"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">339 18 584 0 0,'-6'1'1135'0'0,"1"-1"-1"0"0,-1 1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,-8 4 0 0 0,13-6-591 0 0,-14 3 6761 0 0,15-4-6989 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,25-11 1184 0 0,-20 10-1515 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,12 0 0 0 0,-15 2 61 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,0 5-1 0 0,1 3 64 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,-2 12 0 0 0,0-7 53 0 0,-2 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,-18 20-1 0 0,27-33-140 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 3-1 0 0,32 2 15 0 0,-7 0-4 0 0,-1 1 0 0 0,0 1 0 0 0,27 13 0 0 0,-39-15 6 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,10 12-1 0 0,-11-11 61 0 0,0 1-1 0 0,-1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,-2 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-10 20 0 0 0,11-27-99 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-11 4 0 0 0,3-2 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-25 3 0 0 0,1-2 0 0 0,-246 13 0 0 0,211-26 0 0 0,68 10 0 0 0,3 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-2 1 0 0 0,-17 0 0 0 0,18 1 0 0 0,0-2 0 0 0,-2 1 0 0 0,2 1 0 0 0,0-2 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 2 0 0 0,4-3 0 0 0,0-3 0 0 0,2 1 0 0 0,0 2 0 0 0,-7 1 0 0 0,3-2 0 0 0,3 1 0 0 0,-1 18-4680 0 0,-2 0-1334 0 0,1-16 5072 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,4 1 0 0 0,13 4-2985 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:33:44.629"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">414 156 1280 0 0,'0'-45'11686'0'0,"-15"80"-4741"0"0,-1-2-4472 0 0,-14 41 592 0 0,-16 43-837 0 0,-113 483 1119 0 0,106-380-3112 0 0,-28 164-587 0 0,71-339 22 0 0,7-29-993 0 0,2-13-365 0 0,7-21-3192 0 0,-2 2 2643 0 0,2-21 1 0 0,2-6-504 0 0,52-240-9175 0 0,-40 191 9529 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="336.68">319 153 1628 0 0,'10'-43'2586'0'0,"-3"13"623"0"0,11-31 1 0 0,-18 60-3123 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 2 0 0 0,4 2 583 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,4 7 0 0 0,64 138 5170 0 0,-2 26-3406 0 0,15 75-694 0 0,56 160-630 0 0,19 9-1848 0 0,-134-348-3173 0 0,-25-72 3817 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-12-5-2368 0 0,0-2-374 0 0,0 0-1 0 0,1-1 1 0 0,-14-13-1 0 0,-6-4-614 0 0,-3 1 829 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="674.36">325 1155 1196 0 0,'-112'-89'8074'0'0,"45"37"-1867"0"0,67 52-6082 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,7-3 2736 0 0,18 5 440 0 0,193 29 838 0 0,111-6-6651 0 0,-265-19-309 0 0,3 0-3781 0 0,-55-5 4064 0 0,0 0 0 0 0,0-1 0 0 0,14-2 1 0 0,-18-1-1158 0 0,-3-1 1011 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:33:49.243"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">73 75 596 0 0,'-20'-24'8165'0'0,"7"26"-2264"0"0,-4 0-3303 0 0,10-1-1455 0 0,-9-2 9836 0 0,26-3-10043 0 0,45-12-415 0 0,71-11 1 0 0,-101 23-387 0 0,1 2 0 0 0,-1 0 0 0 0,0 2-1 0 0,1 1 1 0 0,33 5 0 0 0,-51-4-106 0 0,1-1-1 0 0,-1 2 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,8 6 0 0 0,-11-7-14 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-2 1 0 0 0,1 0 1 0 0,0 8-1 0 0,-2 1-14 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-9 13 0 0 0,-14 20 0 0 0,-51 60 0 0 0,69-92 0 0 0,-72 85 0 0 0,-21 25 0 0 0,63-68 0 0 0,41-56 0 0 0,-5 12 0 0 0,7-12 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 2 0 0 0,8 2 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,20 1 0 0 0,-1 1 0 0 0,102 11 20 0 0,-85-11-50 0 0,0 1 1 0 0,-1 3 0 0 0,47 14 0 0 0,-81-18 193 0 0,16 5-2619 0 0,-1 4-3511 0 0,-25-12 4834 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 4 0 0 0,-1 5-2205 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink44.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:33:51.931"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">50 653 660 0 0,'-35'1'26743'0'0,"40"-12"-25061"0"0,85-109-446 0 0,-62 88-747 0 0,-3-2 1 0 0,0-1-1 0 0,-3 0 0 0 0,28-59 0 0 0,-4-30-489 0 0,-41 104 0 0 0,0 0 0 0 0,-2 0 0 0 0,0-1 0 0 0,0-28 0 0 0,-13 12 0 0 0,10 37 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-7 11 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-3 20 0 0 0,0 18 0 0 0,-2 61 0 0 0,9-56 0 0 0,9 71 0 0 0,-7-105 0 0 0,14 97 0 0 0,31 118 0 0 0,-15-130 0 0 0,-9-33 0 0 0,-14-53 0 0 0,-7-19 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 3 0 0 0,2-2 0 0 0,-3-4 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1-115 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-15 17-1359 0 0,5-11 1103 0 0,-1 0 1 0 0,0-1-1 0 0,0-1 0 0 0,-1 0 1 0 0,0-1-1 0 0,-16 5 0 0 0,21-8 373 0 0,-13 4 434 0 0,0-1 0 0 0,0 0 1 0 0,-1-2-1 0 0,-44 3 1 0 0,8-7 2943 0 0,58 0-3380 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,7-5 0 0 0,7 1 0 0 0,276-19 0 0 0,-42 4 0 0 0,-50 5 0 0 0,-76 6 0 0 0,-96 6 0 0 0,-35 8-2091 0 0,-23 9-5228 0 0,-2-4 116 0 0,-38 8-1 0 0,21-7 3258 0 0,-31 9 30 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink45.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:33:55.556"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF2500"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">63 82 1380 0 0,'-62'-81'23983'0'0,"74"137"-21509"0"0,23 127-9 0 0,70 220 0 0 0,83 55-2465 0 0,-147-367 0 0 0,-38-85 2 0 0,13 23 15 0 0,-16-29-18 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,2-20-73 0 0,-2 13-436 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-7-12-1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:33:56.632"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF2500"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1268 35 1212 0 0,'-15'7'8856'0'0,"12"-1"-8582"0"0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,2 12 0 0 0,7 58 1055 0 0,-4-50-650 0 0,4 13 443 0 0,1 1 1 0 0,23 59-1 0 0,-1-3 272 0 0,27 80 110 0 0,-1 1-938 0 0,-46-139-403 0 0,-2 0 0 0 0,5 65 0 0 0,-13-95-120 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-2-2 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-11 7 0 0 0,-22 14 205 0 0,-2-2 1 0 0,-65 28 0 0 0,-93 22 489 0 0,-185 19 825 0 0,220-58-711 0 0,113-23-485 0 0,1 2 1 0 0,-84 35-1 0 0,116-41-285 0 0,0 1-1 0 0,0 1 0 0 0,1 0 0 0 0,0 1 1 0 0,1 1-1 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 1 1 0 0,-12 17-1 0 0,21-24-29 0 0,0-1 1 0 0,1 2-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 15-1 0 0,1 7 174 0 0,7 54-1 0 0,-4-57-154 0 0,53 289 447 0 0,-21-153-390 0 0,-21-97-381 0 0,36 109 0 0 0,-43-159-309 0 0,2 1 0 0 0,0-2 1 0 0,0 1-1 0 0,2-1 0 0 0,0 0 0 0 0,18 22 1 0 0,163-157-25358 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="635.58">1642 83 1208 0 0,'-30'-83'15404'0'0,"36"241"-9105"0"0,11 1-3291 0 0,0-52-2375 0 0,5-1-1 0 0,51 146 1 0 0,-55-202-509 0 0,2-2 1 0 0,1 0-1 0 0,3-2 1 0 0,2-1-1 0 0,43 58 0 0 0,-49-78-90 0 0,1-1-1 0 0,1 0 0 0 0,1-1 0 0 0,0-2 0 0 0,2 0 1 0 0,1-2-1 0 0,0-1 0 0 0,2-1 0 0 0,56 26 0 0 0,-43-28 10 0 0,0-1 0 0 0,2-3 0 0 0,-1-1 0 0 0,1-3 1 0 0,0-1-1 0 0,1-2 0 0 0,-1-2 0 0 0,1-2 0 0 0,58-7 0 0 0,37-13-7 0 0,210-57 1 0 0,-256 53-57 0 0,-15 5 12 0 0,-5-1 73 0 0,1 3-1 0 0,112-10 1 0 0,-170 27-2 0 0,0-1 0 0 0,0 2 0 0 0,0 0-1 0 0,0 1 1 0 0,0 1 0 0 0,-1 0-1 0 0,29 11 1 0 0,-37-12-4 0 0,0 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-2 0 1 0 0,1 1 0 0 0,0 0 0 0 0,3 11 0 0 0,3 16 94 0 0,-3 0 1 0 0,0 1 0 0 0,2 45 0 0 0,-3 111 620 0 0,-5-77-580 0 0,4-14-288 0 0,21 117 1 0 0,-16-162-57 0 0,3 0 0 0 0,2-1 0 0 0,36 85 0 0 0,-17-73-2556 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink47.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:34:02.319"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF2500"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1830 714 504 0 0,'-13'-49'10453'0'0,"11"48"-10270"0"0,1 2-125 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,-2 1 402 0 0,3-1-402 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 2 0 0 0,-4 19 643 0 0,1-7-78 0 0,-2 6 149 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,4 24 0 0 0,7 25 1413 0 0,21 71 0 0 0,-19-88-1745 0 0,-5-19-202 0 0,1 3 6 0 0,-1 1 1 0 0,-2 0 0 0 0,3 49-1 0 0,-9-77-191 0 0,-1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-13 14-1 0 0,4-10-20 0 0,0 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0-2-1 0 0,-1 1 1 0 0,0-2-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1-1-1 0 0,-27 4 1 0 0,-1-1-6 0 0,-1-3 0 0 0,-1-1 0 0 0,-71-3 0 0 0,-16-7 25 0 0,39 0 36 0 0,-1 4-1 0 0,-128 15 1 0 0,171-6 66 0 0,1 2 0 0 0,0 3 0 0 0,-88 32 0 0 0,121-37-95 0 0,1 2 0 0 0,-1 0-1 0 0,2 1 1 0 0,0 1-1 0 0,0 1 1 0 0,1 1 0 0 0,1 0-1 0 0,0 1 1 0 0,1 1-1 0 0,1 1 1 0 0,-26 35-1 0 0,19-15 50 0 0,1 0 0 0 0,-28 73 0 0 0,-16 85 7 0 0,59-176-112 0 0,-9 30-47 0 0,2 2 0 0 0,2-1 0 0 0,3 2 0 0 0,1-1 0 0 0,3 1 0 0 0,4 84 0 0 0,1-123-23 0 0,11 91-943 0 0,-9-90 584 0 0,0 0 0 0 0,1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,9 15 0 0 0,-7-16-641 0 0,0 0 1 0 0,2 0 0 0 0,-1-1-1 0 0,2 0 1 0 0,-1-1 0 0 0,2 0-1 0 0,22 19 1 0 0,-24-24 90 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,19 1 1 0 0,27-3-2234 0 0,6-5 710 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="644.18">2659 88 420 0 0,'0'-7'774'0'0,"0"1"-1"0"0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-5-7-1 0 0,6 12-654 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,-31 28 2324 0 0,14-9-1167 0 0,1 1 1 0 0,1 1 0 0 0,-20 32-1 0 0,4 0 477 0 0,2 2 0 0 0,-37 94 0 0 0,42-70-1260 0 0,3 1 0 0 0,-13 94 0 0 0,28-123-416 0 0,3 0 1 0 0,2-1-1 0 0,2 1 0 0 0,3 0 0 0 0,2 0 0 0 0,2 0 0 0 0,15 59 1 0 0,-14-81-52 0 0,2-1 1 0 0,1-1 0 0 0,2 0-1 0 0,1 0 1 0 0,0-1 0 0 0,20 27-1 0 0,-23-39-7 0 0,1-1 0 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,1-1 0 0 0,1-1-1 0 0,0 0 1 0 0,0-1 0 0 0,29 12-1 0 0,-13-10 8 0 0,1-2 0 0 0,0 0-1 0 0,1-3 1 0 0,56 5 0 0 0,136-7 35 0 0,-48-3 4 0 0,-93 3 77 0 0,93 17 0 0 0,-152-16-52 0 0,0 0 0 0 0,-1 2 0 0 0,1 1 0 0 0,-1 1 0 0 0,-1 0 1 0 0,0 2-1 0 0,0 1 0 0 0,25 18 0 0 0,-35-20 10 0 0,-1 1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 1-1 0 0,-2 0 1 0 0,1 1-1 0 0,-2 0 1 0 0,1 1-1 0 0,-2-1 1 0 0,0 1-1 0 0,9 30 1 0 0,-3 6 293 0 0,-2 1-1 0 0,7 87 1 0 0,-5 97-394 0 0,-11-189 0 0 0,-1 179-413 0 0,-1-127 10 0 0,-1-48-2200 0 0,-15 91 0 0 0,0-61-7468 0 0,-41 119-1 0 0,38-140 6408 0 0,3 0 942 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink48.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:33:58.661"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF2500"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5145 14 20 0 0,'0'-13'12759'0'0,"-1"63"-10293"0"0,-33 186 4466 0 0,9-5-4261 0 0,-7 46-1449 0 0,14-175-813 0 0,-3-1-1 0 0,-38 103 1 0 0,51-180-341 0 0,-2-1 1 0 0,0 0-1 0 0,-2 0 1 0 0,-1-1 0 0 0,0 0-1 0 0,-2-1 1 0 0,0-1-1 0 0,-23 23 1 0 0,23-28-48 0 0,-2 0 0 0 0,0-1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0-2 0 0 0,-1 0 0 0 0,-41 13 0 0 0,26-13-17 0 0,-1-2 0 0 0,1-2 0 0 0,-61 2 0 0 0,-109-11-24 0 0,87-1-4 0 0,108 5 22 0 0,-500-5 216 0 0,1 37 699 0 0,417-19-643 0 0,1 4 1 0 0,-116 36-1 0 0,195-48-220 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 1 1 0 0,1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,2 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,1 1 0 0 0,-14 21 1 0 0,-26 51 282 0 0,-50 121 0 0 0,70-140-212 0 0,-14 51 132 0 0,13-27-3 0 0,-90 245 440 0 0,77-222-690 0 0,-47 116 0 0 0,86-221 0 0 0,-2 7 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,-9 10 0 0 0,14-20 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-5 0 0 0 0,-6-2 0 0 0,-1 1 0 0 0,-19-6 0 0 0,-18-2 0 0 0,21 9 0 0 0,-1 1 0 0 0,1 1 0 0 0,-47 10 0 0 0,-95 31 0 0 0,168-41 0 0 0,-127 38 0 0 0,-203 91 0 0 0,254-92 0 0 0,2 2 0 0 0,-117 83 0 0 0,152-91 0 0 0,3 2 0 0 0,0 2 0 0 0,3 1 0 0 0,1 2 0 0 0,-50 69 0 0 0,41-38 0 0 0,4 1 0 0 0,2 3 0 0 0,-58 149 0 0 0,91-202-370 0 0,0 1 0 0 0,2 0-1 0 0,0 1 1 0 0,1 0 0 0 0,2 0 0 0 0,-1 30-1 0 0,4-46 132 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,7 14 0 0 0,-7-16 80 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,8 3-1 0 0,-1-2-1550 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-2 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 1 0 0,-1-2-1 0 0,1 0 0 0 0,-1 0 0 0 0,19-7 1 0 0,10-5-1939 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1259.01">5559 128 360 0 0,'-30'-5'6372'0'0,"26"7"-6037"0"0,1-1-71 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-4 4 0 0 0,-2 3 171 0 0,1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-8 17 0 0 0,0 3 529 0 0,2 1-1 0 0,1 0 1 0 0,1 0-1 0 0,2 1 1 0 0,-7 48-1 0 0,8-17-10 0 0,3 1 0 0 0,3 0 0 0 0,3 0 0 0 0,2 0-1 0 0,4 0 1 0 0,1-1 0 0 0,4 0 0 0 0,34 99 0 0 0,-29-102-616 0 0,24 61 206 0 0,-38-111-507 0 0,26 64 283 0 0,42 68 0 0 0,-58-118-254 0 0,0-1 1 0 0,1-1-1 0 0,2 0 1 0 0,0-1-1 0 0,1-1 1 0 0,1-1-1 0 0,21 16 1 0 0,-10-13 14 0 0,0-2 0 0 0,1-2 1 0 0,1-1-1 0 0,1-1 1 0 0,0-2-1 0 0,1-1 1 0 0,42 9-1 0 0,252 34 318 0 0,-286-50-376 0 0,1048 63 883 0 0,-970-69-787 0 0,0-4 0 0 0,-1-6 0 0 0,-1-5 0 0 0,184-50 0 0 0,-238 48-36 0 0,-15 3 142 0 0,89-14 1 0 0,-137 29-206 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,1 2 1 0 0,0 3 50 0 0,0 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 9 1 0 0,1 6 3 0 0,3 119 116 0 0,-4-79-66 0 0,13 92-1 0 0,-4-108-123 0 0,2 0 0 0 0,1-1 0 0 0,3 0 0 0 0,2-1 0 0 0,1-1 0 0 0,44 73 0 0 0,-45-89 0 0 0,2-1 0 0 0,0-1 0 0 0,2 0 0 0 0,0-2 0 0 0,2 0 0 0 0,1-2 0 0 0,0-1 0 0 0,2 0 0 0 0,0-2 0 0 0,1-1 0 0 0,0-1 0 0 0,2-2 0 0 0,0 0 0 0 0,0-2 0 0 0,1-1 0 0 0,0-2 0 0 0,1-1 0 0 0,62 8 0 0 0,-47-13 0 0 0,0-2 0 0 0,50-5 0 0 0,93-20 0 0 0,-86 10 0 0 0,-40 6 0 0 0,242-20 0 0 0,-265 27 0 0 0,-1 2 0 0 0,0 1 0 0 0,0 2 0 0 0,-1 2 0 0 0,67 19 0 0 0,-85-18 0 0 0,0 2 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 2 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,-2 1 0 0 0,0 1 0 0 0,13 19 0 0 0,10 25 0 0 0,-1 1 0 0 0,43 108 0 0 0,-14-28 0 0 0,70 141 0 0 0,-134-281-5 0 0,8 23-1347 0 0,-9-24 1290 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0-123 0 0,0-1 123 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 1 0 0,-21 0-3295 0 0,-1-1 1 0 0,1-1 0 0 0,-43-10 0 0 0,58 11 2690 0 0,-27-8-2262 0 0,0-1 0 0 0,1-1 0 0 0,-63-31 0 0 0,18 4 268 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1769.35">8359 1699 944 0 0,'-9'-45'5905'0'0,"-5"13"-1618"0"0,14 33-4250 0 0,-6 7 918 0 0,-5 11 149 0 0,-19 58 3752 0 0,-33 137 0 0 0,26-78-2257 0 0,-104 254 278 0 0,108-316-2652 0 0,-4-1-1 0 0,-3-3 1 0 0,-54 73 0 0 0,66-107-189 0 0,-1 0 1 0 0,-2-2 0 0 0,-2-2 0 0 0,-1-1-1 0 0,-1-1 1 0 0,-2-2 0 0 0,0-1-1 0 0,-2-3 1 0 0,-1-1 0 0 0,-1-1 0 0 0,-1-3-1 0 0,0-1 1 0 0,-1-2 0 0 0,-61 13-1 0 0,-159 22 298 0 0,249-48-280 0 0,0 1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1 1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,2 1 0 0 0,-1-1-1 0 0,1 2 1 0 0,1-1 0 0 0,-1 1 0 0 0,2 1-1 0 0,0 0 1 0 0,-12 21 0 0 0,0 6 50 0 0,2 1 1 0 0,1 1-1 0 0,3 1 1 0 0,1 0-1 0 0,1 0 1 0 0,3 1-1 0 0,-5 52 1 0 0,10-39-222 0 0,2 0 0 0 0,2 0 0 0 0,3 0 0 0 0,2 0 0 0 0,15 65 0 0 0,-6-60-535 0 0,-2-11-1752 0 0,-2 1 0 0 0,-2 0-1 0 0,3 97 1 0 0,-14-91-1961 0 0,-2 0 0 0 0,-3 0 0 0 0,-21 77 0 0 0,9-62 1403 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2383.97">2024 1864 720 0 0,'-14'0'1241'0'0,"1"1"0"0"0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,-15 5 0 0 0,21-5-997 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-5 9 0 0 0,1-1 31 0 0,2 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-4 19 0 0 0,4-9 339 0 0,1-1 0 0 0,1 1 0 0 0,0 30 1 0 0,5-12 163 0 0,1-1 0 0 0,2 0 0 0 0,2 0 1 0 0,2-1-1 0 0,1 0 0 0 0,27 66 1 0 0,-19-64-535 0 0,2-1 1 0 0,2 0 0 0 0,2-2 0 0 0,2-1-1 0 0,56 67 1 0 0,-57-78-185 0 0,2-2 0 0 0,1 0 0 0 0,1-2 0 0 0,1-1 0 0 0,1-2 0 0 0,1 0 0 0 0,59 26 0 0 0,-61-34 13 0 0,1-1 0 0 0,1-2 1 0 0,0-1-1 0 0,0-2 0 0 0,1-1 0 0 0,0-1 0 0 0,0-2 0 0 0,66-2 0 0 0,109-32 410 0 0,-154 20-149 0 0,1 2-1 0 0,0 3 1 0 0,76 0 0 0 0,-115 6-229 0 0,1 2 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 1-1 0 0,-1 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,20 19 1 0 0,-11-4-8 0 0,-2 0 1 0 0,0 1 0 0 0,-2 1-1 0 0,-1 0 1 0 0,-1 1 0 0 0,-1 1-1 0 0,-1 1 1 0 0,13 44 0 0 0,3 30-265 0 0,19 125 1 0 0,-43-201 76 0 0,55 303-3099 0 0,-30-154-780 0 0,29 131-8178 0 0,-35-212 8144 0 0,5 0 507 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink49.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:34:33.432"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">100 15 84 0 0,'-1'-6'6800'0'0,"-3"6"-3782"0"0,-12 3 6616 0 0,1-6 1097 0 0,8 3-8023 0 0,1 0-5235 0 0,-31-6-22444 0 0,23 3 21338 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:48:23.269"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 1 696 0 0,'-1'7'9123'0'0,"-1"7"-2872"0"0,6 47 626 0 0,1-36-5612 0 0,11 38-1 0 0,24 74-546 0 0,-38-128-782 0 0,3 9 629 0 0,0-17-151 0 0,2-8-95 0 0,91-150-89 0 0,-88 145-242 0 0,-8 10 10 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1-4 1 0 0,1 5-23 0 0,2 7 7 0 0,3 6 16 0 0,63 152 206 0 0,-66-154-167 0 0,1 3 61 0 0,0 0 0 0 0,0-1-1 0 0,13 16 1 0 0,-18-27-76 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,16-16 287 0 0,-14 14-241 0 0,12-15 38 0 0,-1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,15-39 0 0 0,-10 23-61 0 0,42-94-363 0 0,-59 161-16636 0 0,-6-5 9049 0 0,2-11 4741 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink50.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:34:35.472"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">91 36 532 0 0,'-1'-1'348'0'0,"0"0"1"0"0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-15-19 17235 0 0,17 24-13531 0 0,0 6-791 0 0,-3-4-4477 0 0,0-2 1335 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0 7-1 0 0,0-7-29 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 6 0 0 0,-2 3 133 0 0,1 0 0 0 0,1 0-1 0 0,-1 25 1 0 0,1-5 101 0 0,-5 36-99 0 0,-12 93 294 0 0,9-92-518 0 0,3-1 0 0 0,4 101 0 0 0,8-66 0 0 0,-6-103 0 0 0,-2-1 0 0 0,3 1 0 0 0,4-28-7419 0 0,0-3-2615 0 0,14-9 617 0 0,-15 33 8416 0 0,7-13-2187 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="801.36">592 123 924 0 0,'8'-8'1901'0'0,"0"0"1"0"0,-1 0-1 0 0,0 0 0 0 0,7-17 8271 0 0,-22 26-7169 0 0,-14 10-2848 0 0,17-8 1017 0 0,-197 93 3214 0 0,-9 6-3134 0 0,202-98-1056 0 0,0 1 0 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-9 10 0 0 0,16-17-157 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,12 17 597 0 0,-7-12-431 0 0,0 0 0 0 0,1 0-1 0 0,13 8 1 0 0,18 18-123 0 0,-16-13-74 0 0,9 10-8 0 0,0 2 0 0 0,-2 1 0 0 0,44 62 0 0 0,-25-32 0 0 0,-32-45 0 0 0,-2 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,11 28 0 0 0,-7-17 0 0 0,-12-27 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 7 0 0 0,-1-9 0 0 0,3 14 0 0 0,-4-15 0 0 0,4 0 0 0 0,-3-3-1 0 0,-8 3-4121 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-8 4-1 0 0,7-3 1933 0 0,-17 6-2637 0 0,-4 0 956 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:35:17.178"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">33 36 1212 0 0,'4'-2'1304'0'0,"-1"0"0"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,2-6 843 0 0,-19 4 2831 0 0,14 5-4972 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,12 16-14 0 0,-8-14 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,9 2 1 0 0,-12-3 51 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,1-2 0 0 0,-3 3 5 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-19-5 1055 0 0,13 5-919 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-12 4-1 0 0,18-6-172 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-2 3 0 0 0,3-3-9 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 2 0 0 0,-1-1-2 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,4 0 1 0 0,-3 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,4-2 0 0 0,-4 2 40 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,4-5 0 0 0,-6 7-22 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-2 0-1 0 0,-4-1 5 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-6 5 1 0 0,10-9-27 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,4 2-9 0 0,-1 0 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,6 0 0 0 0,-10-1 18 0 0,20-4-10 0 0,-21 5 12 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 1 0 0,0 1-4 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,-24 0-318 0 0,-5 5-1884 0 0,-11 0-6097 0 0,42-5 8041 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,2-17-5147 0 0,3-2 2583 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink52.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:36:05.337"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">40 154 1000 0 0,'-39'-6'19923'0'0,"75"-20"-13174"0"0,-26 17-6543 0 0,0 1 1 0 0,1 1-1 0 0,20-11 0 0 0,0 4 119 0 0,-8 4-106 0 0,1 0 0 0 0,1 1 0 0 0,27-6 0 0 0,-15 8 185 0 0,0 1-1 0 0,65-2 1 0 0,-90 8-293 0 0,1 0 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 2-1 0 0,0-1 1 0 0,0 2-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,12 10-1 0 0,-16-9-92 0 0,-1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,3 11-1 0 0,-4-9-18 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-6 16 0 0 0,-2-2 0 0 0,-1-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-2-1 0 0 0,-1 0 0 0 0,-20 20 0 0 0,-27 31 0 0 0,-19 19 0 0 0,-62 52 0 0 0,81-76 0 0 0,6-5 0 0 0,21-18 0 0 0,31-39 0 0 0,-4 4 0 0 0,10-9 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,3 1 0 0 0,-2 0 0 0 0,345 5 0 0 0,-195-9 0 0 0,251 17 0 0 0,-334-10 0 0 0,45 2 0 0 0,-104-8-1585 0 0,-18-2-2215 0 0,-19-4-4702 0 0,-15-1-393 0 0,-24-1 1696 0 0,8 4 4493 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:36:25.695"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">40 124 72 0 0,'-1'-21'3374'0'0,"0"17"-2786"0"0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-5 1 0 0,0 5-21 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-2-3-1 0 0,-1-15 5291 0 0,3 22-5715 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0-41 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 8 593 0 0,0 5-58 0 0,0-1-1 0 0,1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,3 14 0 0 0,18 38-283 0 0,3-1 1 0 0,43 78 0 0 0,-51-107-330 0 0,44 77-978 0 0,-51-93-672 0 0,23 26 0 0 0,4 5-4677 0 0,-36-46 5344 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,5 1-1 0 0,7-2-2222 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="335.94">605 238 2212 0 0,'0'-5'887'0'0,"0"-1"0"0"0,-1 1-1 0 0,1-1 1 0 0,-2 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,-3-4-1 0 0,5 8-578 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-3 1 1 0 0,-3 2 118 0 0,-1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-8 15 1 0 0,0 3 1069 0 0,1 0-1 0 0,-19 50 1 0 0,-94 346-1497 0 0,121-403 0 0 0,-35 123-2976 0 0,-79 175-11253 0 0,111-298 10727 0 0,-1-1 0 0 0,-19 29 0 0 0,3-10-382 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:35:15.603"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1554 1037 980 0 0,'-65'-3'17128'0'0,"65"0"-14727"0"0,0-3 2099 0 0,4 28-4013 0 0,-1-9-380 0 0,-2-8-83 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,6 9 0 0 0,-7-12 0 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,2 2-1 0 0,-4-4-5 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,2-2 0 0 0,-1-1 24 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-4-1 0 0,-2 6-10 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,-2-1 1 0 0,2 2-24 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 4 0 0 0,0-3-13 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 5 1 0 0,1-8 2 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 2 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,2-1 1 0 0,-2 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-2 1 0 0,4-31-48 0 0,-4 32 25 0 0,-16 28-5929 0 0,15-25 5467 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,4 1-1 0 0,10 4-1873 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="712.47">2349 998 1208 0 0,'-14'-2'6337'0'0,"14"2"-6076"0"0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 522 0 0,1 1-521 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-6 4392 0 0,-4 15-3179 0 0,4 6-1249 0 0,1-12-213 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 3 0 0 0,1-3 23 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,5 3 0 0 0,-8-5-6 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,-3-10 1281 0 0,-3 4 218 0 0,7 5-1478 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-2 1 1 0 0,1 0-46 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,2 3 1 0 0,-2-2 1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,2-2-1 0 0,-2 1 36 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-2-4 1 0 0,1 5-18 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-2-1-1 0 0,0 0-5 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-5 1 1 0 0,1 0-14 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,-7 6 0 0 0,9-4-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 1-1 0 0,-9 13 1 0 0,8-13 152 0 0,4-15 171 0 0,2 4-323 0 0,-1 3 8 0 0,-10 5-4361 0 0,10-4 3981 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-227 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,2 1 1 0 0,11-1-2086 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="75946.48">2434 743 616 0 0,'-6'-32'3115'0'0,"1"-1"0"0"0,-2-52 0 0 0,5 19 3591 0 0,5 60-2538 0 0,-1 26-1648 0 0,-4 3-1761 0 0,-1 0 1 0 0,-2 0 0 0 0,0 0-1 0 0,-16 41 1 0 0,-192 420 1549 0 0,139-339-1894 0 0,-31 66 72 0 0,45-85-272 0 0,-71 159 25 0 0,125-270-225 0 0,3-10 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 6 0 0 0,11-23 141 0 0,13-24-49 0 0,23-54 1 0 0,-31 61-83 0 0,126-317 69 0 0,-91 210-124 0 0,-2 11-19 0 0,143-363 0 0 0,-36 86 255 0 0,-151 389-180 0 0,-1 6 14 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1-11-1 0 0,-3 18-36 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-9 12 144 0 0,-139 252 330 0 0,88-148-387 0 0,-31 66-91 0 0,22-39 0 0 0,-390 834 0 0 0,339-683 0 0 0,117-282 0 0 0,3-10 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 1 0 0 0,9-21 0 0 0,19-92 0 0 0,-17 48-273 0 0,-3 19-399 0 0,4-75-6424 0 0,-8 90 3825 0 0,1 0 0 0 0,2-1 0 0 0,0 1-1 0 0,2 0 1 0 0,10-31 0 0 0,5 8-28 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="76698.7">2644 242 456 0 0,'9'-34'3183'0'0,"2"0"0"0"0,0 0 0 0 0,3 2-1 0 0,26-49 1 0 0,-40 79-2958 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,3 1-1 0 0,-3 0-32 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,1 3 1 0 0,12 20 530 0 0,-2 0 0 0 0,-1 0 1 0 0,-1 2-1 0 0,14 48 0 0 0,-8-23-256 0 0,232 565 1335 0 0,37-16-278 0 0,-136-314-1523 0 0,-85-166 0 0 0,76 133 0 0 0,-53-100 0 0 0,-67-112 0 0 0,-18-40 0 0 0,-3-9 0 0 0,-3-12 0 0 0,-29-67 0 0 0,-45-89 0 0 0,44 104 0 0 0,-52-109-152 0 0,-8 5 0 0 0,-8 3 0 0 0,-137-176 1 0 0,-292-288 507 0 0,517 622-327 0 0,1 0-1 0 0,-22-33 0 0 0,32 41 1 0 0,8 9-2 0 0,10 12 34 0 0,2 5-53 0 0,0 1 0 0 0,-2 0 0 0 0,16 27 0 0 0,39 76 7 0 0,-41-68-13 0 0,244 379-2 0 0,-110-183 0 0 0,-71-104 0 0 0,434 660 0 0 0,-322-535 0 0 0,-176-233 0 0 0,17 26 0 0 0,-26-43 0 0 0,-36-49-5617 0 0,-4 6-1498 0 0,-1 1-1 0 0,-41-28 1 0 0,31 25 2979 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="86307.63">1606 2414 512 0 0,'-15'5'1106'0'0,"-118"46"4962"0"0,116-43-5606 0 0,1 1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-20 20 0 0 0,35-30-421 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1 1 1 0 0,1-3-17 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 2 1 0 0,1-1 4 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,6-1 0 0 0,6 0 36 0 0,0-1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,-1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,24-15 0 0 0,-36 21-8 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-3-1 0 0,0 3 20 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1-2 1 0 0,-3 0 138 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,-7 0 0 0 0,-5 0 221 0 0,1 2 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 2 0 0 0,-32 10 0 0 0,38-9-248 0 0,0-1 0 0 0,1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,1 1 0 0 0,0 1 1 0 0,-16 18-1 0 0,23-25-173 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,3 5-1 0 0,0-3-9 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,10 2 0 0 0,-2-2-8 0 0,0 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,0-1-1 0 0,0 0 1 0 0,23-5 0 0 0,-29 4 28 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,7-10 0 0 0,-10 12 22 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,-7 0 0 0 0,3 0-10 0 0,1 1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-1 0 0 0,-9 7 0 0 0,12-7-27 0 0,0 0 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-2 8-1 0 0,4-11-10 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,2 5 1 0 0,-1-6-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,1 1 0 0 0,2 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,4-3 0 0 0,-3 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,2-11 0 0 0,-4 16 8 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-3-2-1 0 0,4 3-5 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 1-1 0 0,-3 4 8 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 11 0 0 0,2-15-8 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,2 4 0 0 0,-1-6-2 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,4 1-1 0 0,-4-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,4-1 1 0 0,-2 0 7 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,3-4 0 0 0,-2 3 18 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-2-7-1 0 0,2 8 14 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-8-5 0 0 0,8 6-11 0 0,-1 0 1 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-5 2 1 0 0,2-1-9 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-7 10 0 0 0,8-11-16 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 5 0 0 0,0-5-3 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,4 2 0 0 0,3-1-2 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,13 0 0 0 0,-9-2-5 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,15-9 0 0 0,-23 11 4 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-2-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0-10-1 0 0,-2 14 14 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 0 0 0 0,-5 0 33 0 0,1-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-13 5 0 0 0,4-1 1 0 0,1 1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,2 1 0 0 0,-17 13 0 0 0,29-21-40 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-2 8 0 0 0,3-10-5 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,2 1 1 0 0,6 1-5 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-2 0 0 0,-1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,0 0 1 0 0,11-5-1 0 0,-1 0-12 0 0,1-1 0 0 0,-2-1 0 0 0,1-1 0 0 0,21-17 0 0 0,-36 24 10 0 0,7-4-2 0 0,-1 0 0 0 0,14-16 0 0 0,-22 23 8 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-5-1 0 0,0 6 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,-19 1-25 0 0,-19 15-252 0 0,25-7-1028 0 0,1 0 0 0 0,-1 1 0 0 0,2 0 0 0 0,-18 16 0 0 0,6 1-5060 0 0,3 1-3489 0 0,17-19 5661 0 0,5-3 1061 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="86890.5">261 1754 900 0 0,'-9'-9'2205'0'0,"-1"1"-1"0"0,1 0 1 0 0,-1 0-1 0 0,-16-9 1 0 0,19 14-1612 0 0,1 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-11-1 0 0 0,14 4-432 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-3 5-1 0 0,-1 1 223 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-3 16 0 0 0,3-13-310 0 0,1 0 0 0 0,1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,2 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,13 9 1 0 0,-8-7-61 0 0,1-2 1 0 0,1 0 0 0 0,0-1 0 0 0,0 0-1 0 0,1-2 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0-2 0 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1-1 0 0 0,36-1 0 0 0,-30-3 59 0 0,0-2 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-2-1 0 0,0-1 1 0 0,-1-1-1 0 0,0-1 0 0 0,0-1 1 0 0,-1-1-1 0 0,-1-2 1 0 0,0 0-1 0 0,27-22 1 0 0,-21 12 87 0 0,-1 0 0 0 0,-1-2-1 0 0,-1-1 1 0 0,-1-2 0 0 0,-2 0 0 0 0,-1-1 0 0 0,-1-1 0 0 0,18-38 0 0 0,-28 47-64 0 0,-1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,-2 0 1 0 0,-1-1 0 0 0,-1 0-1 0 0,-1 0 1 0 0,-1 0 0 0 0,-1 0 0 0 0,-3-28-1 0 0,1 39-13 0 0,-1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,-1-1 1 0 0,-9-16 0 0 0,9 20-19 0 0,0 1 0 0 0,-1-1 0 0 0,0 2 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-17-7-1 0 0,13 7-41 0 0,0 2 1 0 0,0-1-1 0 0,-1 2 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1 1-1 0 0,0 0 1 0 0,-18 2-1 0 0,13 1-12 0 0,1 1-1 0 0,0 1 1 0 0,-1 0-1 0 0,2 1 1 0 0,-1 1-1 0 0,-23 11 0 0 0,13-2-284 0 0,0 2-1 0 0,0 0 0 0 0,2 2 0 0 0,0 1 0 0 0,1 0 0 0 0,1 2 0 0 0,-37 44 0 0 0,25-19-1889 0 0,2 2 0 0 0,1 2 0 0 0,3 0-1 0 0,-26 65 1 0 0,-75 229-10931 0 0,91-214 9700 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="87460.58">242 2876 1084 0 0,'-1'-1'540'0'0,"1"-1"1"0"0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-2-3 0 0 0,2 3-314 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,-5 13 516 0 0,-2 11 2125 0 0,-8 37 0 0 0,5-12-642 0 0,-7 37-699 0 0,5 1 1 0 0,-4 115-1 0 0,16-177-1393 0 0,0-23-125 0 0,-48 611 1066 0 0,33-435-1620 0 0,12-62-4003 0 0,5-107 1593 0 0,4-13-726 0 0,4-16-2073 0 0,-8 16 5394 0 0,23-63-7374 0 0,-9 20 4611 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="87799.54">352 2561 184 0 0,'-12'-56'6440'0'0,"-6"2"3780"0"0,38 135-2992 0 0,4-7-4575 0 0,41 88-1 0 0,46 66-1319 0 0,-56-120-597 0 0,-23-42-438 0 0,186 393 454 0 0,-183-383-728 0 0,40 105-497 0 0,-65-151 74 0 0,-3-12-765 0 0,-1 1 0 0 0,5 28 0 0 0,-11-46 814 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-2-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-3 1 0 0 0,-1 0-952 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-9-3 1 0 0,-10-4-1193 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="88140.74">277 3839 240 0 0,'-62'-6'4442'0'0,"38"3"1002"0"0,-45-12 0 0 0,68 15-5277 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1-1 0 0 0,1 2 1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,0 0 1 0 0,29-8 3735 0 0,-29 8-3924 0 0,246-57 4883 0 0,-3-15-3861 0 0,65-18-2000 0 0,-64 35-4858 0 0,130-11-16282 0 0,-300 56 18968 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89092.41">4156 2978 128 0 0,'-5'-10'1855'0'0,"1"0"0"0"0,0-1 1 0 0,-3-11-1 0 0,6 21-1531 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-3-1-1 0 0,4 2-171 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,13 23 721 0 0,-9-22-826 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,5-1 1 0 0,0 1 59 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,13-3-1 0 0,-9 0 25 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,19-15 0 0 0,-25 17 37 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-2 0 0 0 0,3-8 0 0 0,-4 11-42 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-4-3 1 0 0,2 2-15 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,-6-2-1 0 0,2 2-16 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1 0 0 0 0,1 0 0 0 0,-9 3 0 0 0,13-3-68 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-2 5-1 0 0,3-7-24 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,2 2 0 0 0,3 0-3 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,14-4 0 0 0,-14 2 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-14 0 0 0,-10 16 12 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-8 1 0 0 0,3-1 9 0 0,0 2-1 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-11 9 1 0 0,15-10-19 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,2 10 1 0 0,-1-11-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,8 0 0 0 0,-7 0 1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,6-9 1 0 0,-10 10-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-2-3 0 0 0,1 3-3 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-5 0 0 0 0,2 0-51 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1-1 0 0,-8 7 1 0 0,7-3-772 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-9 14 1 0 0,7-7-1137 0 0,0 0-1 0 0,1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,2 0 1 0 0,0 1 0 0 0,0 0-1 0 0,2 0 1 0 0,-1 27 0 0 0,3 3-706 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89674.35">4276 3956 2208 0 0,'-14'-4'8443'0'0,"-2"-4"5073"0"0,37 29-12222 0 0,-17-18-1288 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-2 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,8-1-1 0 0,-2-1-5 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,0-1-1 0 0,19-11 1 0 0,-27 14 21 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-6 1 0 0,0 6 28 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-4-3 0 0 0,2 2-2 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-8 6 0 0 0,12-10-49 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,4-1 1 0 0,-1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,6-5 1 0 0,-9 7-2 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 0 0 0 0,1-1 2 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-5 0 1 0 0,-2 1-33 0 0,0 1 0 0 0,0 0 1 0 0,-16 8-1 0 0,22-9-249 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-3 6 0 0 0,3-7-379 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 4 1 0 0,0-5 179 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,2 1 1 0 0,13 6-3562 0 0,4-1 671 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="90245.85">5066 3737 1096 0 0,'3'-4'1020'0'0,"0"1"-1"0"0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,2-10-1 0 0,-3 14-824 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 24 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 2 0 0 0,-4 2 290 0 0,-1-1 0 0 0,2 2 0 0 0,-12 7 0 0 0,15-9-431 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 6 0 0 0,1-8-56 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,3-1 0 0 0,10 2-4 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,22-2 0 0 0,-31 2-9 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,6-8 0 0 0,-10 11 16 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-2-1-1 0 0,-1 0 17 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-6 2 1 0 0,4-1-36 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-2 7 0 0 0,3-9-8 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,3 3 1 0 0,-2-3-7 0 0,0 0 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,4-1 0 0 0,-4 1-2 0 0,1-1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,1-5 1 0 0,-2 4 17 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-2-4 1 0 0,0 4 22 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-7 0 0 0 0,6 0-15 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-3 4 1 0 0,5-4-130 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,3 6 0 0 0,-2-5-626 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,4 6 0 0 0,-4-8-252 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 3 0 0 0,0-2-359 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,7 1 0 0 0,-10-2 754 0 0,24 5-1843 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="90759.35">5755 3785 2016 0 0,'3'-7'1442'0'0,"0"0"1"0"0,0 0-1 0 0,-1-1 0 0 0,-1 1 1 0 0,3-13-1 0 0,-1-2 784 0 0,-2 20-1836 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-3-4-1 0 0,3 5-238 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-3 1 0 0 0,2 0-50 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 3 0 0 0,2-4-87 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,1 2-1 0 0,1-1-13 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-2-1 0 0,2 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,7-2 1 0 0,-2 0 4 0 0,0 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,10-9-1 0 0,-16 14 4 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,-1 1 18 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-3-1 1 0 0,-6 0 69 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0 1 1 0 0,0 0 0 0 0,-19 4-1 0 0,25-4-77 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,-4 7 0 0 0,7-9-19 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,3 3 0 0 0,-1-2 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,4 1 0 0 0,1-1 9 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,11-7 1 0 0,-9 2 158 0 0,-17 5 85 0 0,4 4-244 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-5 1 0 0 0,-33 16-1049 0 0,-4 1-4126 0 0,-59 31-12438 0 0,65-29 13559 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="93151.4">5770 3872 356 0 0,'-5'-12'1410'0'0,"-4"-10"1059"0"0,-13-43-1 0 0,20 46-1478 0 0,1 5 294 0 0,0 24-273 0 0,1 0-759 0 0,-1-1-1 0 0,-1 1 1 0 0,-2 9 0 0 0,2-10-142 0 0,0 1 1 0 0,0 0-1 0 0,0 11 0 0 0,2-5-125 0 0,2 31 149 0 0,-2-45-249 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,4 1 1 0 0,-3-2-133 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2-3-1 0 0,11-7-1848 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:36:52.239"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">366 48 1276 0 0,'-22'-2'7728'0'0,"-12"-8"-3178"0"0,-6-2-47 0 0,-74-11 5114 0 0,216 37-7788 0 0,-18 1-1753 0 0,153 49 0 0 0,-219-57-48 0 0,0 0-1 0 0,28 17 1 0 0,-41-21-7 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 2 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,3 8-1 0 0,-5-9 3 0 0,0-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-5 4 0 0 0,-3 2 61 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,-20 10-1 0 0,-35 14 289 0 0,-1-3 0 0 0,-79 24 0 0 0,19-8-17 0 0,119-43-351 0 0,1 1-1 0 0,-1-1 0 0 0,1 2 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-11 8 0 0 0,15-11-8 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 4 0 0 0,1-3-2 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,2 1 0 0 0,13 10-35 0 0,0-1 0 0 0,1-1 0 0 0,1 0 1 0 0,0-2-1 0 0,22 9 0 0 0,16 8-51 0 0,-24-10 69 0 0,0 2 0 0 0,-1 1 0 0 0,37 30 0 0 0,-60-41 62 0 0,0-1-1 0 0,-1 1 0 0 0,1 1 0 0 0,-2 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,3 17 1 0 0,-6-21-37 0 0,-1-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0-1-1 0 0,0 1 0 0 0,-7 5 0 0 0,-3 2-1 0 0,1-1-1 0 0,-1 0 0 0 0,-1-1 0 0 0,0-1 1 0 0,-1 0-1 0 0,-19 8 0 0 0,-148 53-6344 0 0,151-60 3973 0 0,-1-2 0 0 0,0-1 1 0 0,-58 6-1 0 0,38-15-9029 0 0,24 2 7226 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink56.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:36:53.169"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">436 242 156 0 0,'16'-18'4586'0'0,"34"-29"-1"0"0,-28 28-2890 0 0,-1-5 2833 0 0,-16 18-1364 0 0,-16 16-1021 0 0,-96 93 2518 0 0,60-60-3937 0 0,2 2 0 0 0,-39 51 1 0 0,71-80-603 0 0,-1 3 57 0 0,-15 24 0 0 0,25-38-135 0 0,2 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 11 0 0 0,2-15-33 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-2 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,1 0 0 0 0,40 12 122 0 0,-42-13-133 0 0,163 24 53 0 0,-119-20-30 0 0,0 3-1 0 0,74 18 0 0 0,-92-16 140 0 0,-1 1 1 0 0,0 1-1 0 0,35 20 0 0 0,-51-25-27 0 0,1 1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 2-1 0 0,-1-1 1 0 0,0 2 0 0 0,-1-1-1 0 0,0 1 1 0 0,13 21 0 0 0,-16-22-26 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,2 14-1 0 0,-5-20-75 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,-5 5 1 0 0,-1 0-36 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-16 4 0 0 0,-92 19 0 0 0,116-28 0 0 0,-70 12 0 0 0,-1-3 0 0 0,0-3 0 0 0,0-4 0 0 0,-109-10 0 0 0,166 7-1340 0 0,1-1 1 0 0,0 0-1 0 0,0-2 0 0 0,0 1 0 0 0,-24-11 1 0 0,36 12 991 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,2-6 0 0 0,0 0-1561 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,6-9 1 0 0,9-11-1487 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="434.62">736 74 12 0 0,'-12'-15'4355'0'0,"8"10"-2858"0"0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-9-3 0 0 0,2 3 2219 0 0,19 8-771 0 0,18 7-1335 0 0,16-3-1481 0 0,1-2 0 0 0,-1-1 0 0 0,1-3 0 0 0,55-1 0 0 0,-44-1-107 0 0,32 0-224 0 0,342 6-5122 0 0,-467-1-16632 0 0,2-3 17943 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink57.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:36:54.644"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">213 106 2784 0 0,'-4'-14'2661'0'0,"0"1"0"0"0,-10-19 0 0 0,12 28-1880 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-8-4 0 0 0,10 7-634 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,-1 1 30 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-3 4-1 0 0,-1 2 126 0 0,0 1-1 0 0,1 0 0 0 0,-7 16 0 0 0,-1 9 392 0 0,2 1-1 0 0,1 0 1 0 0,-9 64-1 0 0,1 110 479 0 0,16-123-978 0 0,9 90-1 0 0,20 84-914 0 0,-4-55-2347 0 0,-16-157 1221 0 0,-4-32 461 0 0,-1 0-1 0 0,0 24 1 0 0,-2-33 341 0 0,-1-1 0 0 0,1 1-1 0 0,-2-1 1 0 0,1 1 0 0 0,-4 8 0 0 0,5-14 919 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1-1-103 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,3-18-2300 0 0,2-6 536 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="403.64">523 163 1712 0 0,'24'-20'2463'0'0,"0"0"-1"0"0,1 2 1 0 0,50-26-1 0 0,-59 36-1857 0 0,0 1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 1 0 0,1 1-1 0 0,-1 0 0 0 0,19 0 0 0 0,-20 3-40 0 0,-1 0 1 0 0,0 0-1 0 0,0 2 0 0 0,0-1 0 0 0,0 2 1 0 0,19 6-1 0 0,-29-8-392 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1 6 1 0 0,-1 0-89 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-2 1 1 0 0,1-1-1 0 0,-11 13 1 0 0,-8 8-53 0 0,-1 0 1 0 0,-56 50-1 0 0,9-18-39 0 0,-128 84-1 0 0,-93 30 420 0 0,182-113 29 0 0,110-63-429 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,1 1-1 0 0,5 4 91 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,16 8 0 0 0,-13-7-60 0 0,230 114 943 0 0,-60-33-228 0 0,-9 13-396 0 0,-135-76-652 0 0,-2 2 0 0 0,51 48 0 0 0,-73-62-372 0 0,0-2 0 0 0,16 12 0 0 0,-18-16-956 0 0,0 1 0 0 0,1-2 0 0 0,15 7 0 0 0,-17-8 266 0 0,1-1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,16-3 0 0 0,17-7-1860 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink58.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:36:55.672"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">280 237 1276 0 0,'-10'-206'13156'0'0,"10"203"-13005"0"0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-4 0 0 0,2 7-117 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,-9 13 1311 0 0,-5 13-354 0 0,2 2-1 0 0,0 0 1 0 0,-14 50 0 0 0,-13 93-600 0 0,36-150-432 0 0,2 0 1 0 0,0 0-1 0 0,2 0 0 0 0,0 0 1 0 0,1 0-1 0 0,1 0 1 0 0,1 0-1 0 0,1-1 0 0 0,8 24 1 0 0,-11-39-90 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-2 1 0 0,-1 1-1 0 0,9-4 0 0 0,6-3-159 0 0,-1 0-1 0 0,0-2 1 0 0,0 0-1 0 0,-1-1 1 0 0,0-1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,-1-1-1 0 0,15-18 1 0 0,4-10 325 0 0,-3-1 0 0 0,42-80 1 0 0,-53 82 172 0 0,-14 32-52 0 0,-1-1 1 0 0,1 1-1 0 0,1-1 0 0 0,11-15 0 0 0,-20 60 239 0 0,1 18-294 0 0,2 0-1 0 0,3 1 1 0 0,11 58-1 0 0,-4-29 166 0 0,21 159 1544 0 0,16 212 3188 0 0,-46-419-4666 0 0,-1 0 0 0 0,-2-1 1 0 0,-1 0-1 0 0,-2 1 1 0 0,-1-1-1 0 0,-1-1 0 0 0,-20 51 1 0 0,21-67-263 0 0,-2 0 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,-1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1-2-1 0 0,0 1 1 0 0,-1-2-1 0 0,0 1 1 0 0,-1-2-1 0 0,0 0 1 0 0,-1 0-1 0 0,0-2 1 0 0,-23 11-1 0 0,11-9-170 0 0,-1-1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0-2 0 0 0,0-1 1 0 0,-53 1-1 0 0,48-6-2464 0 0,-1-1 1 0 0,-66-12-1 0 0,92 12 1261 0 0,1 1 1 0 0,0-1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1-1 1 0 0,-12-9-1 0 0,7-3-2256 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink59.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:36:56.858"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">258 94 784 0 0,'33'-27'2492'0'0,"-18"16"271"0"0,-1-1 0 0 0,24-24-1 0 0,-34 30-1380 0 0,-5 5-529 0 0,-11 8-247 0 0,-19 17-383 0 0,-5 8 6 0 0,1 2 0 0 0,2 1-1 0 0,1 1 1 0 0,2 2 0 0 0,1 1 0 0 0,-30 56-1 0 0,47-71-219 0 0,0 1 0 0 0,-14 46 0 0 0,23-60-15 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,3 21 0 0 0,-2-29-8 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,6 1 0 0 0,2 0-43 0 0,1-1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,1-1-1 0 0,12-4 0 0 0,25-10 16 0 0,-1-1 0 0 0,0-3 0 0 0,-1-2 0 0 0,-2-2 0 0 0,0-2 0 0 0,49-37 0 0 0,240-211 1381 0 0,-315 256-1154 0 0,-1 1 315 0 0,0 2 0 0 0,28-18 0 0 0,-46 32-465 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 3 0 0 0,1 2 145 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 10-1 0 0,0-7-61 0 0,19 224 3107 0 0,79 354-1 0 0,-81-509-3111 0 0,31 147 93 0 0,-41-177-167 0 0,-3-1 0 0 0,-1 88 1 0 0,-5-121-29 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-8 15 0 0 0,10-24-6 0 0,-1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-2 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,0-2 1 0 0,1 1 0 0 0,-12 3 0 0 0,3-2-23 0 0,-1-2 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1-1-1 0 0,-21-3 1 0 0,-101-26-1630 0 0,110 23 903 0 0,-35-8-1878 0 0,17 5-3182 0 0,0-3 0 0 0,-67-27 0 0 0,80 25 2159 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:48:30.476"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9 259 1368 0 0,'-9'4'14774'0'0,"25"-21"-14067"0"0,-1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,20-36 1 0 0,6-9 354 0 0,-11 9-21 0 0,-23 35-35 0 0,-4 16-344 0 0,-4 14-427 0 0,-2 14 77 0 0,1-9-122 0 0,1 0 0 0 0,0 0 1 0 0,0 21-1 0 0,-3 54 281 0 0,6 103 63 0 0,3-157 5 0 0,-1-19-1423 0 0,-1 0-4498 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink60.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:36:56.182"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 13 36 0 0,'2'-2'631'0'0,"1"1"0"0"0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 1 0 0 0,-4 0-394 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4 5 0 0 0,1 1 156 0 0,-1 2 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,2 11 0 0 0,-1 20 1190 0 0,-1 62 0 0 0,-2-68-1010 0 0,10 432 2962 0 0,-19-261-3182 0 0,9-171-298 0 0,4-26-22 0 0,-3-11-32 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,68-120-21 0 0,53-98 103 0 0,-79 137 13 0 0,4 2 0 0 0,3 2 0 0 0,3 2 0 0 0,4 3 0 0 0,74-74 0 0 0,-26 51-1060 0 0,-98 90 174 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,5-8-1 0 0,-26 12-11475 0 0,-8 11 9348 0 0,-2 4-202 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="336.29">495 382 452 0 0,'-9'17'1077'0'0,"1"0"0"0"0,1 1-1 0 0,0 0 1 0 0,2 0 0 0 0,0 1 0 0 0,1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,2 0 0 0 0,0 0-1 0 0,1 0 1 0 0,4 28 0 0 0,1-19-247 0 0,2-1-1 0 0,1 0 1 0 0,1 0 0 0 0,1-1-1 0 0,1 0 1 0 0,2-1 0 0 0,0-1-1 0 0,2 0 1 0 0,1 0 0 0 0,0-2 0 0 0,26 27-1 0 0,-33-40-1074 0 0,0 0-1 0 0,0-1 0 0 0,1 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,13 3 0 0 0,-11-4-882 0 0,1 0 0 0 0,-1-1 1 0 0,1-1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,22-4 0 0 0,78-21-6075 0 0,-52 6 4322 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink61.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:36:57.710"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">206 434 500 0 0,'-33'-48'5619'0'0,"23"32"-2996"0"0,-1 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,-16-16-1 0 0,26 30-2456 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-2 0 1 0 0,2 1 4 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 1 0 0,0 1 16 0 0,-1 0 0 0 0,2 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-2 8 0 0 0,3-1-117 0 0,1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,11 21-1 0 0,-4-11-43 0 0,1-1 0 0 0,1 0 0 0 0,1 0 0 0 0,2-2 0 0 0,28 30 0 0 0,-32-38-12 0 0,0-1 0 0 0,1 0 0 0 0,0-1 1 0 0,0-1-1 0 0,1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-2 1 0 0,18 6-1 0 0,-11-6 2 0 0,0-1 1 0 0,1-1-1 0 0,-1-1 1 0 0,1-1-1 0 0,0-1 1 0 0,24-2-1 0 0,-4-3 7 0 0,-1-3 0 0 0,0-1-1 0 0,-1-2 1 0 0,0-2-1 0 0,0-2 1 0 0,72-35 0 0 0,-80 31-14 0 0,0-2 1 0 0,-1-2 0 0 0,-1 0-1 0 0,-1-3 1 0 0,-1 0 0 0 0,37-41-1 0 0,-11 2 170 0 0,86-130-1 0 0,-136 185-116 0 0,-3 5-17 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-7 0 0 0,-4 11-17 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-22 23 83 0 0,2 1 0 0 0,1 1 0 0 0,0 1 0 0 0,3 1 0 0 0,0 1 0 0 0,2 0 0 0 0,1 1 0 0 0,1 1 0 0 0,2 0 0 0 0,1 1 1 0 0,2 0-1 0 0,-7 47 0 0 0,14-71-105 0 0,2 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,3 12 0 0 0,-3-16-2 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-2 1 0 0,0 1 0 0 0,7 2 0 0 0,2-1 0 0 0,-1-1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1-1 0 0 0,0 0-1 0 0,-1-1 1 0 0,25-6-1 0 0,5-4-6 0 0,60-26 1 0 0,-19 0 16 0 0,0-4 0 0 0,-3-3 0 0 0,98-73 0 0 0,197-195-80 0 0,-165 125-12 0 0,-209 186 76 0 0,34-25-5 0 0,-33 26 10 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,5 0 0 0 0,-6 0 3 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 32 179 0 0,-24 178 321 0 0,23-176-565 0 0,2 0 1 0 0,1 0-1 0 0,12 68 1 0 0,-4-67-676 0 0,1 0 1 0 0,2-1-1 0 0,2-1 1 0 0,19 37-1 0 0,43 62-8328 0 0,-63-114 6917 0 0,1-2 0 0 0,0 0 1 0 0,2-1-1 0 0,0 0 0 0 0,0-1 1 0 0,20 14-1 0 0,9 6-1368 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink62.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:36:58.221"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 315 2900 0 0,'8'-5'1983'0'0,"0"1"1"0"0,0 0-1 0 0,1 1 0 0 0,13-5 0 0 0,-15 7-1149 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,7 2-1 0 0,-5 1-460 0 0,-1-1 1 0 0,0 1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 1 0 0,0 1-1 0 0,8 7 0 0 0,-4-2-13 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,3 24 0 0 0,1 16 130 0 0,-2 1-1 0 0,0 66 1 0 0,-7-102-389 0 0,4 57 183 0 0,0-10 144 0 0,-8 100 0 0 0,-6 33 642 0 0,10-197-1062 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,7-1 68 0 0,-1-1 0 0 0,0-1-1 0 0,1 1 1 0 0,5-5 0 0 0,-10 6-73 0 0,72-46-15 0 0,104-88 0 0 0,58-75-113 0 0,39-31-255 0 0,-207 184-1957 0 0,-28 16-4170 0 0,-40 42 6215 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,0-1-1 0 0,0 1-245 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,-2 0 0 0 0,-15 2-2748 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="384.62">965 756 2724 0 0,'-10'17'1930'0'0,"-32"58"6587"0"0,38-66-7745 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 14-1 0 0,2-1 255 0 0,1 0 0 0 0,0 0 0 0 0,2 0 0 0 0,1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,13 39-1 0 0,-13-48-993 0 0,0-1-1 0 0,2 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1-1 1 0 0,0 1-1 0 0,13 6 0 0 0,-3-4-1547 0 0,1 0 0 0 0,25 8-1 0 0,-21-11-1054 0 0,1-1 0 0 0,0-1 1 0 0,0-2-1 0 0,0 0 0 0 0,0-2 0 0 0,38-2 0 0 0,3-2-862 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="385.62">4080 102 364 0 0,'21'-8'2146'0'0,"-1"-1"0"0"0,0-1 0 0 0,22-14-1 0 0,-18 10 3062 0 0,33-15 0 0 0,-54 27-4848 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,6 2-1 0 0,-7-2-273 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1 4-1 0 0,-1 3 40 0 0,1 1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,-3 22 0 0 0,-22 65 529 0 0,19-75-507 0 0,-127 442 1183 0 0,34-79-1268 0 0,73-286-245 0 0,11-35-1397 0 0,-31 76 1 0 0,44-133 702 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-6 7 0 0 0,10-13 522 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-3 0-1 0 0,3-1 101 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,-3-6-1450 0 0,0-1 0 0 0,1 1 0 0 0,-5-18 1 0 0,2-8-601 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="724.89">3929 456 1200 0 0,'2'-20'1078'0'0,"7"-64"3692"0"0,-7 77-4080 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,6-7 0 0 0,-6 10-416 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,6 2-1 0 0,7 3 622 0 0,1 1-1 0 0,-1 1 1 0 0,-1 0 0 0 0,17 11-1 0 0,0 3-379 0 0,0 2-1 0 0,-2 0 0 0 0,-1 3 0 0 0,-1 0 0 0 0,-1 2 0 0 0,-2 1 1 0 0,0 1-1 0 0,30 51 0 0 0,-16-15-742 0 0,-3 1 1 0 0,-3 2-1 0 0,34 105 0 0 0,-57-142-1034 0 0,-2 0 0 0 0,-1 0-1 0 0,-2 1 1 0 0,2 35-1 0 0,-6-28-5471 0 0,-5 54-1 0 0,-1-64 2461 0 0,-1-6 742 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1106.43">4065 924 2164 0 0,'-1'-2'319'0'0,"0"1"-1"0"0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,2 0 0 0 0,10-4 357 0 0,1 2-1 0 0,-1-1 0 0 0,1 2 1 0 0,0 0-1 0 0,0 0 0 0 0,20 2 1 0 0,-4-1 94 0 0,304 6 3347 0 0,-2 26-6205 0 0,-199-14-1859 0 0,133 10-8521 0 0,-179-23 8574 0 0,-11 2 929 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink63.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:02.224"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">72 132 4 0 0,'-9'2'1823'0'0,"1"-1"1"0"0,0 1-1 0 0,-1-2 0 0 0,1 1 1 0 0,-11-1-1 0 0,9 0 2279 0 0,12-1-3888 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2-3 0 0 0,11-7 230 0 0,32-11 495 0 0,1 3 0 0 0,1 2 0 0 0,80-18 0 0 0,-88 27-321 0 0,1 2 0 0 0,67 0-1 0 0,-109 6-607 0 0,19 0 301 0 0,33 4 0 0 0,-47-4-250 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,6 6-1 0 0,-9-6-28 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-2 1 0 0 0,-3 7 123 0 0,-1 0-1 0 0,0-1 1 0 0,-13 12 0 0 0,14-14-82 0 0,-30 29 432 0 0,-80 61 0 0 0,-51 18 287 0 0,138-96-632 0 0,-42 29 220 0 0,72-48-376 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,29 1 131 0 0,-24-1-116 0 0,113-2 240 0 0,-45-1 7 0 0,139 14-1 0 0,-187-8-181 0 0,0 1 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 1 0 0 0,-1 2 0 0 0,0 0 0 0 0,25 14 0 0 0,-43-21-48 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 7-1 0 0,-1-4 28 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-5 8 0 0 0,-12 10-9 0 0,-1-1-1 0 0,-1-1 1 0 0,0-1 0 0 0,-2-1-1 0 0,0-2 1 0 0,-1 0-1 0 0,0-1 1 0 0,-2-2-1 0 0,0-1 1 0 0,0-1-1 0 0,-51 14 1 0 0,-76 10-54 0 0,135-35 0 0 0,15-2 0 0 0,4-1 0 0 0,-3 2-191 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink64.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:03.457"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">127 105 288 0 0,'-16'-4'3051'0'0,"0"1"0"0"0,-21-2 0 0 0,-8-1 3241 0 0,45 6-6029 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-2 0 0 0,2 2-77 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,44-16-112 0 0,-41 15 460 0 0,36-10-101 0 0,1 1 0 0 0,52-7-1 0 0,-60 14-251 0 0,1 1-1 0 0,-1 2 0 0 0,1 1 1 0 0,0 1-1 0 0,62 12 0 0 0,-88-11-127 0 0,0 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 1 1 0 0,13 10-1 0 0,-18-13-18 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,-1 6 0 0 0,-2 3 53 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1-1 0 0,-11 13 1 0 0,-13 10 292 0 0,-35 29-1 0 0,53-50-360 0 0,-238 198-17 0 0,238-199 0 0 0,1 1 0 0 0,0 0 0 0 0,-17 23 0 0 0,26-30 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,2 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 11 0 0 0,2-15 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,2 1 0 0 0,6 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,13-1 0 0 0,85-13 0 0 0,0-4 0 0 0,149-47 0 0 0,-253 64-474 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,5 4 1 0 0,-6-4-465 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,1 1-1 0 0,39-1-6838 0 0,-36-1 6464 0 0,18-1-1655 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink65.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:04.402"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">397 83 612 0 0,'-141'5'7017'0'0,"-53"7"2480"0"0,164-14-4073 0 0,37-2-3810 0 0,24-9-10 0 0,50-13-1 0 0,-27 12-778 0 0,73-7 0 0 0,-111 19-713 0 0,179-15 926 0 0,-169 17-888 0 0,-1 0 1 0 0,1 2-1 0 0,-1 1 1 0 0,1 1-1 0 0,39 12 1 0 0,-62-15-122 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,2 5 0 0 0,-3-5 5 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 2 1 0 0,-4 7 6 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,-16 16 1 0 0,-63 53 194 0 0,61-58-220 0 0,-115 95-17 0 0,-116 108 0 0 0,244-212 0 0 0,-89 95 0 0 0,88-91 0 0 0,1 0 0 0 0,1 0 0 0 0,1 2 0 0 0,-17 35 0 0 0,26-52 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,4 3 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,12 0 0 0 0,33 3 0 0 0,0-2 0 0 0,63-6 0 0 0,105-18 0 0 0,-146 13 0 0 0,132-18-2166 0 0,63-6-3850 0 0,-73 5-13005 0 0,-165 22 17104 0 0,34-4-1214 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink66.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:05.416"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">100 46 1136 0 0,'-18'3'4401'0'0,"0"-1"1"0"0,-35-1-1 0 0,43-4 3304 0 0,20-3-5945 0 0,16-6-500 0 0,4 4-303 0 0,1 2-1 0 0,55-5 1 0 0,66 6 155 0 0,4 12-287 0 0,-131-4-685 0 0,0 1 0 0 0,0 1 0 0 0,0 2 0 0 0,27 10 0 0 0,-46-15-84 0 0,0 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,8 9 1 0 0,-12-11-21 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-3 5-1 0 0,-2 4 16 0 0,-2-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1-1 1 0 0,-14 14 0 0 0,-58 44 282 0 0,30-27-246 0 0,-2 4-86 0 0,5-6 0 0 0,1 3 0 0 0,2 1 0 0 0,-46 58 0 0 0,89-97 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-2 4 0 0 0,2-7 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,2 1 0 0 0,8 4 0 0 0,0-1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,15 3 0 0 0,69 4 0 0 0,-80-9 0 0 0,566-3 0 0 0,-332-6-3266 0 0,-225 10-6130 0 0,-64 1-9837 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink67.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:08.143"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">70 154 240 0 0,'-6'-1'1640'0'0,"1"0"0"0"0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-7-3 0 0 0,-13-8 6982 0 0,31 3-3187 0 0,8 1-3459 0 0,23-4-2307 0 0,-24 8 1006 0 0,42-15-259 0 0,1 3-1 0 0,1 1 1 0 0,1 4-1 0 0,0 1 1 0 0,66-2-1 0 0,-102 13-186 0 0,33 2-1 0 0,-49-1-156 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,11 7 1 0 0,-15-8-60 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 4 1 0 0,-1-1 27 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-2 4 0 0 0,-2 3 54 0 0,0-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,-13 16 0 0 0,-24 23-94 0 0,-64 53 0 0 0,-15 16 0 0 0,121-116 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 3 0 0 0,-1-3 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,3 2 0 0 0,182 61 0 0 0,-123-44 0 0 0,85 37 0 0 0,-133-49 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 2 0 0 0,18 13 0 0 0,-30-21 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 5 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-8 10 0 0 0,3-6 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-12 7 0 0 0,-10 2 0 0 0,0-1 0 0 0,-1-2 0 0 0,-51 16 0 0 0,-11-7 86 0 0,15-5-521 0 0,81-19 96 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,1 0-212 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,24-4-3949 0 0,8-1 1282 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink68.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:09.468"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">129 55 68 0 0,'-12'2'2176'0'0,"0"0"0"0"0,1-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,-15-2 0 0 0,-7 1 4213 0 0,25-2-276 0 0,21-4-3352 0 0,21-4-1960 0 0,11 0-628 0 0,1 2-1 0 0,1 2 1 0 0,0 2-1 0 0,0 1 1 0 0,0 3-1 0 0,79 8 1 0 0,-114-5-130 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1 1 1 0 0,-2 0 0 0 0,20 10-1 0 0,-27-13-20 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,-1 5 0 0 0,-3 3 63 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,-9 10 0 0 0,-53 51 359 0 0,44-46-302 0 0,-55 47-61 0 0,45-42-61 0 0,-53 59 0 0 0,86-88-21 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,2-3 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 0 0 0 0,26 8 0 0 0,49 5 0 0 0,15 3 0 0 0,94 38 0 0 0,-160-44 0 0 0,1 1 0 0 0,-2 2 0 0 0,0 0 0 0 0,39 27 0 0 0,-58-34 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,9 14 0 0 0,-13-18 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-2 6 0 0 0,-2 2 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-1-1 0 0 0,-12 9 0 0 0,-6 1 0 0 0,-1-1 0 0 0,-1-2 0 0 0,0-1 0 0 0,-1-1 0 0 0,-1-1 0 0 0,0-2 0 0 0,0-1 0 0 0,-39 6 0 0 0,64-15 0 0 0,-25 4 0 0 0,1 1 0 0 0,-1 2 0 0 0,-46 17 0 0 0,77-24-127 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-187 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,1 2-611 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,4 1 0 0 0,42 7-7593 0 0,-24-8 5885 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink69.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:12.209"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">17 226 336 0 0,'27'-11'7028'0'0,"-4"1"-4783"0"0,11-2 3949 0 0,-25 3-1120 0 0,-9 9-4814 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,2 0-1 0 0,-2 0-212 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,15-9 1315 0 0,-7 5-851 0 0,-7 3-407 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-2 0 0 0,19-10 915 0 0,-13 9-602 0 0,-7 0-408 0 0,-1 5-11 0 0,-1 2 2 0 0,-1-4 0 0 0,0 0 0 0 0,-1 3 0 0 0,-2 2 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-4 7 0 0 0,-6 7 0 0 0,-27 39 0 0 0,-81 84 0 0 0,108-122 0 0 0,12-19 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 0 0 0 0,131-8 0 0 0,1 5 0 0 0,268 29 0 0 0,-362-18 0 0 0,0 2 0 0 0,57 18 0 0 0,-86-22 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-2 0 0 0 0,1 0 0 0 0,18 20 0 0 0,-28-26 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-2-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-5 9 0 0 0,-1-2 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-23 14 0 0 0,-12 1 0 0 0,-1-1 0 0 0,-1-3 0 0 0,-1-2 0 0 0,-63 14 0 0 0,16-11 0 0 0,-131 9 0 0 0,-19-22 0 0 0,220-7 0 0 0,26 0-47 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,8-12-5165 0 0,20-16-5465 0 0,-26 27 10113 0 0,41-36-8771 0 0,-19 15 5845 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="732.19">411 148 216 0 0,'-20'-17'6023'0'0,"-5"4"14783"0"0,21 4-15084 0 0,3 6-5722 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-15-12 0 0 0,-1 11 0 0 0,12 4 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-5-5 0 0 0,38 1 0 0 0,227-12 0 0 0,-97 10 0 0 0,411-23 0 0 0,-522 29 42 0 0,-5-1-198 0 0,1 2 0 0 0,-1 1 0 0 0,57 10 1 0 0,-77-4-1707 0 0,-3 6-4170 0 0,-20-13 5615 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-210 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-2 1 0 0 0,-20 13-3524 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:48:31.915"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6 290 1012 0 0,'-6'-7'14848'0'0,"9"-2"-10643"0"0,6-16-3280 0 0,-5 14-448 0 0,67-115 440 0 0,-43 70-428 0 0,-25 51-148 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-2 0 1 0 0,1 0-1 0 0,1-9 1 0 0,-14 34-165 0 0,4-6-149 0 0,1 2 0 0 0,-7 23-1 0 0,3-7-9 0 0,4-8 30 0 0,0 0 0 0 0,2 0 0 0 0,-2 29 0 0 0,3-27 9 0 0,3-13-20 0 0,-1 0 1 0 0,2 0-1 0 0,2 15 1 0 0,0 17 104 0 0,6 63 399 0 0,-6-83-305 0 0,-3-20-168 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-3 7 1 0 0,4-6-1387 0 0,-32 15-25188 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink70.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:21.459"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">86 110 220 0 0,'0'-1'213'0'0,"0"1"0"0"0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,-24 2 20711 0 0,27-5-20689 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,4-1 1 0 0,11-6-59 0 0,0 1-1 0 0,1 1 1 0 0,39-11-1 0 0,61-7 304 0 0,-104 24-405 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 2 0 0 0,20 2 0 0 0,-29-2-45 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,5 6 0 0 0,-4-4 9 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-2 8 0 0 0,-3 12-38 0 0,-2 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-2 0 0 0 0,0 0 0 0 0,-2-1 0 0 0,0 0 0 0 0,-2-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-23 22 0 0 0,-81 90 0 0 0,-74 86 0 0 0,174-187 0 0 0,16-26 0 0 0,0 1 0 0 0,-1-1 0 0 0,-7 10 0 0 0,12-17 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,11 2 0 0 0,20-6 0 0 0,-24 3 0 0 0,80-10 0 0 0,43-4 0 0 0,-2 7 0 0 0,-19 0 0 0 0,190 11 0 0 0,-237-2 0 0 0,-58-1 0 0 0,-4 2 0 0 0,-7 1-4078 0 0,-30-2-23911 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink71.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:25.205"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">235 34 680 0 0,'0'-1'159'0'0,"10"-31"27817"0"0,-10 42-26944 0 0,-2 8-681 0 0,0 0 1 0 0,-1-1-1 0 0,-1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-12 25 0 0 0,-1 5 14 0 0,-82 207-268 0 0,74-186-97 0 0,-17 50 0 0 0,36-100 0 0 0,6-15 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 7 0 0 0,-4 15 0 0 0,7-25 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,3-1 0 0 0,29-4-483 0 0,0-2 1 0 0,49-17-1 0 0,66-31-2171 0 0,-61 21 1524 0 0,-76 29 609 0 0,20-6-1293 0 0,-1-1 1 0 0,-1-1-1 0 0,50-31 0 0 0,-75 40 1767 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,-1 1-1 0 0,5-10 0 0 0,2-27 1990 0 0,-6-2 4816 0 0,-4 44-6667 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 2-1 0 0,-8 22 806 0 0,6-18-533 0 0,-6 21-275 0 0,0-1 0 0 0,2 1 1 0 0,-3 31-1 0 0,-4 87 121 0 0,10-94-192 0 0,-1-3-19 0 0,-3 69 0 0 0,2 103-196 0 0,6-222-1074 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,5-2-1 0 0,8-8-2127 0 0,4-6-320 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink72.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:31.177"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 128 1620 0 0,'2'-11'17882'0'0,"6"10"-14627"0"0,17-17 1321 0 0,-2 5-4208 0 0,1 2 0 0 0,1 1 1 0 0,0 1-1 0 0,0 1 0 0 0,44-7 1 0 0,140-14 357 0 0,-180 27-596 0 0,-1 2 0 0 0,1 0-1 0 0,-1 3 1 0 0,0 0 0 0 0,39 10 0 0 0,-64-13-107 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,-2 5 1 0 0,-2 8 115 0 0,-1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-12 17 0 0 0,-18 22-139 0 0,-2-1 0 0 0,-89 93 0 0 0,73-86 0 0 0,1 1 0 0 0,2 2 0 0 0,-44 74 0 0 0,87-123 0 0 0,0 1 0 0 0,1 0 0 0 0,-9 29 0 0 0,15-43 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 2 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,4 0 0 0 0,3 0 0 0 0,1 1 0 0 0,0-2 0 0 0,10 1 0 0 0,-16-1 0 0 0,386 0 0 0 0,-236-4-658 0 0,86 2-2622 0 0,-104 11-21624 0 0,-111-9 21631 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink73.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:32.641"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 75 1304 0 0,'24'-40'7763'0'0,"-19"32"-6509"0"0,2-18 15842 0 0,-7 29-15281 0 0,-1-4-1941 0 0,1 4 372 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 5 1 0 0,0 3 129 0 0,0 3 114 0 0,-6 32 0 0 0,1-4-179 0 0,0-9-270 0 0,1 15-47 0 0,0 10 7 0 0,2-46 0 0 0,2 1 0 0 0,0 0 0 0 0,2 22 0 0 0,0-18 0 0 0,1 0 0 0 0,6 32 0 0 0,-7-45 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,6 5 0 0 0,-5-5 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,12 2 0 0 0,-7-3 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,16-2 0 0 0,-1-2 0 0 0,1-2 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1-2 0 0 0,42-18 0 0 0,-47 19 0 0 0,3-3 0 0 0,-1-1 0 0 0,0 0 0 0 0,36-27 0 0 0,56-55 0 0 0,-79 64 0 0 0,-19 13 0 0 0,6-3 0 0 0,-22 55 0 0 0,-11 282 0 0 0,9-265 0 0 0,1-27 0 0 0,-4 35 0 0 0,-7 81 0 0 0,6-123 0 0 0,1 10 0 0 0,-1 4-7602 0 0,5-31 7225 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-2 1 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink74.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:33.770"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">51 42 216 0 0,'-3'-2'1195'0'0,"-1"0"-1"0"0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,-5 0 4386 0 0,19-4-3502 0 0,42-5-1132 0 0,1 2 0 0 0,-1 3-1 0 0,1 2 1 0 0,82 7-1 0 0,-119-4-763 0 0,0 2 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,20 9-1 0 0,-30-11-127 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,2 8 0 0 0,-4-10-17 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-4 6 0 0 0,-26 34 292 0 0,9-19-24 0 0,-43 37 1 0 0,7-9 16 0 0,50-44-289 0 0,-7 7-15 0 0,15-14-18 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,118 28 163 0 0,21 7 49 0 0,-122-30-100 0 0,-1 2 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1 1 1 0 0,15 12 0 0 0,-23-16-65 0 0,-1 0 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-2 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,4 11 1 0 0,-7-15-50 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-2 4 0 0 0,-10 5 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,-23 10 0 0 0,34-16 0 0 0,-22 9-519 0 0,-1-2 0 0 0,0 0 0 0 0,-38 6 0 0 0,-90 9-3874 0 0,42-8 1320 0 0,107-16 532 0 0,36-17-17823 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink75.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:34.923"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">114 27 1440 0 0,'-27'-1'5155'0'0,"1"0"0"0"0,-34-9 5757 0 0,73 6-9357 0 0,17-1-966 0 0,24 1 26 0 0,-1 3 1 0 0,0 2-1 0 0,0 2 1 0 0,1 2 0 0 0,-2 3-1 0 0,68 19 1 0 0,-113-25-557 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,5 6 0 0 0,-9-8-22 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,-2 5 0 0 0,-3 10 108 0 0,-2 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,-21 30 1 0 0,-55 60 329 0 0,36-49-169 0 0,18-19-208 0 0,2-5 76 0 0,1 1 0 0 0,-38 67 0 0 0,63-97-173 0 0,-1 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 12 0 0 0,1-17 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,4 0 0 0 0,5 2 0 0 0,1-1 0 0 0,18 2 0 0 0,-30-4 0 0 0,108 4 0 0 0,120-11 0 0 0,-81 1 0 0 0,-81 4-1521 0 0,182-2-17448 0 0,-143 6 13513 0 0,-64-1 1447 0 0,-1-1 1317 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink76.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:36.624"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">496 25 868 0 0,'-1'-1'466'0'0,"1"1"0"0"0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-2 2277 0 0,-10 8 3531 0 0,5 0-5965 0 0,0 3 310 0 0,-1 0 1 0 0,0-1-1 0 0,-13 13 1 0 0,-6 8 310 0 0,-56 76 1443 0 0,-113 187 1 0 0,178-261-2203 0 0,-55 105 476 0 0,61-113-557 0 0,1 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-5 31 1 0 0,11-52-84 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,8 1 5 0 0,-1-2 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,18-6 1 0 0,23-7-178 0 0,-1-3 1 0 0,56-26 0 0 0,92-57-807 0 0,-56 26 583 0 0,-42 19 930 0 0,-131 98 1658 0 0,6-10-2155 0 0,0 1 1 0 0,2 2-1 0 0,-27 56 1 0 0,-39 124-27 0 0,75-171-20 0 0,2 0 0 0 0,-11 81 0 0 0,21-112 2 0 0,1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,5 25 0 0 0,-5-35-5 0 0,1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,6 4-1 0 0,22 13-4649 0 0,-24-19 1543 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,8 3 1 0 0,-5-3-1878 0 0,-4 3 1402 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink77.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:38.943"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">90 38 312 0 0,'-15'0'2998'0'0,"1"-1"-1"0"0,-1 0 1 0 0,0-1-1 0 0,-16-6 3723 0 0,36 6-5562 0 0,6 0-406 0 0,150-10 3969 0 0,81 4-4492 0 0,-207 7-714 0 0,37 0-1461 0 0,-66 2 1320 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,9 5-1 0 0,-13-7 463 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-2 1 1 0 0,-29 21-5037 0 0,29-21 4987 0 0,-27 19-2549 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="341.96">225 257 340 0 0,'-31'15'1952'0'0,"16"-8"-154"0"0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 1 0 0 0,-17 14 1 0 0,30-23-1720 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,25 9 2167 0 0,15-6 214 0 0,65-2 0 0 0,45-11-2222 0 0,-46 2-2500 0 0,-39 2-2392 0 0,46 0-6777 0 0,-80 6 7620 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink78.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:38.139"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">74 48 868 0 0,'-12'-1'3181'0'0,"1"-1"0"0"0,-1 0-1 0 0,-12-5 1 0 0,10 4 3709 0 0,129-5-1671 0 0,-95 6-4841 0 0,23-2-169 0 0,181-14 307 0 0,-75 17-3905 0 0,-140 2 2538 0 0,22 1-1357 0 0,-29-2 1916 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 63 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,-1 0 0 0 0,-1 2-294 0 0,-24 12-2807 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="344.39">209 234 364 0 0,'-21'14'2909'0'0,"15"-11"-975"0"0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-9 9-1 0 0,13-13-1843 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,19 7 1047 0 0,36 5 1210 0 0,71 7 1 0 0,24 4-4239 0 0,-123-17 845 0 0,91 22-6496 0 0,-97-21 5293 0 0,0 0 1 0 0,-1 1 0 0 0,25 14-1 0 0,-9 2-564 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink79.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:46.968"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">306 168 520 0 0,'-15'3'1382'0'0,"-1"0"0"0"0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,-21-3 0 0 0,36 3-1266 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1-1 0 0 0,1 1 19 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,1-2-1 0 0,2-4 252 0 0,2 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,7-6 1 0 0,-3 5-82 0 0,1-1 0 0 0,1 1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 2 0 0 0,-1-1 0 0 0,25-5 1 0 0,-2 2 380 0 0,1 2 0 0 0,41-4 0 0 0,-42 8-385 0 0,1 1 1 0 0,-1 2-1 0 0,1 1 1 0 0,-1 1-1 0 0,1 3 0 0 0,54 13 1 0 0,-84-16-232 0 0,-1-1 0 0 0,1 2 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 2 1 0 0,8 5-1 0 0,-12-8-41 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 2-1 0 0,-10 14 203 0 0,-1 0-1 0 0,0-2 0 0 0,-1 1 1 0 0,-1-2-1 0 0,-1 0 0 0 0,-19 13 1 0 0,-162 119 985 0 0,-85 71-191 0 0,160-101-553 0 0,104-95-342 0 0,0 0-1 0 0,2 1 1 0 0,1 1-1 0 0,-15 28 1 0 0,26-44-87 0 0,1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,3 12 1 0 0,-2-15-24 0 0,0 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,8 2 0 0 0,4 0-83 0 0,1 0-1 0 0,-1-1 1 0 0,1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-2 0 0 0,0 1 0 0 0,17-4 0 0 0,18-5-1802 0 0,60-18-1 0 0,-35 3-5591 0 0,-2-3 0 0 0,105-54 0 0 0,-125 54 4198 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="355.66">1501 465 912 0 0,'5'-5'969'0'0,"0"1"-1"0"0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,4-10 1 0 0,-7 16-897 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-15 0 1287 0 0,-22 12 369 0 0,36-11-1571 0 0,-14 7 296 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,1 1-1 0 0,0 0 0 0 0,1 1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 1 0 0,-14 21-1 0 0,12-15-296 0 0,2 2 0 0 0,0 0 0 0 0,1 0 1 0 0,1 1-1 0 0,1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-6 25 0 0 0,11-34-144 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-2 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,0 1 0 0 0,0-1-1 0 0,16 3 1 0 0,3 0 34 0 0,0-2 0 0 0,0-2 0 0 0,1-1 0 0 0,0-1 0 0 0,0-2 0 0 0,-1-1 0 0 0,1-1 0 0 0,0-2 0 0 0,-1-1 0 0 0,0-1 0 0 0,59-21 0 0 0,-52 12 98 0 0,0 0-1 0 0,-2-3 0 0 0,0-1 1 0 0,0-1-1 0 0,-2-2 1 0 0,-1-2-1 0 0,-1-1 1 0 0,55-55-1 0 0,-60 50 68 0 0,-1-1 0 0 0,38-61-1 0 0,-52 73-18 0 0,-2 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,-2-1 0 0 0,0 0-1 0 0,7-34 1 0 0,-12 46-86 0 0,-1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-2 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-8-12 0 0 0,6 14-70 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-14-3 0 0 0,0 3-121 0 0,-1 0-1 0 0,0 1 1 0 0,1 1-1 0 0,-1 2 0 0 0,0 0 1 0 0,0 1-1 0 0,1 1 1 0 0,-1 1-1 0 0,1 2 1 0 0,-38 13-1 0 0,11 0-1516 0 0,2 3 0 0 0,0 1-1 0 0,-72 49 1 0 0,26-6-7608 0 0,-160 149 0 0 0,169-135 5990 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:49:27.107"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">613 159 292 0 0,'3'4'14685'0'0,"3"3"-14488"0"0,-3-5 364 0 0,-2-1-433 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 2 0 0 0,0 38 961 0 0,-1-31-1180 0 0,6-24 1003 0 0,-1 0 0 0 0,0 0-1 0 0,6-26 1 0 0,-10-25 1935 0 0,-14 173-2705 0 0,13-70-157 0 0,-1-5 6 0 0,2-1-1 0 0,5 37 0 0 0,-5-58-66 0 0,2 4 501 0 0,-2-16-150 0 0,1-11-67 0 0,23-96 112 0 0,-18 52-299 0 0,2-4-23 0 0,0-65 0 0 0,-18 292 54 0 0,2-93 65 0 0,14-114 204 0 0,-6-13-270 0 0,1 34-45 0 0,-2-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,-2 0-1 0 0,-5-19 1 0 0,6 31-5 0 0,-3-6-32 0 0,5 13 29 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-7 18-564 0 0,1 0 1 0 0,1-1 0 0 0,0 2-1 0 0,2-1 1 0 0,-3 32-1 0 0,-6 27-7005 0 0,7-54 3372 0 0,-1-1 0 0 0,-17 39 0 0 0,8-26 1137 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2749.89">97 33 224 0 0,'-6'13'8733'0'0,"0"30"-7692"0"0,2-18-417 0 0,-37 170 363 0 0,38-175-270 0 0,2-17 538 0 0,2-13-366 0 0,15-69-156 0 0,-7 41-686 0 0,5-54-1 0 0,-5-10 1499 0 0,-25 151-1020 0 0,2 40-440 0 0,10-56-65 0 0,4-3 1261 0 0,0-30-1196 0 0,0 0-42 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 87 0 0,0 0-87 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,4-18 1526 0 0,0-4-1431 0 0,-2 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-2 0 0 0 0,-5-24 1 0 0,7 45-136 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-8 12 26 0 0,-4 16-18 0 0,4 2 93 0 0,1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,0 55 0 0 0,6-90 44 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-6 1 0 0,4-20-67 0 0,1-21-26 0 0,-6 35-57 0 0,0 1 1 0 0,1-24-1 0 0,-4 39-2 0 0,0 16 11 0 0,0 9 10 0 0,2 0 0 0 0,1 0 0 0 0,1 0 0 0 0,12 43 0 0 0,-16-67-5 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,6-6 216 0 0,2-20-7 0 0,-6 20-190 0 0,3-11 25 0 0,-2-1-1 0 0,1 1 0 0 0,-2-1 1 0 0,0 0-1 0 0,-2-26 0 0 0,0 43-47 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-2-1 0 0 0,2 2-5 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 1-1 0 0,-17 34 16 0 0,14-25-3 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 19-1 0 0,1-62-410 0 0,-2 17-2425 0 0,-5 5-6246 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink80.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:37:56.972"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">76 157 532 0 0,'-13'1'7743'0'0,"-4"-5"-4114"0"0,-11-8 1203 0 0,22 9-2991 0 0,6 3-1633 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0-1 0 0 0,34-4 1747 0 0,12 0-1545 0 0,1 3 0 0 0,0 2 0 0 0,0 2 0 0 0,-1 2 0 0 0,66 12 1 0 0,-107-14-365 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,5 6 1 0 0,-9-8-18 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 2 0 0 0,-23 32 315 0 0,-2-2-1 0 0,-1-1 1 0 0,-43 35-1 0 0,0 3 129 0 0,48-46-406 0 0,-55 59 208 0 0,69-71-244 0 0,1 0 0 0 0,1 1 0 0 0,0 0-1 0 0,-13 28 1 0 0,20-39-31 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,4 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,14 5 0 0 0,28 9 7 0 0,2-1 0 0 0,0-3 0 0 0,0-3 1 0 0,70 9-1 0 0,-55-14-94 0 0,-1-3 0 0 0,1-3 1 0 0,74-9-1 0 0,-118 5-1482 0 0,1 0-1 0 0,-1-2 0 0 0,0-1 0 0 0,25-10 1 0 0,-32 10-1176 0 0,0-2 0 0 0,0 1 0 0 0,-1-2 0 0 0,0 0 0 0 0,-1-1 0 0 0,18-15 0 0 0,-12 7-668 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="346.22">1701 94 868 0 0,'-5'-47'8839'0'0,"0"1"5422"0"0,5 53-11457 0 0,-1 12-1632 0 0,-1 0-1 0 0,-1 0 0 0 0,-6 21 1 0 0,4-17-562 0 0,-4 39 1 0 0,4-9-504 0 0,-1 29-126 0 0,5-3 19 0 0,1 61 0 0 0,6-25-623 0 0,24 126 1 0 0,-18-162-2437 0 0,-6 2-3473 0 0,-6-62 3882 0 0,0-1 0 0 0,-2 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,-11 29-1 0 0,0-15-324 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink81.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:38:11.961"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">705 0 1444 0 0,'-22'16'2396'0'0,"-40"19"0"0"0,-74 24-177 0 0,96-43-1909 0 0,-56 20 3265 0 0,-197 44-1 0 0,285-78-3343 0 0,-39 5 906 0 0,46-8-933 0 0,8-1-119 0 0,14-3-20 0 0,517-61 247 0 0,1159-3-55 0 0,-1502 75 60 0 0,-188-4-146 0 0,-14 2-55 0 0,-18 2-3 0 0,-243 21 40 0 0,186-21-134 0 0,-546 26 722 0 0,374-22-173 0 0,-428-1 1460 0 0,664-10-1969 0 0,5 1-22 0 0,0 0 1 0 0,0-1 0 0 0,1-1 0 0 0,-14-3 0 0 0,26 5-38 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,6-3 11 0 0,56-5 8 0 0,119-2-1 0 0,-85 7-26 0 0,854-51 5 0 0,-764 43 35 0 0,-171 9-31 0 0,-26 2-6 0 0,-34 2-13 0 0,-841 101 35 0 0,288-30-566 0 0,566-69 255 0 0,9-3-645 0 0,-1 2-1 0 0,1 0 1 0 0,0 2 0 0 0,-38 12-1 0 0,75-15-5406 0 0,69-10-469 0 0,-22 2 4014 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink82.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-20T17:38:12.735"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">471 16 24 0 0,'-197'0'8732'0'0,"334"0"-7745"0"0,398 6 638 0 0,-434-2-1477 0 0,741 37 3283 0 0,-837-40-3388 0 0,37 2 671 0 0,-33 0-303 0 0,-25-1-162 0 0,-223 0-22 0 0,123-4-202 0 0,-1238-27 3460 0 0,1306 27-3326 0 0,14 1-22 0 0,1-1 0 0 0,-63-12 0 0 0,95 14-136 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,11-5 13 0 0,19 0 0 0 0,388-8-9 0 0,-287 14-29 0 0,466 11-22 0 0,-474-8 72 0 0,-97-4-23 0 0,-14 0-1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 1 0 0,13 3-1 0 0,-48 1-15 0 0,-498 24 171 0 0,224-18 468 0 0,233-9-365 0 0,32-2-16 0 0,0 2-1 0 0,-45 8 0 0 0,68-7-145 0 0,14-1-44 0 0,18 0-23 0 0,-18-2-30 0 0,488 4-308 0 0,-14 0-5358 0 0,-420-2 3296 0 0,-12-1-3265 0 0,68 9 0 0 0,-96-5 3008 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-13T16:52:12.917"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">126 33 540 0 0,'0'1'160'0'0,"0"-1"1"0"0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,20-3-241 0 0,-17 3 509 0 0,134-4 1234 0 0,-110 4-1420 0 0,-356 0 634 0 0,328 0-875 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,8 3 50 0 0,10 2 39 0 0,18 1 225 0 0,0-2 0 0 0,1-1 1 0 0,-1-2-1 0 0,1-1 1 0 0,55-9-1 0 0,-92 9-297 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-10-4 231 0 0,-11-1-235 0 0,18 5-8 0 0,-247-20 439 0 0,249 21-453 0 0,8 3 13 0 0,10 2 18 0 0,36 5 119 0 0,1-4 0 0 0,107 3 0 0 0,-175-18 550 0 0,-10-1-639 0 0,-43-4 99 0 0,-83-6 1 0 0,128 17-116 0 0,7 1 39 0 0,25 3 10 0 0,22 3 8 0 0,28 3-47 0 0,-24-4-1950 0 0,55 13 0 0 0,-79-14 481 0 0,19 8-4568 0 0,-24-5 3946 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1492,20 +9812,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5145FF9-7B28-45D3-AEB3-2B0CC8A016D3}">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="15"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="16"/>
-    <col min="4" max="4" width="6" style="15"/>
-    <col min="5" max="5" width="6" style="33"/>
+    <col min="4" max="4" width="6.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" style="15" customWidth="1"/>
     <col min="7" max="7" width="6" style="16"/>
     <col min="8" max="8" width="6" style="15"/>
@@ -1552,10 +9872,10 @@
       <c r="H1" s="37">
         <v>7</v>
       </c>
-      <c r="I1" s="38">
+      <c r="I1" s="40">
         <v>8</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="37">
         <v>9</v>
       </c>
@@ -1692,8 +10012,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="38">
+        <v>45182</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="39">
+        <v>16431</v>
+      </c>
       <c r="D3" s="20"/>
       <c r="E3" s="33"/>
       <c r="F3" s="20"/>
@@ -1721,7 +10046,9 @@
     </row>
     <row r="4" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20"/>
-      <c r="C4" s="18"/>
+      <c r="C4" s="39">
+        <v>16805</v>
+      </c>
       <c r="D4" s="20"/>
       <c r="E4" s="33"/>
       <c r="F4" s="20"/>
@@ -1748,10 +10075,21 @@
       <c r="AA4" s="26"/>
     </row>
     <row r="5" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="33"/>
+      <c r="A5" s="38">
+        <v>45189</v>
+      </c>
+      <c r="B5" s="42">
+        <v>10279</v>
+      </c>
+      <c r="C5" s="43">
+        <v>59680</v>
+      </c>
+      <c r="D5" s="23">
+        <v>37488</v>
+      </c>
+      <c r="E5" s="39">
+        <v>15100</v>
+      </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
       <c r="H5" s="20"/>
@@ -1778,8 +10116,12 @@
     <row r="6" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
       <c r="C6" s="18"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="33"/>
+      <c r="D6" s="32">
+        <v>37493</v>
+      </c>
+      <c r="E6" s="39">
+        <v>33176</v>
+      </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
       <c r="H6" s="20"/>
@@ -2348,4 +10690,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4904C75D-A7D5-4845-AC25-0F50497829B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443629A7-D35B-4A5B-BFDB-2C9B6AF27949}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="C45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ51" sqref="AJ51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>